--- a/TradingTheOpen.xlsx
+++ b/TradingTheOpen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="1440" windowWidth="24600" windowHeight="7380" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="840" windowWidth="24600" windowHeight="7380" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TradeHistory" sheetId="1" r:id="rId1"/>
@@ -23,642 +23,686 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="172">
+  <si>
+    <t>Sell To Close</t>
+  </si>
+  <si>
+    <t>ESZ18 - E Mini S&amp;P 500 December 2018</t>
+  </si>
+  <si>
+    <t>Buy To Open</t>
+  </si>
+  <si>
+    <t>Buy To Close</t>
+  </si>
+  <si>
+    <t>Sell To Open</t>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qty</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commission/Fees</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todays</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
   <si>
     <t>DD Trend</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>(8:30 Central)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Test-Drive</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD Trend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF('S&amp;P Historical Data'!I5:I30="Open-Test-Drive",SUM(MIN('S&amp;P Historical Data'!G5:G10,'S&amp;P Historical Data'!E5:E10)))</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average of Minimum on open-test drive days</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Counts</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Days</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD Trend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral-Extreme</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal Var</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral-Center</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-trend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Types of Opens</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Drive</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Test-Drive</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>No Gap</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD Trend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Time of Low</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Total Volume</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Open Type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Day Type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Open in Yesterdays Range</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Open in Yesterdays Value</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Gap Up/Down</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Number of times crossing open</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Previous Open</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Previous Close</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Previous High</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Previous Low</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Number of Trades</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Profit/Loss Points</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Profit/Loss Dollars</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>On open-test-drive days, how soon is the test completed, mean and std dev</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Market opened and traded sideways for 8 minutes. I was focused on downside and I got afraid I would miss the move. I got in too early. My plan was to get in at 2810, stop at 2817 and limit at 2795. I got in at 2806 right before the market shot up, struck too early. I did feel good however and did not over trade like I have been doing.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>No Gap</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Points</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Dollars</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Open-Reject-Reverse,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Open (first 1.5 hr)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Time of</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>High</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Position Close</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Position Open</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Buy/Sell</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Price</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>commission</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Cost</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Proceeds</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Notes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Sell</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Loss/Gain</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sell To Close</t>
-  </si>
-  <si>
-    <t>ESZ18 - E Mini S&amp;P 500 December 2018</t>
-  </si>
-  <si>
-    <t>Buy To Open</t>
-  </si>
-  <si>
-    <t>Buy To Close</t>
-  </si>
-  <si>
-    <t>Sell To Open</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only take 3 trades per day, one to open, one reversal (optional), and one to close. I am going to trade for the first 1.5 hours only. This is the discipline I am going to get on for a while, and work my niche.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qty</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Commission/Fees</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Previous</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-trend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-trend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Test-Drive</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD Trend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Down</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Down,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Drive</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossing the open</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>in first 1.5 hrs</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Number</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Drive</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>My trades</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Trades</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profit and Loss</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Volume</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30-10a</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>When opening within previous days value range, what percent of the time do previous value extremes hold?</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todays Open</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open High</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are the greatest range extensions outside of the previous days value range in the open?</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>The greatest imbalance occurs when open is outside of range and the direction is accepted, usually a trend day develops</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Open</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Previous</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Close</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todays</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>High</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Low</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD Trend</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(8:30 Central)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Yesterdays</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value? (Y/N)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash market only (8:30-3 central)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opened, went slightly down in first 2 min, bounced up to high at 8:44 and then kept falling</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal Var, Neutral-Center,</t>
+  </si>
+  <si>
+    <t>Trend, DD Trend, Neutral-Extreme,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal, Non-trend</t>
+  </si>
+  <si>
+    <t>Day type:</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open type:</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Yesterdays</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range? (Y/N)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>just kept going lower, I kept getting out too soon when I sold</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of times</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>27% of all days are neutral days, likely to break IB high and IB low (FT71)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>73% of all days are likely to only break one side of IB high or IB low</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>98% of time break either IB high or IB low</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Types of Days</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time of High</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Low</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Open-Test-Drive, how soon does it bounce back, how soon does it cross back over the open, by how much does it deviate away from the open&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Open-Test-Drive</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>On open auction days, how many minutes to take direction</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>On days with a drive in the first few minutes, what type of day is that? How much does it move in first few minutes?</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Test-Drive Statistics</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Drive, Open-Test-Drive,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Number</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Days</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time of test</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUMIF('S&amp;P Historical Data'!I5:I30="Open-Test-Drive",MIN('S&amp;P Historical Data'!G5:G10,'S&amp;P Historical Data'!E5:E10))</t>
+  </si>
+  <si>
+    <t>Open-Drive</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opened and traded back and forth around the open 2793. It dropped and met some resistance at 2785, lots of volume there. It dropped below to 2780 and the volume was lower. To fill the gap it would be down to 2774 but I got out at 2780 because the volume was low at 2780 and that is a point of consolidation on the trader bite. If the bottom drops out I will be wrong, but it seemed like this was the right move.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am starting here to focus on only trading the open. I got caught up in emotional trading yesterday so I am going to drill in and focus on a more specific strategy</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Gap Up</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Auction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Up,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Down,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trend</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Drive</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossing the open</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>in first 1.5 hrs</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Number</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Drive</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>My trades</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of Trades</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Profit and Loss</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Volume</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>8:30-10a</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>When opening within previous days value range, what percent of the time do previous value extremes hold?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Auction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todays Open</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open High</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>What are the greatest range extensions outside of the previous days value range in the open?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>The greatest imbalance occurs when open is outside of range and the direction is accepted, usually a trend day develops</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sell</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Reject-Reverse</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10+</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>In Yesterdays</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value? (Y/N)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cash market only (8:30-3 central)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opened, went slightly down in first 2 min, bounced up to high at 8:44 and then kept falling</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal Var, Neutral-Center,</t>
-  </si>
-  <si>
-    <t>Trend, DD Trend, Neutral-Extreme,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal, Non-trend</t>
-  </si>
-  <si>
-    <t>Day type:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open type:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Auction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>In Yesterdays</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range? (Y/N)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IF('S&amp;P Historical Data'!I5:I30="Open-Test-Drive",SUM(MIN('S&amp;P Historical Data'!G5:G10,'S&amp;P Historical Data'!E5:E10)))</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average of Minimum on open-test drive days</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Counts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trend</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Days</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD Trend</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neutral-Extreme</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal Var</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neutral-Center</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-trend</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Types of Opens</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Drive</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Test-Drive</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Reject-Reverse</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Auction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Types of Days</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time of High</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open Low</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>On Open-Test-Drive, how soon does it bounce back, how soon does it cross back over the open, by how much does it deviate away from the open&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Test-Drive</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>On open auction days, how many minutes to take direction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>On days with a drive in the first few minutes, what type of day is that? How much does it move in first few minutes?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Test-Drive Statistics</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Drive, Open-Test-Drive,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Auction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trend</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Number</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Days</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time of test</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUMIF('S&amp;P Historical Data'!I5:I30="Open-Test-Drive",MIN('S&amp;P Historical Data'!G5:G10,'S&amp;P Historical Data'!E5:E10))</t>
-  </si>
-  <si>
-    <t>Open-Drive</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opened and traded back and forth around the open 2793. It dropped and met some resistance at 2785, lots of volume there. It dropped below to 2780 and the volume was lower. To fill the gap it would be down to 2774 but I got out at 2780 because the volume was low at 2780 and that is a point of consolidation on the trader bite. If the bottom drops out I will be wrong, but it seemed like this was the right move.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>I am starting here to focus on only trading the open. I got caught up in emotional trading yesterday so I am going to drill in and focus on a more specific strategy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Up</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only take 3 trades per day, one to open, one reversal (optional), and one to close. I am going to trade for the first 1.5 hours only. This is the discipline I am going to get on for a while, and work my niche.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-trend</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-trend</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Test-Drive</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD Trend</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Up</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trend</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Down</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>just kept going lower, I kept getting out too soon when I sold</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of times</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -668,7 +712,19 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -729,25 +785,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1087,48 +1155,48 @@
   <sheetData>
     <row r="1" spans="2:15">
       <c r="B1" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="2:15" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:15">
@@ -1136,7 +1204,7 @@
         <v>41940</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D4">
         <v>2695</v>
@@ -1159,19 +1227,19 @@
     </row>
     <row r="11" spans="2:15">
       <c r="B11" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -1179,13 +1247,13 @@
         <v>41944</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>2719.5</v>
@@ -1204,13 +1272,13 @@
         <v>41944</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>2722</v>
@@ -1230,13 +1298,13 @@
         <v>41944</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>2723.75</v>
@@ -1255,13 +1323,13 @@
         <v>41944</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>2722.75</v>
@@ -1281,13 +1349,13 @@
         <v>41944</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>2717.75</v>
@@ -1306,13 +1374,13 @@
         <v>41944</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>2730.25</v>
@@ -1332,13 +1400,13 @@
         <v>41944</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>2726.5</v>
@@ -1357,13 +1425,13 @@
         <v>41944</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>2728.75</v>
@@ -1383,13 +1451,13 @@
         <v>41944</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>2747.25</v>
@@ -1408,13 +1476,13 @@
         <v>41944</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>2752</v>
@@ -1433,13 +1501,13 @@
         <v>41944</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>2756.25</v>
@@ -1462,13 +1530,13 @@
         <v>41944</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>2753.75</v>
@@ -1487,13 +1555,13 @@
         <v>41944</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>2752.75</v>
@@ -1512,13 +1580,13 @@
         <v>41944</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>2747</v>
@@ -1537,13 +1605,13 @@
         <v>41944</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>2750.75</v>
@@ -1562,13 +1630,13 @@
         <v>41944</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>2747</v>
@@ -1587,13 +1655,13 @@
         <v>41944</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>2753.75</v>
@@ -1613,13 +1681,13 @@
         <v>41943</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>2726.5</v>
@@ -1634,13 +1702,13 @@
         <v>41943</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>2736</v>
@@ -1659,13 +1727,13 @@
         <v>41943</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>2728</v>
@@ -1685,13 +1753,13 @@
         <v>41942</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>2720</v>
@@ -1710,13 +1778,13 @@
         <v>41941</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>2679</v>
@@ -1736,13 +1804,13 @@
         <v>41941</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>2665</v>
@@ -1761,13 +1829,13 @@
         <v>41941</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>2648</v>
@@ -1787,13 +1855,13 @@
         <v>41940</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>2638.25</v>
@@ -1812,13 +1880,13 @@
         <v>41940</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>2637.75</v>
@@ -1838,13 +1906,13 @@
         <v>41940</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F48">
         <v>2705</v>
@@ -1867,13 +1935,13 @@
         <v>41940</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <v>2692.25</v>
@@ -1892,13 +1960,13 @@
         <v>41940</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <v>2695.25</v>
@@ -1918,13 +1986,13 @@
         <v>41940</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F52">
         <v>2695.25</v>
@@ -1943,13 +2011,13 @@
         <v>41940</v>
       </c>
       <c r="C53" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F53">
         <v>2695</v>
@@ -1972,60 +2040,60 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="G60" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="1" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -2033,7 +2101,7 @@
         <v>41947</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="C63">
         <v>2730.25</v>
@@ -2045,7 +2113,7 @@
         <v>41947</v>
       </c>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="I63">
         <v>2720</v>
@@ -2059,7 +2127,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -2081,46 +2149,46 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="17" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -2132,10 +2200,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A8:H31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2147,42 +2215,57 @@
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+    </row>
     <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="F9" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="F12" s="9">
-        <f>SUM(IF(SPHistoricalData!I7:I32="Open-Test-Drive",MIN(SPHistoricalData!G7:G12,SPHistoricalData!E7:E12)))/B13</f>
-        <v>0.11805555555555557</v>
+        <f>SUM(IF(SPHistoricalData!I10:I35="Open-Test-Drive",MIN(SPHistoricalData!G10:G15,SPHistoricalData!E10:E15)))/B13</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2191,197 +2274,197 @@
         <v>3</v>
       </c>
       <c r="D13" s="8">
-        <f>IF(SPHistoricalData!I12="Open-Test-Drive",MIN(SPHistoricalData!G12,SPHistoricalData!E12))</f>
+        <f>IF(SPHistoricalData!I15="Open-Test-Drive",MIN(SPHistoricalData!G15,SPHistoricalData!E15))</f>
         <v>0.36388888888888887</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="D15" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="D16" s="9">
-        <f>(SPHistoricalData!E12+SPHistoricalData!G15+SPHistoricalData!G14)/3</f>
+        <f>(SPHistoricalData!E15+SPHistoricalData!G18+SPHistoricalData!G17)/3</f>
         <v>0.35856481481481484</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="H21" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24">
-        <f>COUNTIF(SPHistoricalData!$J$7:$J25,"Trend")</f>
+        <f>COUNTIF(SPHistoricalData!$J$10:$J28,"Trend")</f>
         <v>3</v>
       </c>
       <c r="C24">
-        <f>COUNTIF(SPHistoricalData!$J$7:$J25,"DD Trend")</f>
+        <f>COUNTIF(SPHistoricalData!$J$10:$J28,"DD Trend")</f>
         <v>3</v>
       </c>
       <c r="D24">
-        <f>COUNTIF(SPHistoricalData!$J$7:$J25,"Neutral-Extreme")</f>
+        <f>COUNTIF(SPHistoricalData!$J$10:$J28,"Neutral-Extreme")</f>
         <v>0</v>
       </c>
       <c r="E24">
-        <f>COUNTIF(SPHistoricalData!$J$7:$J25,"Normal Var")</f>
+        <f>COUNTIF(SPHistoricalData!$J$10:$J28,"Normal Var")</f>
         <v>0</v>
       </c>
       <c r="F24">
-        <f>COUNTIF(SPHistoricalData!$J$7:$J25,"Neutral-Center")</f>
+        <f>COUNTIF(SPHistoricalData!$J$10:$J28,"Neutral-Center")</f>
         <v>0</v>
       </c>
       <c r="G24">
-        <f>COUNTIF(SPHistoricalData!$J$7:$J25,"Normal")</f>
+        <f>COUNTIF(SPHistoricalData!$J$10:$J28,"Normal")</f>
         <v>1</v>
       </c>
       <c r="H24">
-        <f>COUNTIF(SPHistoricalData!$J$7:$J25,"Non-trend")</f>
+        <f>COUNTIF(SPHistoricalData!$J$10:$J28,"Non-trend")</f>
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="B31">
-        <f>COUNTIF(SPHistoricalData!$I$7:$I32,"Open-Drive")</f>
+        <f>COUNTIF(SPHistoricalData!$I$10:$I35,"Open-Drive")</f>
         <v>2</v>
       </c>
       <c r="C31">
-        <f>COUNTIF(SPHistoricalData!$I$7:$I32,"Open-Test-Drive")</f>
+        <f>COUNTIF(SPHistoricalData!$I$10:$I35,"Open-Test-Drive")</f>
         <v>3</v>
       </c>
       <c r="D31">
-        <f>COUNTIF(SPHistoricalData!$I$7:$I32,"Open-Reject-Reverse")</f>
+        <f>COUNTIF(SPHistoricalData!$I$10:$I35,"Open-Reject-Reverse")</f>
         <v>1</v>
       </c>
       <c r="E31">
-        <f>COUNTIF(SPHistoricalData!$I$7:$I32,"Open-Auction")</f>
+        <f>COUNTIF(SPHistoricalData!$I$10:$I35,"Open-Auction")</f>
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -2393,11 +2476,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="B1:Y19"/>
+  <dimension ref="B1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V6" sqref="V6"/>
+      <selection pane="bottomLeft" activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2416,812 +2499,950 @@
   <sheetData>
     <row r="1" spans="2:25">
       <c r="I1" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="J1" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="N1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="P1" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="U1" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="2:25">
       <c r="C2" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="J2" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="N2" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="2:25">
       <c r="C3" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="K3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" t="s">
         <v>106</v>
       </c>
-      <c r="L3" t="s">
-        <v>95</v>
-      </c>
-      <c r="M3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" t="s">
-        <v>69</v>
-      </c>
       <c r="P3" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="Q3" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="R3" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="S3" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="V3" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="W3" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="2:25">
       <c r="B4" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="I4" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="J4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" t="s">
+        <v>144</v>
+      </c>
+      <c r="L4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M4" t="s">
         <v>102</v>
       </c>
-      <c r="K4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M4" t="s">
-        <v>65</v>
-      </c>
       <c r="P4" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="Q4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="R4" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="U4" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="V4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="W4" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:25" s="10" customFormat="1">
       <c r="B5" s="10" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="H5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" s="26" customFormat="1">
+      <c r="B6" s="29">
+        <v>41957</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="P6" s="26">
+        <v>2743.75</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>2703</v>
+      </c>
+      <c r="R6" s="26">
+        <v>2748.25</v>
+      </c>
+      <c r="S6" s="26">
+        <v>2686.25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" s="22" customFormat="1">
+      <c r="B7" s="25">
+        <v>41956</v>
+      </c>
+      <c r="C7" s="22">
+        <v>2743.75</v>
+      </c>
+      <c r="D7" s="22">
+        <v>2748.25</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="F7" s="22">
+        <v>2722.5</v>
+      </c>
+      <c r="G7" s="23">
+        <v>0.41111111111111115</v>
+      </c>
+      <c r="H7" s="24">
+        <v>460681</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="22">
         <v>4</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="10" t="s">
+      <c r="P7" s="22">
+        <v>2733.25</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>2727.5</v>
+      </c>
+      <c r="R7" s="22">
+        <v>2755.75</v>
+      </c>
+      <c r="S7" s="22">
+        <v>2714.5</v>
+      </c>
+      <c r="U7" s="22">
+        <v>0</v>
+      </c>
+      <c r="V7" s="22">
+        <v>0</v>
+      </c>
+      <c r="W7" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" s="18" customFormat="1">
+      <c r="B8" s="21">
+        <v>41955</v>
+      </c>
+      <c r="C8" s="18">
+        <v>2733.25</v>
+      </c>
+      <c r="D8" s="18">
+        <v>2744</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="F8" s="18">
+        <v>2719.5</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="H8" s="20">
+        <v>546403</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="18">
         <v>6</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="10" t="s">
+      <c r="P8" s="18">
+        <v>2774.25</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>2728.75</v>
+      </c>
+      <c r="R8" s="18">
+        <v>2777.5</v>
+      </c>
+      <c r="S8" s="18">
+        <v>2722.25</v>
+      </c>
+      <c r="U8" s="18">
+        <v>6</v>
+      </c>
+      <c r="V8" s="18">
+        <v>-17.25</v>
+      </c>
+      <c r="W8" s="18">
+        <v>-862</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" s="14" customFormat="1">
+      <c r="B9" s="13">
+        <v>41954</v>
+      </c>
+      <c r="C9" s="14">
+        <v>2774.25</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2777.5</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.35486111111111113</v>
+      </c>
+      <c r="F9" s="14">
+        <v>2745.5</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H9" s="16">
+        <v>448339</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="14">
+        <v>2793</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>2779.75</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2795.25</v>
+      </c>
+      <c r="S9" s="14">
+        <v>2764.5</v>
+      </c>
+      <c r="U9" s="14">
         <v>8</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25" s="14" customFormat="1">
-      <c r="B6" s="13">
-        <v>41954</v>
-      </c>
-      <c r="C6" s="14">
-        <v>2774.25</v>
-      </c>
-      <c r="D6" s="14">
-        <v>2777.5</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0.35486111111111113</v>
-      </c>
-      <c r="F6" s="14">
-        <v>2745.5</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="H6" s="16">
-        <v>448339</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" s="14">
-        <v>0</v>
-      </c>
-      <c r="P6" s="14">
-        <v>2793</v>
-      </c>
-      <c r="Q6" s="14">
-        <v>2779.75</v>
-      </c>
-      <c r="R6" s="14">
-        <v>2795.25</v>
-      </c>
-      <c r="S6" s="14">
-        <v>2764.5</v>
-      </c>
-      <c r="U6" s="14">
-        <v>8</v>
-      </c>
-      <c r="V6" s="14">
+      <c r="V9" s="14">
         <v>-5.25</v>
       </c>
-      <c r="W6" s="14">
+      <c r="W9" s="14">
         <v>-262.5</v>
       </c>
-      <c r="Y6" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="2:25">
-      <c r="B7" s="2">
-        <v>41951</v>
-      </c>
-      <c r="C7">
-        <v>2793</v>
-      </c>
-      <c r="D7">
-        <v>2795.25</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0.35555555555555557</v>
-      </c>
-      <c r="F7">
-        <v>2777.25</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0.41944444444444445</v>
-      </c>
-      <c r="H7" s="5">
-        <v>404717</v>
-      </c>
-      <c r="I7" t="s">
-        <v>141</v>
-      </c>
-      <c r="J7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M7" t="s">
-        <v>158</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>2804.75</v>
-      </c>
-      <c r="Q7">
-        <v>2809.25</v>
-      </c>
-      <c r="R7">
-        <v>2815.25</v>
-      </c>
-      <c r="S7">
-        <v>2795</v>
-      </c>
-      <c r="U7">
-        <v>8</v>
-      </c>
-      <c r="V7">
-        <v>-2</v>
-      </c>
-      <c r="W7">
-        <v>-100</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25">
-      <c r="B8" s="2">
-        <v>41950</v>
-      </c>
-      <c r="C8">
-        <v>2804.75</v>
-      </c>
-      <c r="D8">
-        <v>2813.25</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0.37152777777777773</v>
-      </c>
-      <c r="F8">
-        <v>2804.5</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0.38680555555555557</v>
-      </c>
-      <c r="H8" s="5">
-        <v>321469</v>
-      </c>
-      <c r="I8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" t="s">
-        <v>147</v>
-      </c>
-      <c r="K8" t="s">
-        <v>148</v>
-      </c>
-      <c r="M8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>2779</v>
-      </c>
-      <c r="Q8">
-        <v>2814</v>
-      </c>
-      <c r="R8">
-        <v>2815</v>
-      </c>
-      <c r="S8">
-        <v>2774.25</v>
-      </c>
-      <c r="U8">
-        <v>2</v>
-      </c>
-      <c r="V8">
-        <v>-5</v>
-      </c>
-      <c r="W8">
-        <v>-250</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:25">
-      <c r="B9" s="2">
-        <v>41949</v>
-      </c>
-      <c r="C9">
-        <v>2779</v>
-      </c>
-      <c r="D9">
-        <v>2792</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0.41250000000000003</v>
-      </c>
-      <c r="F9">
-        <v>2774.25</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0.37847222222222227</v>
-      </c>
-      <c r="H9" s="5">
-        <v>354715</v>
-      </c>
-      <c r="I9" t="s">
-        <v>134</v>
-      </c>
-      <c r="J9" t="s">
-        <v>135</v>
-      </c>
-      <c r="K9" t="s">
-        <v>133</v>
-      </c>
-      <c r="M9" t="s">
-        <v>144</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-      <c r="P9">
-        <v>2736.75</v>
-      </c>
-      <c r="Q9">
-        <v>2756</v>
-      </c>
-      <c r="R9">
-        <v>2756</v>
-      </c>
-      <c r="S9">
-        <v>2736.75</v>
-      </c>
-      <c r="U9">
-        <v>11</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
+      <c r="Y9" s="14" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="2:25">
       <c r="B10" s="2">
-        <v>41948</v>
+        <v>41951</v>
       </c>
       <c r="C10">
-        <v>2736.75</v>
+        <v>2793</v>
       </c>
       <c r="D10">
-        <v>2751.75</v>
+        <v>2795.25</v>
       </c>
       <c r="E10" s="9">
-        <v>0.37361111111111112</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="F10">
-        <v>2736.75</v>
+        <v>2777.25</v>
       </c>
       <c r="G10" s="9">
-        <v>0.35416666666666669</v>
+        <v>0.41944444444444445</v>
       </c>
       <c r="H10" s="5">
-        <v>354715</v>
+        <v>404717</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="J10" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="M10" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>2727.5</v>
+        <v>2804.75</v>
       </c>
       <c r="Q10">
-        <v>2740.25</v>
+        <v>2809.25</v>
       </c>
       <c r="R10">
-        <v>2743.75</v>
+        <v>2815.25</v>
       </c>
       <c r="S10">
-        <v>2717</v>
+        <v>2795</v>
       </c>
       <c r="U10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V10">
-        <v>-12.5</v>
+        <v>-2</v>
       </c>
       <c r="W10">
-        <v>-625</v>
+        <v>-100</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="2:25">
       <c r="B11" s="2">
-        <v>41947</v>
+        <v>41950</v>
       </c>
       <c r="C11">
-        <v>2727.5</v>
+        <v>2804.75</v>
       </c>
       <c r="D11">
-        <v>2733.25</v>
+        <v>2813.25</v>
       </c>
       <c r="E11" s="9">
-        <v>0.35833333333333334</v>
+        <v>0.37152777777777773</v>
       </c>
       <c r="F11">
-        <v>2717</v>
+        <v>2804.5</v>
       </c>
       <c r="G11" s="9">
-        <v>0.39097222222222222</v>
+        <v>0.38680555555555557</v>
       </c>
       <c r="H11" s="5">
-        <v>377277</v>
+        <v>321469</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M11" t="s">
-        <v>91</v>
-      </c>
-      <c r="N11" t="s">
-        <v>92</v>
+        <v>67</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>2751.5</v>
+        <v>2779</v>
       </c>
       <c r="Q11">
-        <v>2722.75</v>
+        <v>2814</v>
       </c>
       <c r="R11">
-        <v>2756.5</v>
+        <v>2815</v>
       </c>
       <c r="S11">
-        <v>2699.5</v>
+        <v>2774.25</v>
       </c>
       <c r="U11">
         <v>2</v>
       </c>
       <c r="V11">
-        <v>10.25</v>
+        <v>-5</v>
       </c>
       <c r="W11">
-        <v>512.5</v>
+        <v>-250</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:25">
       <c r="B12" s="2">
-        <v>41944</v>
+        <v>41949</v>
       </c>
       <c r="C12">
-        <v>2751.5</v>
+        <v>2779</v>
       </c>
       <c r="D12">
-        <v>2756.5</v>
+        <v>2792</v>
       </c>
       <c r="E12" s="9">
-        <v>0.36388888888888887</v>
+        <v>0.41250000000000003</v>
       </c>
       <c r="F12">
-        <v>2721.75</v>
+        <v>2774.25</v>
       </c>
       <c r="G12" s="9">
-        <v>0.40277777777777773</v>
+        <v>0.37847222222222227</v>
       </c>
       <c r="H12" s="5">
-        <v>566727</v>
+        <v>354715</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="K12" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="N12">
         <v>2</v>
       </c>
       <c r="P12">
-        <v>2706</v>
+        <v>2736.75</v>
       </c>
       <c r="Q12">
-        <v>2738</v>
+        <v>2756</v>
       </c>
       <c r="R12">
-        <v>2741.25</v>
+        <v>2756</v>
       </c>
       <c r="S12">
-        <v>2705.5</v>
+        <v>2736.75</v>
+      </c>
+      <c r="U12">
+        <v>11</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>-1759</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:25">
       <c r="B13" s="2">
-        <v>41943</v>
+        <v>41948</v>
       </c>
       <c r="C13">
-        <v>2720.5</v>
+        <v>2736.75</v>
       </c>
       <c r="D13">
-        <v>2732.25</v>
+        <v>2751.75</v>
       </c>
       <c r="E13" s="9">
-        <v>0.41666666666666669</v>
+        <v>0.37361111111111112</v>
       </c>
       <c r="F13">
-        <v>2707.75</v>
+        <v>2736.75</v>
       </c>
       <c r="G13" s="9">
-        <v>0.38055555555555554</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="H13" s="5">
-        <v>567516</v>
+        <v>354715</v>
       </c>
       <c r="I13" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="J13" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="K13" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="M13" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>2710.5</v>
+        <v>2727.5</v>
       </c>
       <c r="Q13">
-        <v>2709.75</v>
+        <v>2740.25</v>
       </c>
       <c r="R13">
-        <v>2736.5</v>
+        <v>2743.75</v>
       </c>
       <c r="S13">
-        <v>2704.75</v>
+        <v>2717</v>
+      </c>
+      <c r="U13">
+        <v>10</v>
+      </c>
+      <c r="V13">
+        <v>-12.5</v>
       </c>
       <c r="W13">
-        <v>-391</v>
+        <v>-625</v>
       </c>
     </row>
     <row r="14" spans="2:25">
       <c r="B14" s="2">
-        <v>41942</v>
+        <v>41947</v>
       </c>
       <c r="C14">
-        <v>2711.75</v>
+        <v>2727.5</v>
       </c>
       <c r="D14">
-        <v>2729.25</v>
+        <v>2733.25</v>
       </c>
       <c r="E14" s="9">
-        <v>0.39930555555555558</v>
+        <v>0.35833333333333334</v>
       </c>
       <c r="F14">
-        <v>2706.25</v>
+        <v>2717</v>
       </c>
       <c r="G14" s="9">
-        <v>0.3576388888888889</v>
+        <v>0.39097222222222222</v>
       </c>
       <c r="H14" s="5">
-        <v>517819</v>
+        <v>377277</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s">
-        <v>153</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
+        <v>128</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
       </c>
       <c r="P14">
-        <v>2641.25</v>
+        <v>2751.5</v>
       </c>
       <c r="Q14">
-        <v>2683.5</v>
+        <v>2722.75</v>
       </c>
       <c r="R14">
-        <v>2683.5</v>
+        <v>2756.5</v>
       </c>
       <c r="S14">
-        <v>2635.75</v>
+        <v>2699.5</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>10.25</v>
+      </c>
+      <c r="W14">
+        <v>512.5</v>
       </c>
     </row>
     <row r="15" spans="2:25">
       <c r="B15" s="2">
+        <v>41944</v>
+      </c>
+      <c r="C15">
+        <v>2751.5</v>
+      </c>
+      <c r="D15">
+        <v>2756.5</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="F15">
+        <v>2721.75</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="H15" s="5">
+        <v>566727</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>2706</v>
+      </c>
+      <c r="Q15">
+        <v>2738</v>
+      </c>
+      <c r="R15">
+        <v>2741.25</v>
+      </c>
+      <c r="S15">
+        <v>2705.5</v>
+      </c>
+      <c r="W15">
+        <v>-1759</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25">
+      <c r="B16" s="2">
+        <v>41943</v>
+      </c>
+      <c r="C16">
+        <v>2720.5</v>
+      </c>
+      <c r="D16">
+        <v>2732.25</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F16">
+        <v>2707.75</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="H16" s="5">
+        <v>567516</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" t="s">
+        <v>102</v>
+      </c>
+      <c r="N16">
+        <v>6</v>
+      </c>
+      <c r="P16">
+        <v>2710.5</v>
+      </c>
+      <c r="Q16">
+        <v>2709.75</v>
+      </c>
+      <c r="R16">
+        <v>2736.5</v>
+      </c>
+      <c r="S16">
+        <v>2704.75</v>
+      </c>
+      <c r="W16">
+        <v>-391</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23">
+      <c r="B17" s="2">
+        <v>41942</v>
+      </c>
+      <c r="C17">
+        <v>2711.75</v>
+      </c>
+      <c r="D17">
+        <v>2729.25</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="F17">
+        <v>2706.25</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="H17" s="5">
+        <v>517819</v>
+      </c>
+      <c r="I17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>2641.25</v>
+      </c>
+      <c r="Q17">
+        <v>2683.5</v>
+      </c>
+      <c r="R17">
+        <v>2683.5</v>
+      </c>
+      <c r="S17">
+        <v>2635.75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23">
+      <c r="B18" s="2">
         <v>41941</v>
       </c>
-      <c r="C15">
+      <c r="C18">
         <v>2641.25</v>
       </c>
-      <c r="D15">
+      <c r="D18">
         <v>2675.25</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E18" s="9">
         <v>0.37152777777777773</v>
       </c>
-      <c r="F15">
+      <c r="F18">
         <v>2635.75</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G18" s="9">
         <v>0.35416666666666669</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H18" s="5">
         <v>650925</v>
       </c>
-      <c r="I15" t="s">
-        <v>150</v>
-      </c>
-      <c r="J15" t="s">
-        <v>151</v>
-      </c>
-      <c r="K15" t="s">
-        <v>154</v>
-      </c>
-      <c r="M15" t="s">
-        <v>155</v>
-      </c>
-      <c r="N15">
+      <c r="I18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" t="s">
+        <v>95</v>
+      </c>
+      <c r="M18" t="s">
+        <v>96</v>
+      </c>
+      <c r="N18">
         <v>0</v>
       </c>
-      <c r="P15">
+      <c r="P18">
         <v>2692.25</v>
       </c>
-      <c r="Q15">
+      <c r="Q18">
         <v>2638.75</v>
       </c>
-      <c r="R15">
+      <c r="R18">
         <v>2707</v>
       </c>
-      <c r="S15">
+      <c r="S18">
         <v>2603</v>
       </c>
-      <c r="W15">
+      <c r="W18">
         <v>1211</v>
       </c>
     </row>
-    <row r="16" spans="2:25">
-      <c r="W16">
+    <row r="19" spans="2:23">
+      <c r="W19">
         <v>-770</v>
       </c>
     </row>
-    <row r="19" spans="23:23">
-      <c r="W19">
-        <f>SUM(W7:W16)</f>
+    <row r="22" spans="2:23">
+      <c r="W22">
+        <f>SUM(W10:W19)</f>
         <v>-2171.5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -3239,7 +3460,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/TradingTheOpen.xlsx
+++ b/TradingTheOpen.xlsx
@@ -23,7 +23,203 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="183">
+  <si>
+    <t>Time of Low</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Volume</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Type</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day Type</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open in Yesterdays Range</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open in Yesterdays Value</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up/Down</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of times crossing open</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous Open</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous Close</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous High</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous Low</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Trades</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profit/Loss Points</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profit/Loss Dollars</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>On open-test-drive days, how soon is the test completed, mean and std dev</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral?</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Down</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trend?</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal?</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trend</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Down</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Down,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trend</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Drive</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossing the open</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>in first 1.5 hrs</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Number</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Drive</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>My trades</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Trades</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profit and Loss</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Volume</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30-10a</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>When opening within previous days value range, what percent of the time do previous value extremes hold?</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todays Open</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open High</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
   <si>
     <t>Sell To Close</t>
   </si>
@@ -41,678 +237,538 @@
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Action</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Qty</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Price</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Commission/Fees</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Previous</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Open</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Previous</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Close</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Todays</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>High</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Low</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Open</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DD Trend</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>(8:30 Central)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Open-Test-Drive</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Gap Up</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Open-Auction</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Open-Auction</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DD Trend</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Gap Up</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IF('S&amp;P Historical Data'!I5:I30="Open-Test-Drive",SUM(MIN('S&amp;P Historical Data'!G5:G10,'S&amp;P Historical Data'!E5:E10)))</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Average of Minimum on open-test drive days</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Total Counts</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Trend</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Days</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DD Trend</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Neutral-Extreme</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Normal Var</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Neutral-Center</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Normal</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Non-trend</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Types of Opens</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Open-Drive</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Open-Test-Drive</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Open-Reject-Reverse</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Open-Reject-Reverse</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Neutral</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>No Gap</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DD Trend</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>No Gap</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time of Low</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Volume</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open Type</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day Type</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open in Yesterdays Range</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open in Yesterdays Value</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Up/Down</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of times crossing open</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Previous Open</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Previous Close</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Previous High</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Previous Low</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of Trades</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Profit/Loss Points</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Profit/Loss Dollars</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>On open-test-drive days, how soon is the test completed, mean and std dev</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>98% of time break either IB high or IB low</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Types of Days</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time of High</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Low</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Open-Test-Drive, how soon does it bounce back, how soon does it cross back over the open, by how much does it deviate away from the open&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Test-Drive</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>On open auction days, how many minutes to take direction</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>On days with a drive in the first few minutes, what type of day is that? How much does it move in first few minutes?</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Test-Drive Statistics</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Drive, Open-Test-Drive,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trend</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Number</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Days</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time of test</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Market opened and traded sideways for 8 minutes. I was focused on downside and I got afraid I would miss the move. I got in too early. My plan was to get in at 2810, stop at 2817 and limit at 2795. I got in at 2806 right before the market shot up, struck too early. I did feel good however and did not over trade like I have been doing.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>No Gap</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Points</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Dollars</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Open-Reject-Reverse,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Open (first 1.5 hr)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Time of</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>High</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Position Close</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Position Open</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Buy/Sell</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Price</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>commission</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Cost</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Proceeds</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Notes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Sell</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Loss/Gain</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Only take 3 trades per day, one to open, one reversal (optional), and one to close. I am going to trade for the first 1.5 hours only. This is the discipline I am going to get on for a while, and work my niche.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Non-trend</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Non-trend</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Open-Test-Drive</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DD Trend</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Gap Up</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>No Gap</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trend</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUMIF('S&amp;P Historical Data'!I5:I30="Open-Test-Drive",MIN('S&amp;P Historical Data'!G5:G10,'S&amp;P Historical Data'!E5:E10))</t>
+  </si>
+  <si>
+    <t>Open-Drive</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opened and traded back and forth around the open 2793. It dropped and met some resistance at 2785, lots of volume there. It dropped below to 2780 and the volume was lower. To fill the gap it would be down to 2774 but I got out at 2780 because the volume was low at 2780 and that is a point of consolidation on the trader bite. If the bottom drops out I will be wrong, but it seemed like this was the right move.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am starting here to focus on only trading the open. I got caught up in emotional trading yesterday so I am going to drill in and focus on a more specific strategy</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Gap Down</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Up,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Down,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>No Gap</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trend</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Drive</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossing the open</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>in first 1.5 hrs</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Number</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Drive</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are the greatest range extensions outside of the previous days value range in the open?</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>The greatest imbalance occurs when open is outside of range and the direction is accepted, usually a trend day develops</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>No Gap</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>My trades</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of Trades</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Profit and Loss</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Volume</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>8:30-10a</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>When opening within previous days value range, what percent of the time do previous value extremes hold?</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Yesterdays</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value? (Y/N)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash market only (8:30-3 central)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opened, went slightly down in first 2 min, bounced up to high at 8:44 and then kept falling</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal Var, Neutral-Center,</t>
+  </si>
+  <si>
+    <t>Trend, DD Trend, Neutral-Extreme,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal, Non-trend</t>
+  </si>
+  <si>
+    <t>Day type:</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open type:</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Open-Auction</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todays Open</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open High</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>What are the greatest range extensions outside of the previous days value range in the open?</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>The greatest imbalance occurs when open is outside of range and the direction is accepted, usually a trend day develops</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sell</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buy</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Reject-Reverse</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10+</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>In Yesterdays</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value? (Y/N)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cash market only (8:30-3 central)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opened, went slightly down in first 2 min, bounced up to high at 8:44 and then kept falling</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal Var, Neutral-Center,</t>
-  </si>
-  <si>
-    <t>Trend, DD Trend, Neutral-Extreme,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal, Non-trend</t>
-  </si>
-  <si>
-    <t>Day type:</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open type:</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Auction</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>In Yesterdays</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Range? (Y/N)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>just kept going lower, I kept getting out too soon when I sold</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Number of times</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>27% of all days are neutral days, likely to break IB high and IB low (FT71)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>73% of all days are likely to only break one side of IB high or IB low</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>98% of time break either IB high or IB low</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Auction</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Types of Days</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time of High</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open Low</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>On Open-Test-Drive, how soon does it bounce back, how soon does it cross back over the open, by how much does it deviate away from the open&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Test-Drive</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>On open auction days, how many minutes to take direction</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>On days with a drive in the first few minutes, what type of day is that? How much does it move in first few minutes?</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Test-Drive Statistics</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Drive, Open-Test-Drive,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Auction</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trend</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Number</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Days</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time of test</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUMIF('S&amp;P Historical Data'!I5:I30="Open-Test-Drive",MIN('S&amp;P Historical Data'!G5:G10,'S&amp;P Historical Data'!E5:E10))</t>
-  </si>
-  <si>
-    <t>Open-Drive</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opened and traded back and forth around the open 2793. It dropped and met some resistance at 2785, lots of volume there. It dropped below to 2780 and the volume was lower. To fill the gap it would be down to 2774 but I got out at 2780 because the volume was low at 2780 and that is a point of consolidation on the trader bite. If the bottom drops out I will be wrong, but it seemed like this was the right move.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>I am starting here to focus on only trading the open. I got caught up in emotional trading yesterday so I am going to drill in and focus on a more specific strategy</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Up</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="5">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -785,25 +841,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1155,48 +1219,48 @@
   <sheetData>
     <row r="1" spans="2:15">
       <c r="B1" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="2:15" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="2:15">
@@ -1204,7 +1268,7 @@
         <v>41940</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="D4">
         <v>2695</v>
@@ -1227,19 +1291,19 @@
     </row>
     <row r="11" spans="2:15">
       <c r="B11" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -1247,13 +1311,13 @@
         <v>41944</v>
       </c>
       <c r="C13" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F13">
         <v>2719.5</v>
@@ -1272,13 +1336,13 @@
         <v>41944</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <v>2722</v>
@@ -1298,13 +1362,13 @@
         <v>41944</v>
       </c>
       <c r="C16" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F16">
         <v>2723.75</v>
@@ -1323,13 +1387,13 @@
         <v>41944</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F17">
         <v>2722.75</v>
@@ -1349,13 +1413,13 @@
         <v>41944</v>
       </c>
       <c r="C19" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F19">
         <v>2717.75</v>
@@ -1374,13 +1438,13 @@
         <v>41944</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F20">
         <v>2730.25</v>
@@ -1400,13 +1464,13 @@
         <v>41944</v>
       </c>
       <c r="C22" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F22">
         <v>2726.5</v>
@@ -1425,13 +1489,13 @@
         <v>41944</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F23">
         <v>2728.75</v>
@@ -1451,13 +1515,13 @@
         <v>41944</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F25">
         <v>2747.25</v>
@@ -1476,13 +1540,13 @@
         <v>41944</v>
       </c>
       <c r="C26" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F26">
         <v>2752</v>
@@ -1501,13 +1565,13 @@
         <v>41944</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F27">
         <v>2756.25</v>
@@ -1530,13 +1594,13 @@
         <v>41944</v>
       </c>
       <c r="C28" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F28">
         <v>2753.75</v>
@@ -1555,13 +1619,13 @@
         <v>41944</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F29">
         <v>2752.75</v>
@@ -1580,13 +1644,13 @@
         <v>41944</v>
       </c>
       <c r="C30" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F30">
         <v>2747</v>
@@ -1605,13 +1669,13 @@
         <v>41944</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F31">
         <v>2750.75</v>
@@ -1630,13 +1694,13 @@
         <v>41944</v>
       </c>
       <c r="C32" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F32">
         <v>2747</v>
@@ -1655,13 +1719,13 @@
         <v>41944</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F33">
         <v>2753.75</v>
@@ -1681,13 +1745,13 @@
         <v>41943</v>
       </c>
       <c r="C35" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F35">
         <v>2726.5</v>
@@ -1702,13 +1766,13 @@
         <v>41943</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F36">
         <v>2736</v>
@@ -1727,13 +1791,13 @@
         <v>41943</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F37">
         <v>2728</v>
@@ -1753,13 +1817,13 @@
         <v>41942</v>
       </c>
       <c r="C39" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F39">
         <v>2720</v>
@@ -1778,13 +1842,13 @@
         <v>41941</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F40">
         <v>2679</v>
@@ -1804,13 +1868,13 @@
         <v>41941</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F42">
         <v>2665</v>
@@ -1829,13 +1893,13 @@
         <v>41941</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F43">
         <v>2648</v>
@@ -1855,13 +1919,13 @@
         <v>41940</v>
       </c>
       <c r="C45" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F45">
         <v>2638.25</v>
@@ -1880,13 +1944,13 @@
         <v>41940</v>
       </c>
       <c r="C46" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F46">
         <v>2637.75</v>
@@ -1906,13 +1970,13 @@
         <v>41940</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F48">
         <v>2705</v>
@@ -1935,13 +1999,13 @@
         <v>41940</v>
       </c>
       <c r="C49" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F49">
         <v>2692.25</v>
@@ -1960,13 +2024,13 @@
         <v>41940</v>
       </c>
       <c r="C50" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F50">
         <v>2695.25</v>
@@ -1986,13 +2050,13 @@
         <v>41940</v>
       </c>
       <c r="C52" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F52">
         <v>2695.25</v>
@@ -2011,13 +2075,13 @@
         <v>41940</v>
       </c>
       <c r="C53" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F53">
         <v>2695</v>
@@ -2040,60 +2104,60 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="G60" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="1" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -2101,7 +2165,7 @@
         <v>41947</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="C63">
         <v>2730.25</v>
@@ -2113,7 +2177,7 @@
         <v>41947</v>
       </c>
       <c r="H63" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="I63">
         <v>2720</v>
@@ -2127,7 +2191,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -2149,46 +2213,47 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="17" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -2217,55 +2282,55 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="F9" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" s="9">
-        <f>SUM(IF(SPHistoricalData!I10:I35="Open-Test-Drive",MIN(SPHistoricalData!G10:G15,SPHistoricalData!E10:E15)))/B13</f>
-        <v>0</v>
+        <v>115</v>
+      </c>
+      <c r="F12" s="9" t="e">
+        <f>SUM(IF(SPHistoricalData!I14:I39="Open-Test-Drive",MIN(SPHistoricalData!G14:G19,SPHistoricalData!E14:E19)))/B13</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2274,197 +2339,198 @@
         <v>3</v>
       </c>
       <c r="D13" s="8">
-        <f>IF(SPHistoricalData!I15="Open-Test-Drive",MIN(SPHistoricalData!G15,SPHistoricalData!E15))</f>
+        <f>IF(SPHistoricalData!I19="Open-Test-Drive",MIN(SPHistoricalData!G19,SPHistoricalData!E19))</f>
         <v>0.36388888888888887</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="D15" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="D16" s="9">
-        <f>(SPHistoricalData!E15+SPHistoricalData!G18+SPHistoricalData!G17)/3</f>
+        <f>(SPHistoricalData!E19+SPHistoricalData!G22+SPHistoricalData!G21)/3</f>
         <v>0.35856481481481484</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24">
-        <f>COUNTIF(SPHistoricalData!$J$10:$J28,"Trend")</f>
+        <f>COUNTIF(SPHistoricalData!$J$14:$J32,"Trend")</f>
         <v>3</v>
       </c>
       <c r="C24">
-        <f>COUNTIF(SPHistoricalData!$J$10:$J28,"DD Trend")</f>
+        <f>COUNTIF(SPHistoricalData!$J$14:$J32,"DD Trend")</f>
         <v>3</v>
       </c>
       <c r="D24">
-        <f>COUNTIF(SPHistoricalData!$J$10:$J28,"Neutral-Extreme")</f>
+        <f>COUNTIF(SPHistoricalData!$J$14:$J32,"Neutral-Extreme")</f>
         <v>0</v>
       </c>
       <c r="E24">
-        <f>COUNTIF(SPHistoricalData!$J$10:$J28,"Normal Var")</f>
+        <f>COUNTIF(SPHistoricalData!$J$14:$J32,"Normal Var")</f>
         <v>0</v>
       </c>
       <c r="F24">
-        <f>COUNTIF(SPHistoricalData!$J$10:$J28,"Neutral-Center")</f>
+        <f>COUNTIF(SPHistoricalData!$J$14:$J32,"Neutral-Center")</f>
         <v>0</v>
       </c>
       <c r="G24">
-        <f>COUNTIF(SPHistoricalData!$J$10:$J28,"Normal")</f>
+        <f>COUNTIF(SPHistoricalData!$J$14:$J32,"Normal")</f>
         <v>1</v>
       </c>
       <c r="H24">
-        <f>COUNTIF(SPHistoricalData!$J$10:$J28,"Non-trend")</f>
+        <f>COUNTIF(SPHistoricalData!$J$14:$J32,"Non-trend")</f>
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="E29" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="B31">
-        <f>COUNTIF(SPHistoricalData!$I$10:$I35,"Open-Drive")</f>
+        <f>COUNTIF(SPHistoricalData!$I$14:$I39,"Open-Drive")</f>
         <v>2</v>
       </c>
       <c r="C31">
-        <f>COUNTIF(SPHistoricalData!$I$10:$I35,"Open-Test-Drive")</f>
+        <f>COUNTIF(SPHistoricalData!$I$14:$I39,"Open-Test-Drive")</f>
         <v>3</v>
       </c>
       <c r="D31">
-        <f>COUNTIF(SPHistoricalData!$I$10:$I35,"Open-Reject-Reverse")</f>
+        <f>COUNTIF(SPHistoricalData!$I$14:$I39,"Open-Reject-Reverse")</f>
         <v>1</v>
       </c>
       <c r="E31">
-        <f>COUNTIF(SPHistoricalData!$I$10:$I35,"Open-Auction")</f>
+        <f>COUNTIF(SPHistoricalData!$I$14:$I39,"Open-Auction")</f>
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -2476,11 +2542,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="B1:Y22"/>
+  <dimension ref="B1:Y26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V7" sqref="V7"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2499,951 +2565,1197 @@
   <sheetData>
     <row r="1" spans="2:25">
       <c r="I1" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="J1" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="N1" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="P1" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="U1" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="2:25">
       <c r="C2" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="M2" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:25">
       <c r="C3" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="J3" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="K3" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="L3" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="Q3" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="R3" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="S3" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="V3" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="W3" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:25">
       <c r="B4" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="J4" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="K4" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="L4" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="M4" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="P4" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="Q4" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="R4" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="S4" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="U4" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="V4" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="Y4" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:25" s="10" customFormat="1">
       <c r="B5" s="10" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="F5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" s="34" customFormat="1">
+      <c r="B6" s="37">
+        <v>41963</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="34">
+        <v>2654.25</v>
+      </c>
+      <c r="Q6" s="34">
+        <v>2640.5</v>
+      </c>
+      <c r="R6" s="34">
+        <v>2670.75</v>
+      </c>
+      <c r="S6" s="34">
+        <v>2631.75</v>
+      </c>
+      <c r="U6" s="34">
+        <v>0</v>
+      </c>
+      <c r="V6" s="34">
+        <v>0</v>
+      </c>
+      <c r="W6" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" s="34" customFormat="1">
+      <c r="B7" s="37">
+        <v>41962</v>
+      </c>
+      <c r="C7" s="34">
+        <v>2654.25</v>
+      </c>
+      <c r="D7" s="34">
+        <v>2668.5</v>
+      </c>
+      <c r="E7" s="35">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F7" s="34">
+        <v>2633.75</v>
+      </c>
+      <c r="G7" s="35">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="H7" s="36">
+        <f>343512+261169+213682</f>
+        <v>818363</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="34">
+        <v>2</v>
+      </c>
+      <c r="P7" s="34">
+        <v>2731.25</v>
+      </c>
+      <c r="Q7" s="34">
+        <v>2696.5</v>
+      </c>
+      <c r="R7" s="34">
+        <v>2734.75</v>
+      </c>
+      <c r="S7" s="34">
+        <v>2681.5</v>
+      </c>
+      <c r="U7" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" s="34" customFormat="1">
+      <c r="B8" s="37">
+        <v>41961</v>
+      </c>
+      <c r="C8" s="34">
+        <v>2731.25</v>
+      </c>
+      <c r="D8" s="34">
+        <v>2734.75</v>
+      </c>
+      <c r="E8" s="35">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="F8" s="34">
+        <v>2706.5</v>
+      </c>
+      <c r="G8" s="35">
+        <v>0.39861111111111108</v>
+      </c>
+      <c r="H8" s="36">
+        <f>179713+150728+131896</f>
+        <v>462337</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="34">
+        <v>3</v>
+      </c>
+      <c r="P8" s="34">
+        <v>2719</v>
+      </c>
+      <c r="Q8" s="34">
+        <v>2742.5</v>
+      </c>
+      <c r="R8" s="34">
+        <v>2748.75</v>
+      </c>
+      <c r="S8" s="34">
+        <v>2713.25</v>
+      </c>
+      <c r="U8" s="34">
+        <v>0</v>
+      </c>
+      <c r="V8" s="34">
+        <v>0</v>
+      </c>
+      <c r="W8" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" s="30" customFormat="1">
+      <c r="B9" s="33">
+        <v>41958</v>
+      </c>
+      <c r="C9" s="30">
+        <v>2719</v>
+      </c>
+      <c r="D9" s="30">
+        <v>2740.5</v>
+      </c>
+      <c r="E9" s="31">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="F9" s="30">
+        <v>2713.25</v>
+      </c>
+      <c r="G9" s="31">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="H9" s="32">
+        <v>454610</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="N9" s="30">
+        <v>2</v>
+      </c>
+      <c r="P9" s="30">
+        <v>2689</v>
+      </c>
+      <c r="Q9" s="30">
+        <v>2730</v>
+      </c>
+      <c r="R9" s="30">
+        <v>2736.75</v>
+      </c>
+      <c r="S9" s="30">
+        <v>2671.25</v>
+      </c>
+      <c r="U9" s="30">
+        <v>0</v>
+      </c>
+      <c r="V9" s="30">
+        <v>0</v>
+      </c>
+      <c r="W9" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" s="26" customFormat="1">
+      <c r="B10" s="29">
+        <v>41957</v>
+      </c>
+      <c r="C10" s="26">
+        <v>2689</v>
+      </c>
+      <c r="D10" s="26">
+        <v>2698</v>
+      </c>
+      <c r="E10" s="27">
+        <v>0.36736111111111108</v>
+      </c>
+      <c r="F10" s="26">
+        <v>2671.25</v>
+      </c>
+      <c r="G10" s="27">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="H10" s="28">
+        <v>605576</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25" s="26" customFormat="1">
-      <c r="B6" s="29">
-        <v>41957</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="P6" s="26">
+      <c r="N10" s="26">
+        <v>5</v>
+      </c>
+      <c r="P10" s="26">
         <v>2743.75</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q10" s="26">
         <v>2703</v>
       </c>
-      <c r="R6" s="26">
+      <c r="R10" s="26">
         <v>2748.25</v>
       </c>
-      <c r="S6" s="26">
+      <c r="S10" s="26">
         <v>2686.25</v>
       </c>
-    </row>
-    <row r="7" spans="2:25" s="22" customFormat="1">
-      <c r="B7" s="25">
+      <c r="U10" s="26">
+        <v>0</v>
+      </c>
+      <c r="V10" s="26">
+        <v>0</v>
+      </c>
+      <c r="W10" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" s="22" customFormat="1">
+      <c r="B11" s="25">
         <v>41956</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C11" s="22">
         <v>2743.75</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D11" s="22">
         <v>2748.25</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E11" s="23">
         <v>0.36458333333333331</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F11" s="22">
         <v>2722.5</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G11" s="23">
         <v>0.41111111111111115</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H11" s="24">
         <v>460681</v>
       </c>
-      <c r="I7" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="22">
+      <c r="I11" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" s="22">
         <v>4</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P11" s="22">
         <v>2733.25</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q11" s="22">
         <v>2727.5</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R11" s="22">
         <v>2755.75</v>
       </c>
-      <c r="S7" s="22">
+      <c r="S11" s="22">
         <v>2714.5</v>
       </c>
-      <c r="U7" s="22">
+      <c r="U11" s="22">
         <v>0</v>
       </c>
-      <c r="V7" s="22">
+      <c r="V11" s="22">
         <v>0</v>
       </c>
-      <c r="W7" s="22">
+      <c r="W11" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:25" s="18" customFormat="1">
-      <c r="B8" s="21">
+    <row r="12" spans="2:25" s="18" customFormat="1">
+      <c r="B12" s="21">
         <v>41955</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C12" s="18">
         <v>2733.25</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D12" s="18">
         <v>2744</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E12" s="19">
         <v>0.3666666666666667</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F12" s="18">
         <v>2719.5</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G12" s="19">
         <v>0.3972222222222222</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H12" s="20">
         <v>546403</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="18">
+      <c r="I12" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="N12" s="18">
         <v>6</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P12" s="18">
         <v>2774.25</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q12" s="18">
         <v>2728.75</v>
       </c>
-      <c r="R8" s="18">
+      <c r="R12" s="18">
         <v>2777.5</v>
       </c>
-      <c r="S8" s="18">
+      <c r="S12" s="18">
         <v>2722.25</v>
       </c>
-      <c r="U8" s="18">
+      <c r="U12" s="18">
         <v>6</v>
       </c>
-      <c r="V8" s="18">
+      <c r="V12" s="18">
         <v>-17.25</v>
       </c>
-      <c r="W8" s="18">
+      <c r="W12" s="18">
         <v>-862</v>
       </c>
     </row>
-    <row r="9" spans="2:25" s="14" customFormat="1">
-      <c r="B9" s="13">
+    <row r="13" spans="2:25" s="14" customFormat="1">
+      <c r="B13" s="13">
         <v>41954</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C13" s="14">
         <v>2774.25</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D13" s="14">
         <v>2777.5</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E13" s="15">
         <v>0.35486111111111113</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F13" s="14">
         <v>2745.5</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G13" s="15">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H13" s="16">
         <v>448339</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="14">
+      <c r="I13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="N13" s="14">
         <v>0</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P13" s="14">
         <v>2793</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q13" s="14">
         <v>2779.75</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R13" s="14">
         <v>2795.25</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S13" s="14">
         <v>2764.5</v>
       </c>
-      <c r="U9" s="14">
+      <c r="U13" s="14">
         <v>8</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V13" s="14">
         <v>-5.25</v>
       </c>
-      <c r="W9" s="14">
+      <c r="W13" s="14">
         <v>-262.5</v>
       </c>
-      <c r="Y9" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="2:25">
-      <c r="B10" s="2">
-        <v>41951</v>
-      </c>
-      <c r="C10">
-        <v>2793</v>
-      </c>
-      <c r="D10">
-        <v>2795.25</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0.35555555555555557</v>
-      </c>
-      <c r="F10">
-        <v>2777.25</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0.41944444444444445</v>
-      </c>
-      <c r="H10" s="5">
-        <v>404717</v>
-      </c>
-      <c r="I10" t="s">
-        <v>168</v>
-      </c>
-      <c r="J10" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" t="s">
-        <v>98</v>
-      </c>
-      <c r="M10" t="s">
-        <v>99</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>2804.75</v>
-      </c>
-      <c r="Q10">
-        <v>2809.25</v>
-      </c>
-      <c r="R10">
-        <v>2815.25</v>
-      </c>
-      <c r="S10">
-        <v>2795</v>
-      </c>
-      <c r="U10">
-        <v>8</v>
-      </c>
-      <c r="V10">
-        <v>-2</v>
-      </c>
-      <c r="W10">
-        <v>-100</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25">
-      <c r="B11" s="2">
-        <v>41950</v>
-      </c>
-      <c r="C11">
-        <v>2804.75</v>
-      </c>
-      <c r="D11">
-        <v>2813.25</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0.37152777777777773</v>
-      </c>
-      <c r="F11">
-        <v>2804.5</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0.38680555555555557</v>
-      </c>
-      <c r="H11" s="5">
-        <v>321469</v>
-      </c>
-      <c r="I11" t="s">
-        <v>119</v>
-      </c>
-      <c r="J11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K11" t="s">
-        <v>89</v>
-      </c>
-      <c r="M11" t="s">
-        <v>67</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>2779</v>
-      </c>
-      <c r="Q11">
-        <v>2814</v>
-      </c>
-      <c r="R11">
-        <v>2815</v>
-      </c>
-      <c r="S11">
-        <v>2774.25</v>
-      </c>
-      <c r="U11">
-        <v>2</v>
-      </c>
-      <c r="V11">
-        <v>-5</v>
-      </c>
-      <c r="W11">
-        <v>-250</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="2:25">
-      <c r="B12" s="2">
-        <v>41949</v>
-      </c>
-      <c r="C12">
-        <v>2779</v>
-      </c>
-      <c r="D12">
-        <v>2792</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0.41250000000000003</v>
-      </c>
-      <c r="F12">
-        <v>2774.25</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0.37847222222222227</v>
-      </c>
-      <c r="H12" s="5">
-        <v>354715</v>
-      </c>
-      <c r="I12" t="s">
-        <v>161</v>
-      </c>
-      <c r="J12" t="s">
-        <v>162</v>
-      </c>
-      <c r="K12" t="s">
-        <v>160</v>
-      </c>
-      <c r="M12" t="s">
-        <v>171</v>
-      </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
-      <c r="P12">
-        <v>2736.75</v>
-      </c>
-      <c r="Q12">
-        <v>2756</v>
-      </c>
-      <c r="R12">
-        <v>2756</v>
-      </c>
-      <c r="S12">
-        <v>2736.75</v>
-      </c>
-      <c r="U12">
-        <v>11</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:25">
-      <c r="B13" s="2">
-        <v>41948</v>
-      </c>
-      <c r="C13">
-        <v>2736.75</v>
-      </c>
-      <c r="D13">
-        <v>2751.75</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0.37361111111111112</v>
-      </c>
-      <c r="F13">
-        <v>2736.75</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="H13" s="5">
-        <v>354715</v>
-      </c>
-      <c r="I13" t="s">
-        <v>108</v>
-      </c>
-      <c r="J13" t="s">
-        <v>109</v>
-      </c>
-      <c r="K13" t="s">
-        <v>111</v>
-      </c>
-      <c r="M13" t="s">
-        <v>110</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>2727.5</v>
-      </c>
-      <c r="Q13">
-        <v>2740.25</v>
-      </c>
-      <c r="R13">
-        <v>2743.75</v>
-      </c>
-      <c r="S13">
-        <v>2717</v>
-      </c>
-      <c r="U13">
-        <v>10</v>
-      </c>
-      <c r="V13">
-        <v>-12.5</v>
-      </c>
-      <c r="W13">
-        <v>-625</v>
+      <c r="Y13" s="14" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="2:25">
       <c r="B14" s="2">
-        <v>41947</v>
+        <v>41951</v>
       </c>
       <c r="C14">
-        <v>2727.5</v>
+        <v>2793</v>
       </c>
       <c r="D14">
-        <v>2733.25</v>
+        <v>2795.25</v>
       </c>
       <c r="E14" s="9">
-        <v>0.35833333333333334</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="F14">
-        <v>2717</v>
+        <v>2777.25</v>
       </c>
       <c r="G14" s="9">
-        <v>0.39097222222222222</v>
+        <v>0.41944444444444445</v>
       </c>
       <c r="H14" s="5">
-        <v>377277</v>
+        <v>404717</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="M14" t="s">
-        <v>128</v>
-      </c>
-      <c r="N14" t="s">
-        <v>129</v>
+        <v>25</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>2751.5</v>
+        <v>2804.75</v>
       </c>
       <c r="Q14">
-        <v>2722.75</v>
+        <v>2809.25</v>
       </c>
       <c r="R14">
-        <v>2756.5</v>
+        <v>2815.25</v>
       </c>
       <c r="S14">
-        <v>2699.5</v>
+        <v>2795</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V14">
-        <v>10.25</v>
+        <v>-2</v>
       </c>
       <c r="W14">
-        <v>512.5</v>
+        <v>-100</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="2:25">
       <c r="B15" s="2">
-        <v>41944</v>
+        <v>41950</v>
       </c>
       <c r="C15">
-        <v>2751.5</v>
+        <v>2804.75</v>
       </c>
       <c r="D15">
-        <v>2756.5</v>
+        <v>2813.25</v>
       </c>
       <c r="E15" s="9">
-        <v>0.36388888888888887</v>
+        <v>0.37152777777777773</v>
       </c>
       <c r="F15">
-        <v>2721.75</v>
+        <v>2804.5</v>
       </c>
       <c r="G15" s="9">
-        <v>0.40277777777777773</v>
+        <v>0.38680555555555557</v>
       </c>
       <c r="H15" s="5">
-        <v>566727</v>
+        <v>321469</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>2779</v>
+      </c>
+      <c r="Q15">
+        <v>2814</v>
+      </c>
+      <c r="R15">
+        <v>2815</v>
+      </c>
+      <c r="S15">
+        <v>2774.25</v>
+      </c>
+      <c r="U15">
         <v>2</v>
       </c>
-      <c r="P15">
-        <v>2706</v>
-      </c>
-      <c r="Q15">
-        <v>2738</v>
-      </c>
-      <c r="R15">
-        <v>2741.25</v>
-      </c>
-      <c r="S15">
-        <v>2705.5</v>
+      <c r="V15">
+        <v>-5</v>
       </c>
       <c r="W15">
-        <v>-1759</v>
+        <v>-250</v>
       </c>
       <c r="Y15" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="2:25">
       <c r="B16" s="2">
+        <v>41949</v>
+      </c>
+      <c r="C16">
+        <v>2779</v>
+      </c>
+      <c r="D16">
+        <v>2792</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.41250000000000003</v>
+      </c>
+      <c r="F16">
+        <v>2774.25</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="H16" s="5">
+        <v>354715</v>
+      </c>
+      <c r="I16" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" t="s">
+        <v>152</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>2736.75</v>
+      </c>
+      <c r="Q16">
+        <v>2756</v>
+      </c>
+      <c r="R16">
+        <v>2756</v>
+      </c>
+      <c r="S16">
+        <v>2736.75</v>
+      </c>
+      <c r="U16">
+        <v>11</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25">
+      <c r="B17" s="2">
+        <v>41948</v>
+      </c>
+      <c r="C17">
+        <v>2736.75</v>
+      </c>
+      <c r="D17">
+        <v>2751.75</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="F17">
+        <v>2736.75</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H17" s="5">
+        <v>354715</v>
+      </c>
+      <c r="I17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>2727.5</v>
+      </c>
+      <c r="Q17">
+        <v>2740.25</v>
+      </c>
+      <c r="R17">
+        <v>2743.75</v>
+      </c>
+      <c r="S17">
+        <v>2717</v>
+      </c>
+      <c r="U17">
+        <v>10</v>
+      </c>
+      <c r="V17">
+        <v>-12.5</v>
+      </c>
+      <c r="W17">
+        <v>-625</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25">
+      <c r="B18" s="2">
+        <v>41947</v>
+      </c>
+      <c r="C18">
+        <v>2727.5</v>
+      </c>
+      <c r="D18">
+        <v>2733.25</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="F18">
+        <v>2717</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="H18" s="5">
+        <v>377277</v>
+      </c>
+      <c r="I18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="M18" t="s">
+        <v>162</v>
+      </c>
+      <c r="N18" t="s">
+        <v>163</v>
+      </c>
+      <c r="P18">
+        <v>2751.5</v>
+      </c>
+      <c r="Q18">
+        <v>2722.75</v>
+      </c>
+      <c r="R18">
+        <v>2756.5</v>
+      </c>
+      <c r="S18">
+        <v>2699.5</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <v>10.25</v>
+      </c>
+      <c r="W18">
+        <v>512.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25">
+      <c r="B19" s="2">
+        <v>41944</v>
+      </c>
+      <c r="C19">
+        <v>2751.5</v>
+      </c>
+      <c r="D19">
+        <v>2756.5</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="F19">
+        <v>2721.75</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="H19" s="5">
+        <v>566727</v>
+      </c>
+      <c r="I19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>2706</v>
+      </c>
+      <c r="Q19">
+        <v>2738</v>
+      </c>
+      <c r="R19">
+        <v>2741.25</v>
+      </c>
+      <c r="S19">
+        <v>2705.5</v>
+      </c>
+      <c r="W19">
+        <v>-1759</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25">
+      <c r="B20" s="2">
         <v>41943</v>
       </c>
-      <c r="C16">
+      <c r="C20">
         <v>2720.5</v>
       </c>
-      <c r="D16">
+      <c r="D20">
         <v>2732.25</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E20" s="9">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F16">
+      <c r="F20">
         <v>2707.75</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G20" s="9">
         <v>0.38055555555555554</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H20" s="5">
         <v>567516</v>
       </c>
-      <c r="I16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" t="s">
-        <v>103</v>
-      </c>
-      <c r="K16" t="s">
-        <v>136</v>
-      </c>
-      <c r="M16" t="s">
-        <v>102</v>
-      </c>
-      <c r="N16">
+      <c r="I20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20">
         <v>6</v>
       </c>
-      <c r="P16">
+      <c r="P20">
         <v>2710.5</v>
       </c>
-      <c r="Q16">
+      <c r="Q20">
         <v>2709.75</v>
       </c>
-      <c r="R16">
+      <c r="R20">
         <v>2736.5</v>
       </c>
-      <c r="S16">
+      <c r="S20">
         <v>2704.75</v>
       </c>
-      <c r="W16">
+      <c r="W20">
         <v>-391</v>
       </c>
     </row>
-    <row r="17" spans="2:23">
-      <c r="B17" s="2">
+    <row r="21" spans="2:25">
+      <c r="B21" s="2">
         <v>41942</v>
       </c>
-      <c r="C17">
+      <c r="C21">
         <v>2711.75</v>
       </c>
-      <c r="D17">
+      <c r="D21">
         <v>2729.25</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E21" s="9">
         <v>0.39930555555555558</v>
       </c>
-      <c r="F17">
+      <c r="F21">
         <v>2706.25</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G21" s="9">
         <v>0.3576388888888889</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H21" s="5">
         <v>517819</v>
       </c>
-      <c r="I17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" t="s">
-        <v>93</v>
-      </c>
-      <c r="M17" t="s">
-        <v>94</v>
-      </c>
-      <c r="N17">
+      <c r="I21" t="s">
+        <v>142</v>
+      </c>
+      <c r="J21" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" t="s">
+        <v>144</v>
+      </c>
+      <c r="M21" t="s">
+        <v>145</v>
+      </c>
+      <c r="N21">
         <v>1</v>
       </c>
-      <c r="P17">
+      <c r="P21">
         <v>2641.25</v>
       </c>
-      <c r="Q17">
+      <c r="Q21">
         <v>2683.5</v>
       </c>
-      <c r="R17">
+      <c r="R21">
         <v>2683.5</v>
       </c>
-      <c r="S17">
+      <c r="S21">
         <v>2635.75</v>
       </c>
     </row>
-    <row r="18" spans="2:23">
-      <c r="B18" s="2">
+    <row r="22" spans="2:25">
+      <c r="B22" s="2">
         <v>41941</v>
       </c>
-      <c r="C18">
+      <c r="C22">
         <v>2641.25</v>
       </c>
-      <c r="D18">
+      <c r="D22">
         <v>2675.25</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E22" s="9">
         <v>0.37152777777777773</v>
       </c>
-      <c r="F18">
+      <c r="F22">
         <v>2635.75</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G22" s="9">
         <v>0.35416666666666669</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H22" s="5">
         <v>650925</v>
       </c>
-      <c r="I18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" t="s">
-        <v>92</v>
-      </c>
-      <c r="K18" t="s">
-        <v>95</v>
-      </c>
-      <c r="M18" t="s">
-        <v>96</v>
-      </c>
-      <c r="N18">
+      <c r="I22" t="s">
+        <v>142</v>
+      </c>
+      <c r="J22" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" t="s">
+        <v>146</v>
+      </c>
+      <c r="M22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N22">
         <v>0</v>
       </c>
-      <c r="P18">
+      <c r="P22">
         <v>2692.25</v>
       </c>
-      <c r="Q18">
+      <c r="Q22">
         <v>2638.75</v>
       </c>
-      <c r="R18">
+      <c r="R22">
         <v>2707</v>
       </c>
-      <c r="S18">
+      <c r="S22">
         <v>2603</v>
       </c>
-      <c r="W18">
+      <c r="W22">
         <v>1211</v>
       </c>
     </row>
-    <row r="19" spans="2:23">
-      <c r="W19">
+    <row r="23" spans="2:25">
+      <c r="W23">
         <v>-770</v>
       </c>
     </row>
-    <row r="22" spans="2:23">
-      <c r="W22">
-        <f>SUM(W10:W19)</f>
-        <v>-2171.5</v>
+    <row r="26" spans="2:25">
+      <c r="W26">
+        <f>SUM(W9:W23)</f>
+        <v>-3296</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3460,7 +3772,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/TradingTheOpen.xlsx
+++ b/TradingTheOpen.xlsx
@@ -23,744 +23,764 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="188">
+  <si>
+    <t>crossing the open</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>in first 1.5 hrs</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Number</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Drive</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>My trades</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Trades</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profit and Loss</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Volume</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30-10a</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>When opening within previous days value range, what percent of the time do previous value extremes hold?</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todays Open</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open High</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell To Close</t>
+  </si>
+  <si>
+    <t>ESZ18 - E Mini S&amp;P 500 December 2018</t>
+  </si>
+  <si>
+    <t>Buy To Open</t>
+  </si>
+  <si>
+    <t>Buy To Close</t>
+  </si>
+  <si>
+    <t>Sell To Open</t>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qty</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commission/Fees</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todays</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD Trend</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>(8:30 Central)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Test-Drive</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD Trend</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Low</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Open-Test-Drive, how soon does it bounce back, how soon does it cross back over the open, by how much does it deviate away from the open&gt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Test-Drive</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>On open auction days, how many minutes to take direction</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>On days with a drive in the first few minutes, what type of day is that? How much does it move in first few minutes?</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Test-Drive Statistics</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Drive, Open-Test-Drive,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trend</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Number</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Days</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time of test</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market opened and traded sideways for 8 minutes. I was focused on downside and I got afraid I would miss the move. I got in too early. My plan was to get in at 2810, stop at 2817 and limit at 2795. I got in at 2806 right before the market shot up, struck too early. I did feel good however and did not over trade like I have been doing.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Points</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dollars</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open (first 1.5 hr)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time of</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position Close</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
   <si>
     <t>Time of Low</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Total Volume</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Open Type</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Day Type</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Open in Yesterdays Range</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Open in Yesterdays Value</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Gap Up/Down</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Number of times crossing open</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Previous Open</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Previous Close</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Previous High</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Previous Low</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Number of Trades</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Profit/Loss Points</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Profit/Loss Dollars</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>On open-test-drive days, how soon is the test completed, mean and std dev</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Open-Auction</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neutral?</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Gap Down</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trend?</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal?</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Trend</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Gap Down</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Gap Up,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Gap Down,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>No Gap</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Trend</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Open-Drive</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossing the open</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>in first 1.5 hrs</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Number</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opened and traded back and forth around the open 2793. It dropped and met some resistance at 2785, lots of volume there. It dropped below to 2780 and the volume was lower. To fill the gap it would be down to 2774 but I got out at 2780 because the volume was low at 2780 and that is a point of consolidation on the trader bite. If the bottom drops out I will be wrong, but it seemed like this was the right move.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am starting here to focus on only trading the open. I got caught up in emotional trading yesterday so I am going to drill in and focus on a more specific strategy</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Down</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are the greatest range extensions outside of the previous days value range in the open?</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>The greatest imbalance occurs when open is outside of range and the direction is accepted, usually a trend day develops</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Yesterdays</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value? (Y/N)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash market only (8:30-3 central)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF('S&amp;P Historical Data'!I5:I30="Open-Test-Drive",SUM(MIN('S&amp;P Historical Data'!G5:G10,'S&amp;P Historical Data'!E5:E10)))</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average of Minimum on open-test drive days</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Counts</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trend</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Days</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD Trend</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral-Extreme</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal Var</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral-Center</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-trend</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Types of Opens</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Open-Drive</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Test-Drive</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>No Gap</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD Trend</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>98% of time break either IB high or IB low</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Types of Days</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time of High</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opened, went slightly down in first 2 min, bounced up to high at 8:44 and then kept falling</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal Var, Neutral-Center,</t>
+  </si>
+  <si>
+    <t>Trend, DD Trend, Neutral-Extreme,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal, Non-trend</t>
+  </si>
+  <si>
+    <t>Day type:</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open type:</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Yesterdays</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range? (Y/N)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>just kept going lower, I kept getting out too soon when I sold</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of times</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>27% of all days are neutral days, likely to break IB high and IB low (FT71)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>73% of all days are likely to only break one side of IB high or IB low</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Test-Drive</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD Trend</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Central Time</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position Open</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy/Sell</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>commission</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceeds</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Notes</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>My trades</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of Trades</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Profit and Loss</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Volume</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>8:30-10a</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>When opening within previous days value range, what percent of the time do previous value extremes hold?</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Auction</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loss/Gain</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only take 3 trades per day, one to open, one reversal (optional), and one to close. I am going to trade for the first 1.5 hours only. This is the discipline I am going to get on for a while, and work my niche.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todays Open</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open High</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sell To Close</t>
-  </si>
-  <si>
-    <t>ESZ18 - E Mini S&amp;P 500 December 2018</t>
-  </si>
-  <si>
-    <t>Buy To Open</t>
-  </si>
-  <si>
-    <t>Buy To Close</t>
-  </si>
-  <si>
-    <t>Sell To Open</t>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qty</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Commission/Fees</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Previous</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Previous</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Close</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todays</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>High</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Low</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-trend</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-trend</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Test-Drive</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DD Trend</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>(8:30 Central)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Test-Drive</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Gap Up</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Auction</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Auction</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD Trend</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Up</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>IF('S&amp;P Historical Data'!I5:I30="Open-Test-Drive",SUM(MIN('S&amp;P Historical Data'!G5:G10,'S&amp;P Historical Data'!E5:E10)))</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average of Minimum on open-test drive days</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Counts</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trend</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Days</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD Trend</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neutral-Extreme</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal Var</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neutral-Center</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-trend</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Types of Opens</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUMIF('S&amp;P Historical Data'!I5:I30="Open-Test-Drive",MIN('S&amp;P Historical Data'!G5:G10,'S&amp;P Historical Data'!E5:E10))</t>
   </si>
   <si>
     <t>Open-Drive</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Test-Drive</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Reject-Reverse</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Reject-Reverse</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neutral</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD Trend</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>98% of time break either IB high or IB low</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Auction</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Types of Days</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time of High</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open Low</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>On Open-Test-Drive, how soon does it bounce back, how soon does it cross back over the open, by how much does it deviate away from the open&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Test-Drive</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>On open auction days, how many minutes to take direction</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>On days with a drive in the first few minutes, what type of day is that? How much does it move in first few minutes?</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Test-Drive Statistics</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Drive, Open-Test-Drive,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Auction</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trend</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Number</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Days</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time of test</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Market opened and traded sideways for 8 minutes. I was focused on downside and I got afraid I would miss the move. I got in too early. My plan was to get in at 2810, stop at 2817 and limit at 2795. I got in at 2806 right before the market shot up, struck too early. I did feel good however and did not over trade like I have been doing.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Points</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dollars</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Reject-Reverse,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open (first 1.5 hr)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time of</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>High</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position Close</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position Open</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buy/Sell</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>commission</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Proceeds</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notes</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sell</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loss/Gain</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only take 3 trades per day, one to open, one reversal (optional), and one to close. I am going to trade for the first 1.5 hours only. This is the discipline I am going to get on for a while, and work my niche.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-trend</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-trend</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Test-Drive</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD Trend</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Up</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUMIF('S&amp;P Historical Data'!I5:I30="Open-Test-Drive",MIN('S&amp;P Historical Data'!G5:G10,'S&amp;P Historical Data'!E5:E10))</t>
-  </si>
-  <si>
-    <t>Open-Drive</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opened and traded back and forth around the open 2793. It dropped and met some resistance at 2785, lots of volume there. It dropped below to 2780 and the volume was lower. To fill the gap it would be down to 2774 but I got out at 2780 because the volume was low at 2780 and that is a point of consolidation on the trader bite. If the bottom drops out I will be wrong, but it seemed like this was the right move.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>I am starting here to focus on only trading the open. I got caught up in emotional trading yesterday so I am going to drill in and focus on a more specific strategy</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Up</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Down</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Reject-Reverse</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>What are the greatest range extensions outside of the previous days value range in the open?</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>The greatest imbalance occurs when open is outside of range and the direction is accepted, usually a trend day develops</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sell</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buy</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Reject-Reverse</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>10+</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>In Yesterdays</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value? (Y/N)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cash market only (8:30-3 central)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opened, went slightly down in first 2 min, bounced up to high at 8:44 and then kept falling</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal Var, Neutral-Center,</t>
-  </si>
-  <si>
-    <t>Trend, DD Trend, Neutral-Extreme,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal, Non-trend</t>
-  </si>
-  <si>
-    <t>Day type:</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open type:</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Auction</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>In Yesterdays</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range? (Y/N)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>just kept going lower, I kept getting out too soon when I sold</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of times</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>27% of all days are neutral days, likely to break IB high and IB low (FT71)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>73% of all days are likely to only break one side of IB high or IB low</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -841,25 +861,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -876,10 +900,10 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1219,48 +1243,48 @@
   <sheetData>
     <row r="1" spans="2:15">
       <c r="B1" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="H1" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="2:15" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="2:15">
@@ -1268,7 +1292,7 @@
         <v>41940</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D4">
         <v>2695</v>
@@ -1291,19 +1315,19 @@
     </row>
     <row r="11" spans="2:15">
       <c r="B11" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -1311,13 +1335,13 @@
         <v>41944</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F13">
         <v>2719.5</v>
@@ -1336,13 +1360,13 @@
         <v>41944</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F14">
         <v>2722</v>
@@ -1362,13 +1386,13 @@
         <v>41944</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F16">
         <v>2723.75</v>
@@ -1387,13 +1411,13 @@
         <v>41944</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F17">
         <v>2722.75</v>
@@ -1413,13 +1437,13 @@
         <v>41944</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F19">
         <v>2717.75</v>
@@ -1438,13 +1462,13 @@
         <v>41944</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F20">
         <v>2730.25</v>
@@ -1464,13 +1488,13 @@
         <v>41944</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F22">
         <v>2726.5</v>
@@ -1489,13 +1513,13 @@
         <v>41944</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F23">
         <v>2728.75</v>
@@ -1515,13 +1539,13 @@
         <v>41944</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F25">
         <v>2747.25</v>
@@ -1540,13 +1564,13 @@
         <v>41944</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F26">
         <v>2752</v>
@@ -1565,13 +1589,13 @@
         <v>41944</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F27">
         <v>2756.25</v>
@@ -1594,13 +1618,13 @@
         <v>41944</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F28">
         <v>2753.75</v>
@@ -1619,13 +1643,13 @@
         <v>41944</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F29">
         <v>2752.75</v>
@@ -1644,13 +1668,13 @@
         <v>41944</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F30">
         <v>2747</v>
@@ -1669,13 +1693,13 @@
         <v>41944</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F31">
         <v>2750.75</v>
@@ -1694,13 +1718,13 @@
         <v>41944</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F32">
         <v>2747</v>
@@ -1719,13 +1743,13 @@
         <v>41944</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F33">
         <v>2753.75</v>
@@ -1745,13 +1769,13 @@
         <v>41943</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F35">
         <v>2726.5</v>
@@ -1766,13 +1790,13 @@
         <v>41943</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F36">
         <v>2736</v>
@@ -1791,13 +1815,13 @@
         <v>41943</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F37">
         <v>2728</v>
@@ -1817,13 +1841,13 @@
         <v>41942</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F39">
         <v>2720</v>
@@ -1842,13 +1866,13 @@
         <v>41941</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F40">
         <v>2679</v>
@@ -1868,13 +1892,13 @@
         <v>41941</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F42">
         <v>2665</v>
@@ -1893,13 +1917,13 @@
         <v>41941</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F43">
         <v>2648</v>
@@ -1919,13 +1943,13 @@
         <v>41940</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F45">
         <v>2638.25</v>
@@ -1944,13 +1968,13 @@
         <v>41940</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F46">
         <v>2637.75</v>
@@ -1970,13 +1994,13 @@
         <v>41940</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F48">
         <v>2705</v>
@@ -1999,13 +2023,13 @@
         <v>41940</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F49">
         <v>2692.25</v>
@@ -2024,13 +2048,13 @@
         <v>41940</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F50">
         <v>2695.25</v>
@@ -2050,13 +2074,13 @@
         <v>41940</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F52">
         <v>2695.25</v>
@@ -2075,13 +2099,13 @@
         <v>41940</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F53">
         <v>2695</v>
@@ -2104,60 +2128,60 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="G60" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="1" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -2165,7 +2189,7 @@
         <v>41947</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="C63">
         <v>2730.25</v>
@@ -2177,7 +2201,7 @@
         <v>41947</v>
       </c>
       <c r="H63" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="I63">
         <v>2720</v>
@@ -2191,7 +2215,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -2213,47 +2237,46 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="17" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -2282,54 +2305,54 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="F9" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="F12" s="9" t="e">
-        <f>SUM(IF(SPHistoricalData!I14:I39="Open-Test-Drive",MIN(SPHistoricalData!G14:G19,SPHistoricalData!E14:E19)))/B13</f>
+        <f>SUM(IF(SPHistoricalData!I17:I42="Open-Test-Drive",MIN(SPHistoricalData!G17:G22,SPHistoricalData!E17:E22)))/B13</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2339,198 +2362,197 @@
         <v>3</v>
       </c>
       <c r="D13" s="8">
-        <f>IF(SPHistoricalData!I19="Open-Test-Drive",MIN(SPHistoricalData!G19,SPHistoricalData!E19))</f>
+        <f>IF(SPHistoricalData!I22="Open-Test-Drive",MIN(SPHistoricalData!G22,SPHistoricalData!E22))</f>
         <v>0.36388888888888887</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="D15" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="D16" s="9">
-        <f>(SPHistoricalData!E19+SPHistoricalData!G22+SPHistoricalData!G21)/3</f>
+        <f>(SPHistoricalData!E22+SPHistoricalData!G25+SPHistoricalData!G24)/3</f>
         <v>0.35856481481481484</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="H22" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24">
-        <f>COUNTIF(SPHistoricalData!$J$14:$J32,"Trend")</f>
+        <f>COUNTIF(SPHistoricalData!$J$17:$J35,"Trend")</f>
         <v>3</v>
       </c>
       <c r="C24">
-        <f>COUNTIF(SPHistoricalData!$J$14:$J32,"DD Trend")</f>
+        <f>COUNTIF(SPHistoricalData!$J$17:$J35,"DD Trend")</f>
         <v>3</v>
       </c>
       <c r="D24">
-        <f>COUNTIF(SPHistoricalData!$J$14:$J32,"Neutral-Extreme")</f>
+        <f>COUNTIF(SPHistoricalData!$J$17:$J35,"Neutral-Extreme")</f>
         <v>0</v>
       </c>
       <c r="E24">
-        <f>COUNTIF(SPHistoricalData!$J$14:$J32,"Normal Var")</f>
+        <f>COUNTIF(SPHistoricalData!$J$17:$J35,"Normal Var")</f>
         <v>0</v>
       </c>
       <c r="F24">
-        <f>COUNTIF(SPHistoricalData!$J$14:$J32,"Neutral-Center")</f>
+        <f>COUNTIF(SPHistoricalData!$J$17:$J35,"Neutral-Center")</f>
         <v>0</v>
       </c>
       <c r="G24">
-        <f>COUNTIF(SPHistoricalData!$J$14:$J32,"Normal")</f>
+        <f>COUNTIF(SPHistoricalData!$J$17:$J35,"Normal")</f>
         <v>1</v>
       </c>
       <c r="H24">
-        <f>COUNTIF(SPHistoricalData!$J$14:$J32,"Non-trend")</f>
+        <f>COUNTIF(SPHistoricalData!$J$17:$J35,"Non-trend")</f>
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="B31">
-        <f>COUNTIF(SPHistoricalData!$I$14:$I39,"Open-Drive")</f>
+        <f>COUNTIF(SPHistoricalData!$I$17:$I42,"Open-Drive")</f>
         <v>2</v>
       </c>
       <c r="C31">
-        <f>COUNTIF(SPHistoricalData!$I$14:$I39,"Open-Test-Drive")</f>
+        <f>COUNTIF(SPHistoricalData!$I$17:$I42,"Open-Test-Drive")</f>
         <v>3</v>
       </c>
       <c r="D31">
-        <f>COUNTIF(SPHistoricalData!$I$14:$I39,"Open-Reject-Reverse")</f>
+        <f>COUNTIF(SPHistoricalData!$I$17:$I42,"Open-Reject-Reverse")</f>
         <v>1</v>
       </c>
       <c r="E31">
-        <f>COUNTIF(SPHistoricalData!$I$14:$I39,"Open-Auction")</f>
+        <f>COUNTIF(SPHistoricalData!$I$17:$I42,"Open-Auction")</f>
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -2542,11 +2564,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="B1:Y26"/>
+  <dimension ref="B1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2564,1198 +2586,1272 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25">
+      <c r="E1" s="9" t="s">
+        <v>163</v>
+      </c>
       <c r="I1" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="J1" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="N1" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="P1" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="U1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="2:25">
       <c r="C2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:25">
       <c r="C3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="K3" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="L3" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="Q3" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="R3" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="S3" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="V3" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="W3" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:25">
       <c r="B4" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" t="s">
+        <v>63</v>
+      </c>
+      <c r="W4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" t="s">
-        <v>176</v>
-      </c>
-      <c r="J4" t="s">
-        <v>173</v>
-      </c>
-      <c r="K4" t="s">
-        <v>178</v>
-      </c>
-      <c r="L4" t="s">
-        <v>167</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>62</v>
-      </c>
-      <c r="R4" t="s">
-        <v>64</v>
-      </c>
-      <c r="S4" t="s">
-        <v>65</v>
-      </c>
-      <c r="U4" t="s">
-        <v>40</v>
-      </c>
-      <c r="V4" t="s">
-        <v>119</v>
-      </c>
-      <c r="W4" t="s">
-        <v>120</v>
-      </c>
       <c r="Y4" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:25" s="10" customFormat="1">
       <c r="B5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" s="39" customFormat="1">
+      <c r="B6" s="38">
+        <v>41969</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
+      <c r="K6" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="P6" s="39">
+        <v>2657.25</v>
+      </c>
+      <c r="Q6" s="39">
+        <v>2673.75</v>
+      </c>
+      <c r="R6" s="39">
+        <v>2674</v>
+      </c>
+      <c r="S6" s="39">
+        <v>2652.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" s="39" customFormat="1">
+      <c r="B7" s="38">
+        <v>41968</v>
+      </c>
+      <c r="C7" s="39">
+        <v>2657.25</v>
+      </c>
+      <c r="D7" s="39">
+        <v>2671.75</v>
+      </c>
+      <c r="E7" s="40">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="F7" s="39">
+        <v>2655.75</v>
+      </c>
+      <c r="G7" s="40">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="H7" s="41"/>
+      <c r="I7" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="N7" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" s="39" customFormat="1">
+      <c r="B8" s="38">
+        <v>41965</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+    </row>
+    <row r="9" spans="2:25" s="34" customFormat="1">
+      <c r="B9" s="37">
+        <v>41963</v>
+      </c>
+      <c r="C9" s="34">
+        <v>2658.25</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="P9" s="34">
+        <v>2654.25</v>
+      </c>
+      <c r="Q9" s="34">
+        <v>2640.5</v>
+      </c>
+      <c r="R9" s="34">
+        <v>2670.75</v>
+      </c>
+      <c r="S9" s="34">
+        <v>2631.75</v>
+      </c>
+      <c r="U9" s="34">
         <v>0</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25" s="34" customFormat="1">
-      <c r="B6" s="37">
-        <v>41963</v>
-      </c>
-      <c r="E6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="34">
+      <c r="V9" s="34">
+        <v>0</v>
+      </c>
+      <c r="W9" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" s="34" customFormat="1">
+      <c r="B10" s="37">
+        <v>41962</v>
+      </c>
+      <c r="C10" s="34">
         <v>2654.25</v>
       </c>
-      <c r="Q6" s="34">
-        <v>2640.5</v>
-      </c>
-      <c r="R6" s="34">
-        <v>2670.75</v>
-      </c>
-      <c r="S6" s="34">
-        <v>2631.75</v>
-      </c>
-      <c r="U6" s="34">
-        <v>0</v>
-      </c>
-      <c r="V6" s="34">
-        <v>0</v>
-      </c>
-      <c r="W6" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:25" s="34" customFormat="1">
-      <c r="B7" s="37">
-        <v>41962</v>
-      </c>
-      <c r="C7" s="34">
-        <v>2654.25</v>
-      </c>
-      <c r="D7" s="34">
+      <c r="D10" s="34">
         <v>2668.5</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E10" s="35">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F10" s="34">
         <v>2633.75</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G10" s="35">
         <v>0.38541666666666669</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H10" s="36">
         <f>343512+261169+213682</f>
         <v>818363</v>
       </c>
-      <c r="I7" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="34">
+      <c r="I10" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="N10" s="34">
         <v>2</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P10" s="34">
         <v>2731.25</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q10" s="34">
         <v>2696.5</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R10" s="34">
         <v>2734.75</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S10" s="34">
         <v>2681.5</v>
       </c>
-      <c r="U7" s="34">
+      <c r="U10" s="34">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:25" s="34" customFormat="1">
-      <c r="B8" s="37">
+    <row r="11" spans="2:25" s="34" customFormat="1">
+      <c r="B11" s="37">
         <v>41961</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C11" s="34">
         <v>2731.25</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D11" s="34">
         <v>2734.75</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E11" s="35">
         <v>0.36249999999999999</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F11" s="34">
         <v>2706.5</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G11" s="35">
         <v>0.39861111111111108</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H11" s="36">
         <f>179713+150728+131896</f>
         <v>462337</v>
       </c>
-      <c r="I8" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="34">
+      <c r="I11" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" s="34">
         <v>3</v>
       </c>
-      <c r="P8" s="34">
+      <c r="P11" s="34">
         <v>2719</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q11" s="34">
         <v>2742.5</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R11" s="34">
         <v>2748.75</v>
       </c>
-      <c r="S8" s="34">
+      <c r="S11" s="34">
         <v>2713.25</v>
       </c>
-      <c r="U8" s="34">
+      <c r="U11" s="34">
         <v>0</v>
       </c>
-      <c r="V8" s="34">
+      <c r="V11" s="34">
         <v>0</v>
       </c>
-      <c r="W8" s="34">
+      <c r="W11" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:25" s="30" customFormat="1">
-      <c r="B9" s="33">
+    <row r="12" spans="2:25" s="30" customFormat="1">
+      <c r="B12" s="33">
         <v>41958</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C12" s="30">
         <v>2719</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D12" s="30">
         <v>2740.5</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E12" s="31">
         <v>0.40069444444444446</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F12" s="30">
         <v>2713.25</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G12" s="31">
         <v>0.35902777777777778</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H12" s="32">
         <v>454610</v>
       </c>
-      <c r="I9" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="M9" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="N9" s="30">
+      <c r="I12" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="N12" s="30">
         <v>2</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P12" s="30">
         <v>2689</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="Q12" s="30">
         <v>2730</v>
       </c>
-      <c r="R9" s="30">
+      <c r="R12" s="30">
         <v>2736.75</v>
       </c>
-      <c r="S9" s="30">
+      <c r="S12" s="30">
         <v>2671.25</v>
       </c>
-      <c r="U9" s="30">
+      <c r="U12" s="30">
         <v>0</v>
       </c>
-      <c r="V9" s="30">
+      <c r="V12" s="30">
         <v>0</v>
       </c>
-      <c r="W9" s="30">
+      <c r="W12" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:25" s="26" customFormat="1">
-      <c r="B10" s="29">
+    <row r="13" spans="2:25" s="26" customFormat="1">
+      <c r="B13" s="29">
         <v>41957</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C13" s="26">
         <v>2689</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D13" s="26">
         <v>2698</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E13" s="27">
         <v>0.36736111111111108</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F13" s="26">
         <v>2671.25</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G13" s="27">
         <v>0.40069444444444446</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H13" s="28">
         <v>605576</v>
       </c>
-      <c r="I10" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="M10" s="30" t="s">
+      <c r="I13" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13" s="26">
+        <v>5</v>
+      </c>
+      <c r="P13" s="26">
+        <v>2743.75</v>
+      </c>
+      <c r="Q13" s="26">
+        <v>2703</v>
+      </c>
+      <c r="R13" s="26">
+        <v>2748.25</v>
+      </c>
+      <c r="S13" s="26">
+        <v>2686.25</v>
+      </c>
+      <c r="U13" s="26">
+        <v>0</v>
+      </c>
+      <c r="V13" s="26">
+        <v>0</v>
+      </c>
+      <c r="W13" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" s="22" customFormat="1">
+      <c r="B14" s="25">
+        <v>41956</v>
+      </c>
+      <c r="C14" s="22">
+        <v>2743.75</v>
+      </c>
+      <c r="D14" s="22">
+        <v>2748.25</v>
+      </c>
+      <c r="E14" s="23">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="F14" s="22">
+        <v>2722.5</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0.41111111111111115</v>
+      </c>
+      <c r="H14" s="24">
+        <v>460681</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="22">
+        <v>4</v>
+      </c>
+      <c r="P14" s="22">
+        <v>2733.25</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>2727.5</v>
+      </c>
+      <c r="R14" s="22">
+        <v>2755.75</v>
+      </c>
+      <c r="S14" s="22">
+        <v>2714.5</v>
+      </c>
+      <c r="U14" s="22">
+        <v>0</v>
+      </c>
+      <c r="V14" s="22">
+        <v>0</v>
+      </c>
+      <c r="W14" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" s="18" customFormat="1">
+      <c r="B15" s="21">
+        <v>41955</v>
+      </c>
+      <c r="C15" s="18">
+        <v>2733.25</v>
+      </c>
+      <c r="D15" s="18">
+        <v>2744</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="F15" s="18">
+        <v>2719.5</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="H15" s="20">
+        <v>546403</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="N15" s="18">
+        <v>6</v>
+      </c>
+      <c r="P15" s="18">
+        <v>2774.25</v>
+      </c>
+      <c r="Q15" s="18">
+        <v>2728.75</v>
+      </c>
+      <c r="R15" s="18">
+        <v>2777.5</v>
+      </c>
+      <c r="S15" s="18">
+        <v>2722.25</v>
+      </c>
+      <c r="U15" s="18">
+        <v>6</v>
+      </c>
+      <c r="V15" s="18">
+        <v>-17.25</v>
+      </c>
+      <c r="W15" s="18">
+        <v>-862</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" s="14" customFormat="1">
+      <c r="B16" s="13">
+        <v>41954</v>
+      </c>
+      <c r="C16" s="14">
+        <v>2774.25</v>
+      </c>
+      <c r="D16" s="14">
+        <v>2777.5</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.35486111111111113</v>
+      </c>
+      <c r="F16" s="14">
+        <v>2745.5</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H16" s="16">
+        <v>448339</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="N16" s="14">
+        <v>0</v>
+      </c>
+      <c r="P16" s="14">
+        <v>2793</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>2779.75</v>
+      </c>
+      <c r="R16" s="14">
+        <v>2795.25</v>
+      </c>
+      <c r="S16" s="14">
+        <v>2764.5</v>
+      </c>
+      <c r="U16" s="14">
+        <v>8</v>
+      </c>
+      <c r="V16" s="14">
+        <v>-5.25</v>
+      </c>
+      <c r="W16" s="14">
+        <v>-262.5</v>
+      </c>
+      <c r="Y16" s="14" t="s">
         <v>153</v>
-      </c>
-      <c r="N10" s="26">
-        <v>5</v>
-      </c>
-      <c r="P10" s="26">
-        <v>2743.75</v>
-      </c>
-      <c r="Q10" s="26">
-        <v>2703</v>
-      </c>
-      <c r="R10" s="26">
-        <v>2748.25</v>
-      </c>
-      <c r="S10" s="26">
-        <v>2686.25</v>
-      </c>
-      <c r="U10" s="26">
-        <v>0</v>
-      </c>
-      <c r="V10" s="26">
-        <v>0</v>
-      </c>
-      <c r="W10" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25" s="22" customFormat="1">
-      <c r="B11" s="25">
-        <v>41956</v>
-      </c>
-      <c r="C11" s="22">
-        <v>2743.75</v>
-      </c>
-      <c r="D11" s="22">
-        <v>2748.25</v>
-      </c>
-      <c r="E11" s="23">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="F11" s="22">
-        <v>2722.5</v>
-      </c>
-      <c r="G11" s="23">
-        <v>0.41111111111111115</v>
-      </c>
-      <c r="H11" s="24">
-        <v>460681</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="N11" s="22">
-        <v>4</v>
-      </c>
-      <c r="P11" s="22">
-        <v>2733.25</v>
-      </c>
-      <c r="Q11" s="22">
-        <v>2727.5</v>
-      </c>
-      <c r="R11" s="22">
-        <v>2755.75</v>
-      </c>
-      <c r="S11" s="22">
-        <v>2714.5</v>
-      </c>
-      <c r="U11" s="22">
-        <v>0</v>
-      </c>
-      <c r="V11" s="22">
-        <v>0</v>
-      </c>
-      <c r="W11" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:25" s="18" customFormat="1">
-      <c r="B12" s="21">
-        <v>41955</v>
-      </c>
-      <c r="C12" s="18">
-        <v>2733.25</v>
-      </c>
-      <c r="D12" s="18">
-        <v>2744</v>
-      </c>
-      <c r="E12" s="19">
-        <v>0.3666666666666667</v>
-      </c>
-      <c r="F12" s="18">
-        <v>2719.5</v>
-      </c>
-      <c r="G12" s="19">
-        <v>0.3972222222222222</v>
-      </c>
-      <c r="H12" s="20">
-        <v>546403</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="N12" s="18">
-        <v>6</v>
-      </c>
-      <c r="P12" s="18">
-        <v>2774.25</v>
-      </c>
-      <c r="Q12" s="18">
-        <v>2728.75</v>
-      </c>
-      <c r="R12" s="18">
-        <v>2777.5</v>
-      </c>
-      <c r="S12" s="18">
-        <v>2722.25</v>
-      </c>
-      <c r="U12" s="18">
-        <v>6</v>
-      </c>
-      <c r="V12" s="18">
-        <v>-17.25</v>
-      </c>
-      <c r="W12" s="18">
-        <v>-862</v>
-      </c>
-    </row>
-    <row r="13" spans="2:25" s="14" customFormat="1">
-      <c r="B13" s="13">
-        <v>41954</v>
-      </c>
-      <c r="C13" s="14">
-        <v>2774.25</v>
-      </c>
-      <c r="D13" s="14">
-        <v>2777.5</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0.35486111111111113</v>
-      </c>
-      <c r="F13" s="14">
-        <v>2745.5</v>
-      </c>
-      <c r="G13" s="15">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="H13" s="16">
-        <v>448339</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="N13" s="14">
-        <v>0</v>
-      </c>
-      <c r="P13" s="14">
-        <v>2793</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>2779.75</v>
-      </c>
-      <c r="R13" s="14">
-        <v>2795.25</v>
-      </c>
-      <c r="S13" s="14">
-        <v>2764.5</v>
-      </c>
-      <c r="U13" s="14">
-        <v>8</v>
-      </c>
-      <c r="V13" s="14">
-        <v>-5.25</v>
-      </c>
-      <c r="W13" s="14">
-        <v>-262.5</v>
-      </c>
-      <c r="Y13" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="2:25">
-      <c r="B14" s="2">
-        <v>41951</v>
-      </c>
-      <c r="C14">
-        <v>2793</v>
-      </c>
-      <c r="D14">
-        <v>2795.25</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0.35555555555555557</v>
-      </c>
-      <c r="F14">
-        <v>2777.25</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0.41944444444444445</v>
-      </c>
-      <c r="H14" s="5">
-        <v>404717</v>
-      </c>
-      <c r="I14" t="s">
-        <v>149</v>
-      </c>
-      <c r="J14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>2804.75</v>
-      </c>
-      <c r="Q14">
-        <v>2809.25</v>
-      </c>
-      <c r="R14">
-        <v>2815.25</v>
-      </c>
-      <c r="S14">
-        <v>2795</v>
-      </c>
-      <c r="U14">
-        <v>8</v>
-      </c>
-      <c r="V14">
-        <v>-2</v>
-      </c>
-      <c r="W14">
-        <v>-100</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="2:25">
-      <c r="B15" s="2">
-        <v>41950</v>
-      </c>
-      <c r="C15">
-        <v>2804.75</v>
-      </c>
-      <c r="D15">
-        <v>2813.25</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0.37152777777777773</v>
-      </c>
-      <c r="F15">
-        <v>2804.5</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0.38680555555555557</v>
-      </c>
-      <c r="H15" s="5">
-        <v>321469</v>
-      </c>
-      <c r="I15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" t="s">
-        <v>139</v>
-      </c>
-      <c r="K15" t="s">
-        <v>140</v>
-      </c>
-      <c r="M15" t="s">
-        <v>118</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>2779</v>
-      </c>
-      <c r="Q15">
-        <v>2814</v>
-      </c>
-      <c r="R15">
-        <v>2815</v>
-      </c>
-      <c r="S15">
-        <v>2774.25</v>
-      </c>
-      <c r="U15">
-        <v>2</v>
-      </c>
-      <c r="V15">
-        <v>-5</v>
-      </c>
-      <c r="W15">
-        <v>-250</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="2:25">
-      <c r="B16" s="2">
-        <v>41949</v>
-      </c>
-      <c r="C16">
-        <v>2779</v>
-      </c>
-      <c r="D16">
-        <v>2792</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0.41250000000000003</v>
-      </c>
-      <c r="F16">
-        <v>2774.25</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0.37847222222222227</v>
-      </c>
-      <c r="H16" s="5">
-        <v>354715</v>
-      </c>
-      <c r="I16" t="s">
-        <v>111</v>
-      </c>
-      <c r="J16" t="s">
-        <v>112</v>
-      </c>
-      <c r="K16" t="s">
-        <v>110</v>
-      </c>
-      <c r="M16" t="s">
-        <v>152</v>
-      </c>
-      <c r="N16">
-        <v>2</v>
-      </c>
-      <c r="P16">
-        <v>2736.75</v>
-      </c>
-      <c r="Q16">
-        <v>2756</v>
-      </c>
-      <c r="R16">
-        <v>2756</v>
-      </c>
-      <c r="S16">
-        <v>2736.75</v>
-      </c>
-      <c r="U16">
-        <v>11</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:25">
       <c r="B17" s="2">
-        <v>41948</v>
+        <v>41951</v>
       </c>
       <c r="C17">
-        <v>2736.75</v>
+        <v>2793</v>
       </c>
       <c r="D17">
-        <v>2751.75</v>
+        <v>2795.25</v>
       </c>
       <c r="E17" s="9">
-        <v>0.37361111111111112</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="F17">
-        <v>2736.75</v>
+        <v>2777.25</v>
       </c>
       <c r="G17" s="9">
-        <v>0.35416666666666669</v>
+        <v>0.41944444444444445</v>
       </c>
       <c r="H17" s="5">
-        <v>354715</v>
+        <v>404717</v>
       </c>
       <c r="I17" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="J17" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="M17" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>2727.5</v>
+        <v>2804.75</v>
       </c>
       <c r="Q17">
-        <v>2740.25</v>
+        <v>2809.25</v>
       </c>
       <c r="R17">
-        <v>2743.75</v>
+        <v>2815.25</v>
       </c>
       <c r="S17">
-        <v>2717</v>
+        <v>2795</v>
       </c>
       <c r="U17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V17">
-        <v>-12.5</v>
+        <v>-2</v>
       </c>
       <c r="W17">
-        <v>-625</v>
+        <v>-100</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="2:25">
       <c r="B18" s="2">
-        <v>41947</v>
+        <v>41950</v>
       </c>
       <c r="C18">
-        <v>2727.5</v>
+        <v>2804.75</v>
       </c>
       <c r="D18">
-        <v>2733.25</v>
+        <v>2813.25</v>
       </c>
       <c r="E18" s="9">
-        <v>0.35833333333333334</v>
+        <v>0.37152777777777773</v>
       </c>
       <c r="F18">
-        <v>2717</v>
+        <v>2804.5</v>
       </c>
       <c r="G18" s="9">
-        <v>0.39097222222222222</v>
+        <v>0.38680555555555557</v>
       </c>
       <c r="H18" s="5">
-        <v>377277</v>
+        <v>321469</v>
       </c>
       <c r="I18" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M18" t="s">
-        <v>162</v>
-      </c>
-      <c r="N18" t="s">
-        <v>163</v>
+        <v>62</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>2751.5</v>
+        <v>2779</v>
       </c>
       <c r="Q18">
-        <v>2722.75</v>
+        <v>2814</v>
       </c>
       <c r="R18">
-        <v>2756.5</v>
+        <v>2815</v>
       </c>
       <c r="S18">
-        <v>2699.5</v>
+        <v>2774.25</v>
       </c>
       <c r="U18">
         <v>2</v>
       </c>
       <c r="V18">
-        <v>10.25</v>
+        <v>-5</v>
       </c>
       <c r="W18">
-        <v>512.5</v>
+        <v>-250</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:25">
       <c r="B19" s="2">
-        <v>41944</v>
+        <v>41949</v>
       </c>
       <c r="C19">
-        <v>2751.5</v>
+        <v>2779</v>
       </c>
       <c r="D19">
-        <v>2756.5</v>
+        <v>2792</v>
       </c>
       <c r="E19" s="9">
-        <v>0.36388888888888887</v>
+        <v>0.41250000000000003</v>
       </c>
       <c r="F19">
-        <v>2721.75</v>
+        <v>2774.25</v>
       </c>
       <c r="G19" s="9">
-        <v>0.40277777777777773</v>
+        <v>0.37847222222222227</v>
       </c>
       <c r="H19" s="5">
-        <v>566727</v>
+        <v>354715</v>
       </c>
       <c r="I19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="J19" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="K19" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="M19" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="N19">
         <v>2</v>
       </c>
       <c r="P19">
-        <v>2706</v>
+        <v>2736.75</v>
       </c>
       <c r="Q19">
-        <v>2738</v>
+        <v>2756</v>
       </c>
       <c r="R19">
-        <v>2741.25</v>
+        <v>2756</v>
       </c>
       <c r="S19">
-        <v>2705.5</v>
+        <v>2736.75</v>
+      </c>
+      <c r="U19">
+        <v>11</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>-1759</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:25">
       <c r="B20" s="2">
-        <v>41943</v>
+        <v>41948</v>
       </c>
       <c r="C20">
-        <v>2720.5</v>
+        <v>2736.75</v>
       </c>
       <c r="D20">
-        <v>2732.25</v>
+        <v>2751.75</v>
       </c>
       <c r="E20" s="9">
-        <v>0.41666666666666669</v>
+        <v>0.37361111111111112</v>
       </c>
       <c r="F20">
-        <v>2707.75</v>
+        <v>2736.75</v>
       </c>
       <c r="G20" s="9">
-        <v>0.38055555555555554</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="H20" s="5">
-        <v>567516</v>
+        <v>354715</v>
       </c>
       <c r="I20" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="K20" t="s">
-        <v>170</v>
+        <v>6</v>
       </c>
       <c r="M20" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="N20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>2710.5</v>
+        <v>2727.5</v>
       </c>
       <c r="Q20">
-        <v>2709.75</v>
+        <v>2740.25</v>
       </c>
       <c r="R20">
-        <v>2736.5</v>
+        <v>2743.75</v>
       </c>
       <c r="S20">
-        <v>2704.75</v>
+        <v>2717</v>
+      </c>
+      <c r="U20">
+        <v>10</v>
+      </c>
+      <c r="V20">
+        <v>-12.5</v>
       </c>
       <c r="W20">
-        <v>-391</v>
+        <v>-625</v>
       </c>
     </row>
     <row r="21" spans="2:25">
       <c r="B21" s="2">
-        <v>41942</v>
+        <v>41947</v>
       </c>
       <c r="C21">
-        <v>2711.75</v>
+        <v>2727.5</v>
       </c>
       <c r="D21">
-        <v>2729.25</v>
+        <v>2733.25</v>
       </c>
       <c r="E21" s="9">
-        <v>0.39930555555555558</v>
+        <v>0.35833333333333334</v>
       </c>
       <c r="F21">
-        <v>2706.25</v>
+        <v>2717</v>
       </c>
       <c r="G21" s="9">
-        <v>0.3576388888888889</v>
+        <v>0.39097222222222222</v>
       </c>
       <c r="H21" s="5">
-        <v>517819</v>
+        <v>377277</v>
       </c>
       <c r="I21" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="J21" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="K21" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="M21" t="s">
-        <v>145</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="N21" t="s">
+        <v>111</v>
       </c>
       <c r="P21">
-        <v>2641.25</v>
+        <v>2751.5</v>
       </c>
       <c r="Q21">
-        <v>2683.5</v>
+        <v>2722.75</v>
       </c>
       <c r="R21">
-        <v>2683.5</v>
+        <v>2756.5</v>
       </c>
       <c r="S21">
-        <v>2635.75</v>
+        <v>2699.5</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
+        <v>10.25</v>
+      </c>
+      <c r="W21">
+        <v>512.5</v>
       </c>
     </row>
     <row r="22" spans="2:25">
       <c r="B22" s="2">
+        <v>41944</v>
+      </c>
+      <c r="C22">
+        <v>2751.5</v>
+      </c>
+      <c r="D22">
+        <v>2756.5</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="F22">
+        <v>2721.75</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="H22" s="5">
+        <v>566727</v>
+      </c>
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>2706</v>
+      </c>
+      <c r="Q22">
+        <v>2738</v>
+      </c>
+      <c r="R22">
+        <v>2741.25</v>
+      </c>
+      <c r="S22">
+        <v>2705.5</v>
+      </c>
+      <c r="W22">
+        <v>-1759</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25">
+      <c r="B23" s="2">
+        <v>41943</v>
+      </c>
+      <c r="C23">
+        <v>2720.5</v>
+      </c>
+      <c r="D23">
+        <v>2732.25</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F23">
+        <v>2707.75</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="H23" s="5">
+        <v>567516</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" t="s">
+        <v>144</v>
+      </c>
+      <c r="M23" t="s">
+        <v>95</v>
+      </c>
+      <c r="N23">
+        <v>6</v>
+      </c>
+      <c r="P23">
+        <v>2710.5</v>
+      </c>
+      <c r="Q23">
+        <v>2709.75</v>
+      </c>
+      <c r="R23">
+        <v>2736.5</v>
+      </c>
+      <c r="S23">
+        <v>2704.75</v>
+      </c>
+      <c r="W23">
+        <v>-391</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25">
+      <c r="B24" s="2">
+        <v>41942</v>
+      </c>
+      <c r="C24">
+        <v>2711.75</v>
+      </c>
+      <c r="D24">
+        <v>2729.25</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="F24">
+        <v>2706.25</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="H24" s="5">
+        <v>517819</v>
+      </c>
+      <c r="I24" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" t="s">
+        <v>179</v>
+      </c>
+      <c r="K24" t="s">
+        <v>182</v>
+      </c>
+      <c r="M24" t="s">
+        <v>183</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>2641.25</v>
+      </c>
+      <c r="Q24">
+        <v>2683.5</v>
+      </c>
+      <c r="R24">
+        <v>2683.5</v>
+      </c>
+      <c r="S24">
+        <v>2635.75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25">
+      <c r="B25" s="2">
         <v>41941</v>
       </c>
-      <c r="C22">
+      <c r="C25">
         <v>2641.25</v>
       </c>
-      <c r="D22">
+      <c r="D25">
         <v>2675.25</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E25" s="9">
         <v>0.37152777777777773</v>
       </c>
-      <c r="F22">
+      <c r="F25">
         <v>2635.75</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G25" s="9">
         <v>0.35416666666666669</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H25" s="5">
         <v>650925</v>
       </c>
-      <c r="I22" t="s">
-        <v>142</v>
-      </c>
-      <c r="J22" t="s">
-        <v>143</v>
-      </c>
-      <c r="K22" t="s">
-        <v>146</v>
-      </c>
-      <c r="M22" t="s">
-        <v>147</v>
-      </c>
-      <c r="N22">
+      <c r="I25" t="s">
+        <v>180</v>
+      </c>
+      <c r="J25" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" t="s">
+        <v>184</v>
+      </c>
+      <c r="M25" t="s">
+        <v>185</v>
+      </c>
+      <c r="N25">
         <v>0</v>
       </c>
-      <c r="P22">
+      <c r="P25">
         <v>2692.25</v>
       </c>
-      <c r="Q22">
+      <c r="Q25">
         <v>2638.75</v>
       </c>
-      <c r="R22">
+      <c r="R25">
         <v>2707</v>
       </c>
-      <c r="S22">
+      <c r="S25">
         <v>2603</v>
       </c>
-      <c r="W22">
+      <c r="W25">
         <v>1211</v>
-      </c>
-    </row>
-    <row r="23" spans="2:25">
-      <c r="W23">
-        <v>-770</v>
       </c>
     </row>
     <row r="26" spans="2:25">
       <c r="W26">
-        <f>SUM(W9:W23)</f>
+        <v>-770</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25">
+      <c r="W29">
+        <f>SUM(W12:W26)</f>
         <v>-3296</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3772,8 +3868,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData/>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/TradingTheOpen.xlsx
+++ b/TradingTheOpen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="840" windowWidth="24600" windowHeight="7380" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="260" yWindow="100" windowWidth="24600" windowHeight="10780" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TradeHistory" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="S&amp;P Stats" sheetId="4" r:id="rId3"/>
     <sheet name="SPHistoricalData" sheetId="2" r:id="rId4"/>
     <sheet name="NFLX Historical Data" sheetId="3" r:id="rId5"/>
+    <sheet name="Definitions" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -23,78 +24,374 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="234">
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>On open reject reverse days, how often does the reverse move follow through and the day ends at a low?</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD Trend</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>(8:30 Central)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Test-Drive</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD Trend</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Low</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Open-Test-Drive, how soon does it bounce back, how soon does it cross back over the open, by how much does it deviate away from the open&gt;</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Test-Drive</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>On open auction days, how many minutes to take direction</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>On days with a drive in the first few minutes, what type of day is that? How much does it move in first few minutes?</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Test-Drive Statistics</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Drive, Open-Test-Drive,</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trend</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Number</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Days</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time of test</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Val at 10</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open at 10am</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-trend</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Drive</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up/Gap Down</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>A gap happens when</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trend</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD Trend</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Trades</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profit/Loss Points</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profit/Loss Dollars</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>On open-test-drive days, how soon is the test completed, mean and std dev</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Down</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trend</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Down</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up,</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Down,</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trend</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Drive</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Test-Drive</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opened and traded back and forth around the open 2793. It dropped and met some resistance at 2785, lots of volume there. It dropped below to 2780 and the volume was lower. To fill the gap it would be down to 2774 but I got out at 2780 because the volume was low at 2780 and that is a point of consolidation on the trader bite. If the bottom drops out I will be wrong, but it seemed like this was the right move.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am starting here to focus on only trading the open. I got caught up in emotional trading yesterday so I am going to drill in and focus on a more specific strategy</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Down</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
   <si>
     <t>crossing the open</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>in first 1.5 hrs</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Total Number</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Open-Drive</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Normal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>No Gap</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Notes</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>My trades</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Number of Trades</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Profit and Loss</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Total Volume</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>8:30-10a</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>When opening within previous days value range, what percent of the time do previous value extremes hold?</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Open-Auction</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Todays Open</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Open High</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Sell To Close</t>
@@ -113,660 +410,548 @@
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Action</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Qty</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Price</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Commission/Fees</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Previous</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Open</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Previous</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Close</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Todays</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>High</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Low</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Open</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-trend</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Types of Opens</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Drive</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Test-Drive</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>DD Trend</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>(8:30 Central)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>98% of time break either IB high or IB low</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Types of Days</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time of High</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market opened and traded sideways for 8 minutes. I was focused on downside and I got afraid I would miss the move. I got in too early. My plan was to get in at 2810, stop at 2817 and limit at 2795. I got in at 2806 right before the market shot up, struck too early. I did feel good however and did not over trade like I have been doing.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Points</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dollars</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse,</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open (first 1.5 hr)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time of</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position Close</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time of Low</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Volume</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Type</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day Type</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open in Yesterdays Range</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open in Yesterdays Value</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up/Down</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of times crossing open</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous Open</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous Close</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous High</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous Low</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Open-Test-Drive</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD Trend</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Central Time</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position Open</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy/Sell</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>commission</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceeds</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loss/Gain</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only take 3 trades per day, one to open, one reversal (optional), and one to close. I am going to trade for the first 1.5 hours only. This is the discipline I am going to get on for a while, and work my niche.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-trend</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-trend</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Test-Drive</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD Trend</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Gap Up</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUMIF('S&amp;P Historical Data'!I5:I30="Open-Test-Drive",MIN('S&amp;P Historical Data'!G5:G10,'S&amp;P Historical Data'!E5:E10))</t>
+  </si>
+  <si>
+    <t>Open-Drive</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Open-Auction</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD Trend</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are the greatest range extensions outside of the previous days value range in the open?</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>The greatest imbalance occurs when open is outside of range and the direction is accepted, usually a trend day develops</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Yesterdays</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value? (Y/N)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash market only (8:30-3 central)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF('S&amp;P Historical Data'!I5:I30="Open-Test-Drive",SUM(MIN('S&amp;P Historical Data'!G5:G10,'S&amp;P Historical Data'!E5:E10)))</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average of Minimum on open-test drive days</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Counts</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trend</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Days</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD Trend</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral-Extreme</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal Var</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral-Center</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Down</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opened, went slightly down in first 2 min, bounced up to high at 8:44 and then kept falling</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal Var, Neutral-Center,</t>
+  </si>
+  <si>
+    <t>Trend, DD Trend, Neutral-Extreme,</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal, Non-trend</t>
+  </si>
+  <si>
+    <t>Day type:</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open type:</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Open-Auction</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Yesterdays</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trend</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>DD Trend</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Up</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open Low</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>On Open-Test-Drive, how soon does it bounce back, how soon does it cross back over the open, by how much does it deviate away from the open&gt;</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Test-Drive</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>On open auction days, how many minutes to take direction</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>On days with a drive in the first few minutes, what type of day is that? How much does it move in first few minutes?</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Test-Drive Statistics</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Drive, Open-Test-Drive,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range? (Y/N)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>just kept going lower, I kept getting out too soon when I sold</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of times</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>27% of all days are neutral days, likely to break IB high and IB low (FT71)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>73% of all days are likely to only break one side of IB high or IB low</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Open-Auction</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trend</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Number</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Days</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time of test</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Market opened and traded sideways for 8 minutes. I was focused on downside and I got afraid I would miss the move. I got in too early. My plan was to get in at 2810, stop at 2817 and limit at 2795. I got in at 2806 right before the market shot up, struck too early. I did feel good however and did not over trade like I have been doing.</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Points</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dollars</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Reject-Reverse,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open (first 1.5 hr)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time of</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>High</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position Close</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time of Low</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Volume</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open Type</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day Type</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open in Yesterdays Range</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open in Yesterdays Value</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Up/Down</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of times crossing open</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Previous Open</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Previous Close</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Previous High</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Previous Low</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of Trades</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Profit/Loss Points</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Profit/Loss Dollars</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>On open-test-drive days, how soon is the test completed, mean and std dev</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Auction</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Down</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trend</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Down</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Up,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Down,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trend</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Drive</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opened and traded back and forth around the open 2793. It dropped and met some resistance at 2785, lots of volume there. It dropped below to 2780 and the volume was lower. To fill the gap it would be down to 2774 but I got out at 2780 because the volume was low at 2780 and that is a point of consolidation on the trader bite. If the bottom drops out I will be wrong, but it seemed like this was the right move.</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>I am starting here to focus on only trading the open. I got caught up in emotional trading yesterday so I am going to drill in and focus on a more specific strategy</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Up</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Down</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Reject-Reverse</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>What are the greatest range extensions outside of the previous days value range in the open?</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>The greatest imbalance occurs when open is outside of range and the direction is accepted, usually a trend day develops</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sell</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buy</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Reject-Reverse</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10+</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>In Yesterdays</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value? (Y/N)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cash market only (8:30-3 central)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>IF('S&amp;P Historical Data'!I5:I30="Open-Test-Drive",SUM(MIN('S&amp;P Historical Data'!G5:G10,'S&amp;P Historical Data'!E5:E10)))</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average of Minimum on open-test drive days</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Counts</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trend</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Days</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD Trend</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neutral-Extreme</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal Var</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neutral-Center</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-trend</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Types of Opens</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Drive</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Test-Drive</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Reject-Reverse</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Reject-Reverse</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Type Secondary</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drift Lower</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day Type Secondary</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extreme</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Neutral</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD Trend</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>98% of time break either IB high or IB low</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Auction</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Types of Days</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time of High</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opened, went slightly down in first 2 min, bounced up to high at 8:44 and then kept falling</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal Var, Neutral-Center,</t>
-  </si>
-  <si>
-    <t>Trend, DD Trend, Neutral-Extreme,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal, Non-trend</t>
-  </si>
-  <si>
-    <t>Day type:</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open type:</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Auction</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>In Yesterdays</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range? (Y/N)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>just kept going lower, I kept getting out too soon when I sold</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of times</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>27% of all days are neutral days, likely to break IB high and IB low (FT71)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>73% of all days are likely to only break one side of IB high or IB low</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neutral</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neutral</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Test-Drive</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD Trend</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Up</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>In Central Time</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position Open</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buy/Sell</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>commission</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Proceeds</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notes</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sell</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loss/Gain</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only take 3 trades per day, one to open, one reversal (optional), and one to close. I am going to trade for the first 1.5 hours only. This is the discipline I am going to get on for a while, and work my niche.</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-trend</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-trend</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Test-Drive</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD Trend</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Up</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUMIF('S&amp;P Historical Data'!I5:I30="Open-Test-Drive",MIN('S&amp;P Historical Data'!G5:G10,'S&amp;P Historical Data'!E5:E10))</t>
-  </si>
-  <si>
-    <t>Open-Drive</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -776,7 +961,23 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="17">
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -861,49 +1062,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1243,48 +1473,48 @@
   <sheetData>
     <row r="1" spans="2:15">
       <c r="B1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="2:15" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="2:15">
@@ -1292,7 +1522,7 @@
         <v>41940</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D4">
         <v>2695</v>
@@ -1315,19 +1545,19 @@
     </row>
     <row r="11" spans="2:15">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -1335,13 +1565,13 @@
         <v>41944</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F13">
         <v>2719.5</v>
@@ -1360,13 +1590,13 @@
         <v>41944</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F14">
         <v>2722</v>
@@ -1386,13 +1616,13 @@
         <v>41944</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F16">
         <v>2723.75</v>
@@ -1411,13 +1641,13 @@
         <v>41944</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F17">
         <v>2722.75</v>
@@ -1437,13 +1667,13 @@
         <v>41944</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F19">
         <v>2717.75</v>
@@ -1462,13 +1692,13 @@
         <v>41944</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F20">
         <v>2730.25</v>
@@ -1488,13 +1718,13 @@
         <v>41944</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F22">
         <v>2726.5</v>
@@ -1513,13 +1743,13 @@
         <v>41944</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F23">
         <v>2728.75</v>
@@ -1539,13 +1769,13 @@
         <v>41944</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F25">
         <v>2747.25</v>
@@ -1564,13 +1794,13 @@
         <v>41944</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F26">
         <v>2752</v>
@@ -1589,13 +1819,13 @@
         <v>41944</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F27">
         <v>2756.25</v>
@@ -1618,13 +1848,13 @@
         <v>41944</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F28">
         <v>2753.75</v>
@@ -1643,13 +1873,13 @@
         <v>41944</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F29">
         <v>2752.75</v>
@@ -1668,13 +1898,13 @@
         <v>41944</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F30">
         <v>2747</v>
@@ -1693,13 +1923,13 @@
         <v>41944</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F31">
         <v>2750.75</v>
@@ -1718,13 +1948,13 @@
         <v>41944</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F32">
         <v>2747</v>
@@ -1743,13 +1973,13 @@
         <v>41944</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F33">
         <v>2753.75</v>
@@ -1769,13 +1999,13 @@
         <v>41943</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F35">
         <v>2726.5</v>
@@ -1790,13 +2020,13 @@
         <v>41943</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F36">
         <v>2736</v>
@@ -1815,13 +2045,13 @@
         <v>41943</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F37">
         <v>2728</v>
@@ -1841,13 +2071,13 @@
         <v>41942</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F39">
         <v>2720</v>
@@ -1866,13 +2096,13 @@
         <v>41941</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F40">
         <v>2679</v>
@@ -1892,13 +2122,13 @@
         <v>41941</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F42">
         <v>2665</v>
@@ -1917,13 +2147,13 @@
         <v>41941</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F43">
         <v>2648</v>
@@ -1943,13 +2173,13 @@
         <v>41940</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F45">
         <v>2638.25</v>
@@ -1968,13 +2198,13 @@
         <v>41940</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F46">
         <v>2637.75</v>
@@ -1994,13 +2224,13 @@
         <v>41940</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F48">
         <v>2705</v>
@@ -2023,13 +2253,13 @@
         <v>41940</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F49">
         <v>2692.25</v>
@@ -2048,13 +2278,13 @@
         <v>41940</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F50">
         <v>2695.25</v>
@@ -2074,13 +2304,13 @@
         <v>41940</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F52">
         <v>2695.25</v>
@@ -2099,13 +2329,13 @@
         <v>41940</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F53">
         <v>2695</v>
@@ -2128,60 +2358,60 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="G60" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -2189,7 +2419,7 @@
         <v>41947</v>
       </c>
       <c r="B63" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="C63">
         <v>2730.25</v>
@@ -2201,7 +2431,7 @@
         <v>41947</v>
       </c>
       <c r="H63" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="I63">
         <v>2720</v>
@@ -2215,7 +2445,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -2227,56 +2457,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A3:A13"/>
+  <dimension ref="A3:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="17" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -2305,54 +2545,54 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="F9" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="F12" s="9" t="e">
-        <f>SUM(IF(SPHistoricalData!I17:I42="Open-Test-Drive",MIN(SPHistoricalData!G17:G22,SPHistoricalData!E17:E22)))/B13</f>
+        <f>SUM(IF(SPHistoricalData!J27:J52="Open-Test-Drive",MIN(SPHistoricalData!G27:G32,SPHistoricalData!E27:E32)))/B13</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2362,197 +2602,197 @@
         <v>3</v>
       </c>
       <c r="D13" s="8">
-        <f>IF(SPHistoricalData!I22="Open-Test-Drive",MIN(SPHistoricalData!G22,SPHistoricalData!E22))</f>
+        <f>IF(SPHistoricalData!J32="Open-Test-Drive",MIN(SPHistoricalData!G32,SPHistoricalData!E32))</f>
         <v>0.36388888888888887</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="D15" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="D16" s="9">
-        <f>(SPHistoricalData!E22+SPHistoricalData!G25+SPHistoricalData!G24)/3</f>
+        <f>(SPHistoricalData!E32+SPHistoricalData!G35+SPHistoricalData!G34)/3</f>
         <v>0.35856481481481484</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" t="s">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="F22" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="G22" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="H22" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="H23" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24">
-        <f>COUNTIF(SPHistoricalData!$J$17:$J35,"Trend")</f>
+        <f>COUNTIF(SPHistoricalData!$L$27:$L45,"Trend")</f>
         <v>3</v>
       </c>
       <c r="C24">
-        <f>COUNTIF(SPHistoricalData!$J$17:$J35,"DD Trend")</f>
+        <f>COUNTIF(SPHistoricalData!$L$27:$L45,"DD Trend")</f>
         <v>3</v>
       </c>
       <c r="D24">
-        <f>COUNTIF(SPHistoricalData!$J$17:$J35,"Neutral-Extreme")</f>
+        <f>COUNTIF(SPHistoricalData!$L$27:$L45,"Neutral-Extreme")</f>
         <v>0</v>
       </c>
       <c r="E24">
-        <f>COUNTIF(SPHistoricalData!$J$17:$J35,"Normal Var")</f>
+        <f>COUNTIF(SPHistoricalData!$L$27:$L45,"Normal Var")</f>
         <v>0</v>
       </c>
       <c r="F24">
-        <f>COUNTIF(SPHistoricalData!$J$17:$J35,"Neutral-Center")</f>
+        <f>COUNTIF(SPHistoricalData!$L$27:$L45,"Neutral-Center")</f>
         <v>0</v>
       </c>
       <c r="G24">
-        <f>COUNTIF(SPHistoricalData!$J$17:$J35,"Normal")</f>
+        <f>COUNTIF(SPHistoricalData!$L$27:$L45,"Normal")</f>
         <v>1</v>
       </c>
       <c r="H24">
-        <f>COUNTIF(SPHistoricalData!$J$17:$J35,"Non-trend")</f>
+        <f>COUNTIF(SPHistoricalData!$L$27:$L45,"Non-trend")</f>
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="E28" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="B31">
-        <f>COUNTIF(SPHistoricalData!$I$17:$I42,"Open-Drive")</f>
+        <f>COUNTIF(SPHistoricalData!$J$27:$J52,"Open-Drive")</f>
         <v>2</v>
       </c>
       <c r="C31">
-        <f>COUNTIF(SPHistoricalData!$I$17:$I42,"Open-Test-Drive")</f>
+        <f>COUNTIF(SPHistoricalData!$J$27:$J52,"Open-Test-Drive")</f>
         <v>3</v>
       </c>
       <c r="D31">
-        <f>COUNTIF(SPHistoricalData!$I$17:$I42,"Open-Reject-Reverse")</f>
+        <f>COUNTIF(SPHistoricalData!$J$27:$J52,"Open-Reject-Reverse")</f>
         <v>1</v>
       </c>
       <c r="E31">
-        <f>COUNTIF(SPHistoricalData!$I$17:$I42,"Open-Auction")</f>
+        <f>COUNTIF(SPHistoricalData!$J$27:$J52,"Open-Auction")</f>
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -2564,11 +2804,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="B1:Y29"/>
+  <dimension ref="B1:AB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2577,1280 +2817,2024 @@
     <col min="5" max="5" width="11" style="9" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="12" style="9" customWidth="1"/>
-    <col min="8" max="8" width="12" style="5" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="46" customWidth="1"/>
+    <col min="9" max="9" width="12" style="5" customWidth="1"/>
+    <col min="10" max="11" width="22.7109375" customWidth="1"/>
+    <col min="12" max="13" width="26.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25">
+    <row r="1" spans="2:28">
       <c r="E1" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="I1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>224</v>
+      </c>
+      <c r="S1" t="s">
+        <v>197</v>
+      </c>
+      <c r="X1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="2:28">
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>213</v>
+      </c>
+      <c r="N2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28">
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" t="s">
+        <v>212</v>
+      </c>
+      <c r="N3" t="s">
+        <v>218</v>
+      </c>
+      <c r="O3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T3" t="s">
+        <v>104</v>
+      </c>
+      <c r="U3" t="s">
+        <v>104</v>
+      </c>
+      <c r="V3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28">
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" t="s">
+        <v>217</v>
+      </c>
+      <c r="L4" t="s">
+        <v>214</v>
+      </c>
+      <c r="N4" t="s">
+        <v>222</v>
+      </c>
+      <c r="O4" t="s">
+        <v>196</v>
+      </c>
+      <c r="P4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" t="s">
+        <v>103</v>
+      </c>
+      <c r="T4" t="s">
+        <v>105</v>
+      </c>
+      <c r="U4" t="s">
+        <v>107</v>
+      </c>
+      <c r="V4" t="s">
+        <v>108</v>
+      </c>
+      <c r="X4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" s="10" customFormat="1">
+      <c r="B5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" s="66" customFormat="1">
+      <c r="B6" s="70">
+        <v>41984</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="69"/>
+      <c r="S6" s="66">
+        <v>2673.25</v>
+      </c>
+      <c r="T6" s="66">
+        <v>2640.5</v>
+      </c>
+      <c r="U6" s="66">
+        <v>2675.5</v>
+      </c>
+      <c r="V6" s="66">
+        <v>2621.25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" s="61" customFormat="1">
+      <c r="B7" s="65">
+        <v>41983</v>
+      </c>
+      <c r="C7" s="61">
+        <v>2673.25</v>
+      </c>
+      <c r="D7" s="61">
+        <v>2675.5</v>
+      </c>
+      <c r="E7" s="62">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="F7" s="61">
+        <v>2656.75</v>
+      </c>
+      <c r="G7" s="62">
+        <v>0.41250000000000003</v>
+      </c>
+      <c r="H7" s="63">
+        <v>2657.75</v>
+      </c>
+      <c r="I7" s="64"/>
+      <c r="J7" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="L7" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="61">
+        <v>9</v>
+      </c>
+      <c r="S7" s="61">
+        <v>2630.75</v>
+      </c>
+      <c r="T7" s="61">
+        <v>2643</v>
+      </c>
+      <c r="U7" s="61">
+        <v>2648.5</v>
+      </c>
+      <c r="V7" s="61">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" s="61" customFormat="1">
+      <c r="B8" s="65">
+        <v>41982</v>
+      </c>
+      <c r="C8" s="61">
+        <v>2630.75</v>
+      </c>
+      <c r="D8" s="61">
+        <v>2639.25</v>
+      </c>
+      <c r="E8" s="62">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="F8" s="61">
+        <v>2592</v>
+      </c>
+      <c r="G8" s="62">
+        <v>10</v>
+      </c>
+      <c r="H8" s="63">
+        <v>2594.25</v>
+      </c>
+      <c r="I8" s="64"/>
+      <c r="J8" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="61" t="s">
+        <v>233</v>
+      </c>
+      <c r="M8" s="61" t="s">
+        <v>232</v>
+      </c>
+      <c r="N8" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="61">
+        <v>1</v>
+      </c>
+      <c r="S8" s="61">
+        <v>2691.75</v>
+      </c>
+      <c r="T8" s="61">
+        <v>2632.75</v>
+      </c>
+      <c r="U8" s="61">
+        <v>2623.25</v>
+      </c>
+      <c r="V8" s="61">
+        <v>2709.75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" s="57" customFormat="1">
+      <c r="B9" s="56">
+        <v>41979</v>
+      </c>
+      <c r="C9" s="57">
+        <v>2691.75</v>
+      </c>
+      <c r="D9" s="57">
+        <v>2709.75</v>
+      </c>
+      <c r="E9" s="58">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="F9" s="57">
+        <v>2667.5</v>
+      </c>
+      <c r="G9" s="58">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="H9" s="59">
+        <v>2679.75</v>
+      </c>
+      <c r="I9" s="60">
+        <v>568320</v>
+      </c>
+      <c r="J9" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="N9" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="57">
+        <v>1</v>
+      </c>
+      <c r="S9" s="57">
+        <v>2656.75</v>
+      </c>
+      <c r="T9" s="57">
+        <v>2691.5</v>
+      </c>
+      <c r="U9" s="57">
+        <v>2699.25</v>
+      </c>
+      <c r="V9" s="57">
+        <v>2621.25</v>
+      </c>
+      <c r="X9" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" s="57" customFormat="1">
+      <c r="B10" s="56">
+        <v>41978</v>
+      </c>
+      <c r="C10" s="57">
+        <v>2656.75</v>
+      </c>
+      <c r="D10" s="57">
+        <v>2669.25</v>
+      </c>
+      <c r="E10" s="58">
+        <v>0.36041666666666666</v>
+      </c>
+      <c r="F10" s="57">
+        <v>2637.75</v>
+      </c>
+      <c r="G10" s="58">
+        <v>0.41597222222222219</v>
+      </c>
+      <c r="H10" s="59">
+        <v>2640</v>
+      </c>
+      <c r="I10" s="60">
+        <v>844630</v>
+      </c>
+      <c r="J10" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="N10" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q10" s="57">
+        <v>8</v>
+      </c>
+      <c r="S10" s="57">
+        <v>2782.25</v>
+      </c>
+      <c r="T10" s="57">
+        <v>2702</v>
+      </c>
+      <c r="U10" s="57">
+        <v>2787.25</v>
+      </c>
+      <c r="V10" s="57">
+        <v>2697.25</v>
+      </c>
+      <c r="X10" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" s="57" customFormat="1">
+      <c r="B11" s="56">
+        <v>41976</v>
+      </c>
+      <c r="C11" s="57">
+        <v>2782.25</v>
+      </c>
+      <c r="D11" s="57">
+        <v>2787.25</v>
+      </c>
+      <c r="E11" s="58">
+        <v>0.36041666666666666</v>
+      </c>
+      <c r="F11" s="57">
+        <v>2769.5</v>
+      </c>
+      <c r="G11" s="58">
+        <v>0.39444444444444443</v>
+      </c>
+      <c r="H11" s="59">
+        <v>2770.75</v>
+      </c>
+      <c r="I11" s="60">
+        <v>430990</v>
+      </c>
+      <c r="J11" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="N11" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="57">
+        <v>3</v>
+      </c>
+      <c r="S11" s="57">
+        <v>2801</v>
+      </c>
+      <c r="T11" s="57">
+        <v>2791</v>
+      </c>
+      <c r="U11" s="57">
+        <v>2802.5</v>
+      </c>
+      <c r="V11" s="57">
+        <v>2773.5</v>
+      </c>
+      <c r="X11" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" s="57" customFormat="1">
+      <c r="B12" s="56">
+        <v>41975</v>
+      </c>
+      <c r="C12" s="57">
+        <v>2801</v>
+      </c>
+      <c r="D12" s="57">
+        <v>2802.5</v>
+      </c>
+      <c r="E12" s="58">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F12" s="57">
+        <v>2778.75</v>
+      </c>
+      <c r="G12" s="58">
+        <v>0.41597222222222219</v>
+      </c>
+      <c r="H12" s="59">
+        <v>2780.25</v>
+      </c>
+      <c r="I12" s="60">
+        <v>560150</v>
+      </c>
+      <c r="J12" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="N12" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q12" s="57">
+        <v>0</v>
+      </c>
+      <c r="S12" s="57">
+        <v>2736.5</v>
+      </c>
+      <c r="T12" s="57">
+        <v>2764.25</v>
+      </c>
+      <c r="U12" s="57">
+        <v>2764.75</v>
+      </c>
+      <c r="V12" s="57">
+        <v>2733.25</v>
+      </c>
+      <c r="X12" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" s="42" customFormat="1">
+      <c r="B13" s="45">
+        <v>41972</v>
+      </c>
+      <c r="C13" s="42">
+        <v>2736.75</v>
+      </c>
+      <c r="D13" s="42">
+        <v>2748.5</v>
+      </c>
+      <c r="E13" s="43">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="F13" s="42">
+        <v>2733.25</v>
+      </c>
+      <c r="G13" s="43">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="H13" s="48">
+        <v>2743.25</v>
+      </c>
+      <c r="I13" s="44">
+        <f>118809+76278+97024</f>
+        <v>292111</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="L13" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="N13" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="P13" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="42">
+        <v>5</v>
+      </c>
+      <c r="S13" s="42">
+        <v>2736.25</v>
+      </c>
+      <c r="T13" s="42">
+        <v>2744</v>
+      </c>
+      <c r="U13" s="42">
+        <v>2754.5</v>
+      </c>
+      <c r="V13" s="42">
+        <v>2723.25</v>
+      </c>
+      <c r="X13" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" s="42" customFormat="1">
+      <c r="B14" s="45">
+        <v>41971</v>
+      </c>
+      <c r="C14" s="42">
+        <v>2736.25</v>
+      </c>
+      <c r="D14" s="42">
+        <v>2740</v>
+      </c>
+      <c r="E14" s="43">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F14" s="42">
+        <v>2723.25</v>
+      </c>
+      <c r="G14" s="43">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="H14" s="48">
+        <v>2726.75</v>
+      </c>
+      <c r="I14" s="44">
+        <f>160127+111404+188823</f>
+        <v>460354</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="P14" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="42">
+        <v>8</v>
+      </c>
+      <c r="S14" s="42">
+        <v>2695.25</v>
+      </c>
+      <c r="T14" s="42">
+        <v>2742.25</v>
+      </c>
+      <c r="U14" s="42">
+        <v>2745</v>
+      </c>
+      <c r="V14" s="42">
+        <v>2684.25</v>
+      </c>
+      <c r="X14" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" s="42" customFormat="1">
+      <c r="B15" s="45">
+        <v>41970</v>
+      </c>
+      <c r="C15" s="42">
+        <v>2695.25</v>
+      </c>
+      <c r="D15" s="42">
+        <v>2698</v>
+      </c>
+      <c r="E15" s="43">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="F15" s="42">
+        <v>2684.25</v>
+      </c>
+      <c r="G15" s="43">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="H15" s="48">
+        <v>2688.5</v>
+      </c>
+      <c r="I15" s="44">
+        <f>159010+95510+92123</f>
+        <v>346643</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="P15" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15" s="42">
+        <v>5</v>
+      </c>
+      <c r="S15" s="42">
+        <v>2662.25</v>
+      </c>
+      <c r="T15" s="42">
+        <v>2684</v>
+      </c>
+      <c r="U15" s="42">
+        <v>2684</v>
+      </c>
+      <c r="V15" s="42">
+        <v>2655.25</v>
+      </c>
+      <c r="X15" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" s="39" customFormat="1">
+      <c r="B16" s="38">
+        <v>41969</v>
+      </c>
+      <c r="C16" s="39">
+        <v>2662.25</v>
+      </c>
+      <c r="D16" s="39">
+        <v>2677.5</v>
+      </c>
+      <c r="E16" s="40">
+        <v>0.41388888888888892</v>
+      </c>
+      <c r="F16" s="39">
+        <v>2655.25</v>
+      </c>
+      <c r="G16" s="40">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="H16" s="49">
+        <v>2673.5</v>
+      </c>
+      <c r="I16" s="41">
+        <f>196153+148338+97756</f>
+        <v>442247</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="42"/>
+      <c r="N16" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="39">
+        <v>4</v>
+      </c>
+      <c r="S16" s="39">
+        <v>2657.25</v>
+      </c>
+      <c r="T16" s="39">
+        <v>2673.75</v>
+      </c>
+      <c r="U16" s="39">
+        <v>2674</v>
+      </c>
+      <c r="V16" s="39">
+        <v>2652.5</v>
+      </c>
+      <c r="X16" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" s="39" customFormat="1">
+      <c r="B17" s="38">
+        <v>41968</v>
+      </c>
+      <c r="C17" s="39">
+        <v>2657.25</v>
+      </c>
+      <c r="D17" s="39">
+        <v>2671.75</v>
+      </c>
+      <c r="E17" s="40">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="F17" s="39">
+        <v>2655.75</v>
+      </c>
+      <c r="G17" s="40">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="H17" s="49">
+        <v>2669.5</v>
+      </c>
+      <c r="I17" s="41">
+        <f>184014+107461+100758</f>
+        <v>392233</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="J1" t="s">
-        <v>148</v>
-      </c>
-      <c r="N1" t="s">
-        <v>154</v>
-      </c>
-      <c r="P1" t="s">
-        <v>116</v>
-      </c>
-      <c r="U1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="2:25">
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>113</v>
-      </c>
-      <c r="M2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:25">
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="N17" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="L3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="P17" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q17" s="39">
         <v>1</v>
       </c>
-      <c r="P3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:25">
-      <c r="B4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="S17" s="39">
+        <v>2631</v>
+      </c>
+      <c r="T17" s="39">
+        <v>2628.5</v>
+      </c>
+      <c r="U17" s="39">
+        <v>2647.5</v>
+      </c>
+      <c r="V17" s="39">
+        <v>2628.5</v>
+      </c>
+      <c r="X17" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" s="39" customFormat="1">
+      <c r="B18" s="38">
+        <v>41965</v>
+      </c>
+      <c r="C18" s="39">
+        <v>2631</v>
+      </c>
+      <c r="D18" s="39">
+        <v>2643.5</v>
+      </c>
+      <c r="E18" s="40">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="F18" s="39">
+        <v>2630</v>
+      </c>
+      <c r="G18" s="40">
+        <v>0.35486111111111113</v>
+      </c>
+      <c r="H18" s="49">
+        <v>2641</v>
+      </c>
+      <c r="I18" s="41">
+        <f>127734+69625+60016</f>
+        <v>257375</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>150</v>
-      </c>
-      <c r="J4" t="s">
-        <v>147</v>
-      </c>
-      <c r="K4" t="s">
-        <v>152</v>
-      </c>
-      <c r="L4" t="s">
-        <v>115</v>
-      </c>
-      <c r="M4" t="s">
-        <v>95</v>
-      </c>
-      <c r="P4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V4" t="s">
-        <v>63</v>
-      </c>
-      <c r="W4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:25" s="10" customFormat="1">
-      <c r="B5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25" s="39" customFormat="1">
-      <c r="B6" s="38">
-        <v>41969</v>
-      </c>
-      <c r="E6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-      <c r="K6" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="39">
-        <v>2657.25</v>
-      </c>
-      <c r="Q6" s="39">
-        <v>2673.75</v>
-      </c>
-      <c r="R6" s="39">
-        <v>2674</v>
-      </c>
-      <c r="S6" s="39">
-        <v>2652.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:25" s="39" customFormat="1">
-      <c r="B7" s="38">
-        <v>41968</v>
-      </c>
-      <c r="C7" s="39">
-        <v>2657.25</v>
-      </c>
-      <c r="D7" s="39">
-        <v>2671.75</v>
-      </c>
-      <c r="E7" s="40">
-        <v>0.37638888888888888</v>
-      </c>
-      <c r="F7" s="39">
-        <v>2655.75</v>
-      </c>
-      <c r="G7" s="40">
-        <v>0.35833333333333334</v>
-      </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="N7" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25" s="39" customFormat="1">
-      <c r="B8" s="38">
-        <v>41965</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-    </row>
-    <row r="9" spans="2:25" s="34" customFormat="1">
-      <c r="B9" s="37">
+      <c r="N18" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="39">
+        <v>0</v>
+      </c>
+      <c r="S18" s="39">
+        <v>2658.25</v>
+      </c>
+      <c r="T18" s="39">
+        <v>2648.25</v>
+      </c>
+      <c r="U18" s="39">
+        <v>2671.25</v>
+      </c>
+      <c r="V18" s="39">
+        <v>2647.75</v>
+      </c>
+      <c r="X18" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" s="34" customFormat="1">
+      <c r="B19" s="37">
         <v>41963</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C19" s="34">
         <v>2658.25</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="P9" s="34">
+      <c r="D19" s="34">
+        <v>2666.25</v>
+      </c>
+      <c r="E19" s="35">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="F19" s="34">
+        <v>2651</v>
+      </c>
+      <c r="G19" s="35">
+        <v>0.36874999999999997</v>
+      </c>
+      <c r="H19" s="50">
+        <v>2661.5</v>
+      </c>
+      <c r="I19" s="36">
+        <f>196558+139920+91693</f>
+        <v>428171</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="N19" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="P19" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q19" s="34">
+        <v>4</v>
+      </c>
+      <c r="S19" s="34">
         <v>2654.25</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="T19" s="34">
         <v>2640.5</v>
       </c>
-      <c r="R9" s="34">
+      <c r="U19" s="34">
         <v>2670.75</v>
       </c>
-      <c r="S9" s="34">
+      <c r="V19" s="34">
         <v>2631.75</v>
       </c>
-      <c r="U9" s="34">
-        <v>0</v>
-      </c>
-      <c r="V9" s="34">
-        <v>0</v>
-      </c>
-      <c r="W9" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:25" s="34" customFormat="1">
-      <c r="B10" s="37">
+      <c r="X19" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" s="34" customFormat="1">
+      <c r="B20" s="37">
         <v>41962</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C20" s="34">
         <v>2654.25</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D20" s="34">
         <v>2668.5</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E20" s="35">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F20" s="34">
         <v>2633.75</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G20" s="35">
         <v>0.38541666666666669</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H20" s="50"/>
+      <c r="I20" s="36">
         <f>343512+261169+213682</f>
         <v>818363</v>
       </c>
-      <c r="I10" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="K10" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="N10" s="34">
+      <c r="J20" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="N20" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="P20" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="34">
         <v>2</v>
       </c>
-      <c r="P10" s="34">
+      <c r="S20" s="34">
         <v>2731.25</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="T20" s="34">
         <v>2696.5</v>
       </c>
-      <c r="R10" s="34">
+      <c r="U20" s="34">
         <v>2734.75</v>
       </c>
-      <c r="S10" s="34">
+      <c r="V20" s="34">
         <v>2681.5</v>
       </c>
-      <c r="U10" s="34">
+      <c r="X20" s="34">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:25" s="34" customFormat="1">
-      <c r="B11" s="37">
+      <c r="Y20" s="34">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" s="34" customFormat="1">
+      <c r="B21" s="37">
         <v>41961</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C21" s="34">
         <v>2731.25</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D21" s="34">
         <v>2734.75</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E21" s="35">
         <v>0.36249999999999999</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F21" s="34">
         <v>2706.5</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G21" s="35">
         <v>0.39861111111111108</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H21" s="50"/>
+      <c r="I21" s="36">
         <f>179713+150728+131896</f>
         <v>462337</v>
       </c>
-      <c r="I11" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="K11" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="M11" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="N11" s="34">
+      <c r="J21" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="N21" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="P21" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="34">
         <v>3</v>
       </c>
-      <c r="P11" s="34">
+      <c r="S21" s="34">
         <v>2719</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="T21" s="34">
         <v>2742.5</v>
       </c>
-      <c r="R11" s="34">
+      <c r="U21" s="34">
         <v>2748.75</v>
       </c>
-      <c r="S11" s="34">
+      <c r="V21" s="34">
         <v>2713.25</v>
       </c>
-      <c r="U11" s="34">
-        <v>0</v>
-      </c>
-      <c r="V11" s="34">
-        <v>0</v>
-      </c>
-      <c r="W11" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:25" s="30" customFormat="1">
-      <c r="B12" s="33">
+      <c r="X21" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" s="30" customFormat="1">
+      <c r="B22" s="33">
         <v>41958</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C22" s="30">
         <v>2719</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D22" s="30">
         <v>2740.5</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E22" s="31">
         <v>0.40069444444444446</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F22" s="30">
         <v>2713.25</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G22" s="31">
         <v>0.35902777777777778</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H22" s="51"/>
+      <c r="I22" s="32">
         <v>454610</v>
       </c>
-      <c r="I12" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="M12" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="N12" s="30">
+      <c r="J22" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="M22" s="34"/>
+      <c r="N22" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q22" s="30">
         <v>2</v>
       </c>
-      <c r="P12" s="30">
+      <c r="S22" s="30">
         <v>2689</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="T22" s="30">
         <v>2730</v>
       </c>
-      <c r="R12" s="30">
+      <c r="U22" s="30">
         <v>2736.75</v>
       </c>
-      <c r="S12" s="30">
+      <c r="V22" s="30">
         <v>2671.25</v>
       </c>
-      <c r="U12" s="30">
-        <v>0</v>
-      </c>
-      <c r="V12" s="30">
-        <v>0</v>
-      </c>
-      <c r="W12" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:25" s="26" customFormat="1">
-      <c r="B13" s="29">
+      <c r="X22" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" s="26" customFormat="1">
+      <c r="B23" s="29">
         <v>41957</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C23" s="26">
         <v>2689</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D23" s="26">
         <v>2698</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E23" s="27">
         <v>0.36736111111111108</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F23" s="26">
         <v>2671.25</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G23" s="27">
         <v>0.40069444444444446</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H23" s="52"/>
+      <c r="I23" s="28">
         <v>605576</v>
       </c>
-      <c r="I13" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="M13" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="N13" s="26">
+      <c r="J23" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q23" s="26">
         <v>5</v>
       </c>
-      <c r="P13" s="26">
+      <c r="S23" s="26">
         <v>2743.75</v>
       </c>
-      <c r="Q13" s="26">
+      <c r="T23" s="26">
         <v>2703</v>
       </c>
-      <c r="R13" s="26">
+      <c r="U23" s="26">
         <v>2748.25</v>
       </c>
-      <c r="S13" s="26">
+      <c r="V23" s="26">
         <v>2686.25</v>
       </c>
-      <c r="U13" s="26">
-        <v>0</v>
-      </c>
-      <c r="V13" s="26">
-        <v>0</v>
-      </c>
-      <c r="W13" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:25" s="22" customFormat="1">
-      <c r="B14" s="25">
+      <c r="X23" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" s="22" customFormat="1">
+      <c r="B24" s="25">
         <v>41956</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C24" s="22">
         <v>2743.75</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D24" s="22">
         <v>2748.25</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E24" s="23">
         <v>0.36458333333333331</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F24" s="22">
         <v>2722.5</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G24" s="23">
         <v>0.41111111111111115</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H24" s="53"/>
+      <c r="I24" s="24">
         <v>460681</v>
       </c>
-      <c r="I14" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="N14" s="22">
+      <c r="J24" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="22">
         <v>4</v>
       </c>
-      <c r="P14" s="22">
+      <c r="S24" s="22">
         <v>2733.25</v>
       </c>
-      <c r="Q14" s="22">
+      <c r="T24" s="22">
         <v>2727.5</v>
       </c>
-      <c r="R14" s="22">
+      <c r="U24" s="22">
         <v>2755.75</v>
       </c>
-      <c r="S14" s="22">
+      <c r="V24" s="22">
         <v>2714.5</v>
       </c>
-      <c r="U14" s="22">
-        <v>0</v>
-      </c>
-      <c r="V14" s="22">
-        <v>0</v>
-      </c>
-      <c r="W14" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:25" s="18" customFormat="1">
-      <c r="B15" s="21">
+      <c r="X24" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" s="18" customFormat="1">
+      <c r="B25" s="21">
         <v>41955</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C25" s="18">
         <v>2733.25</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D25" s="18">
         <v>2744</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E25" s="19">
         <v>0.3666666666666667</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F25" s="18">
         <v>2719.5</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G25" s="19">
         <v>0.3972222222222222</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H25" s="54"/>
+      <c r="I25" s="20">
         <v>546403</v>
       </c>
-      <c r="I15" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="N15" s="18">
+      <c r="J25" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="N25" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="P25" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q25" s="18">
         <v>6</v>
       </c>
-      <c r="P15" s="18">
+      <c r="S25" s="18">
         <v>2774.25</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="T25" s="18">
         <v>2728.75</v>
       </c>
-      <c r="R15" s="18">
+      <c r="U25" s="18">
         <v>2777.5</v>
       </c>
-      <c r="S15" s="18">
+      <c r="V25" s="18">
         <v>2722.25</v>
       </c>
-      <c r="U15" s="18">
+      <c r="X25" s="18">
         <v>6</v>
       </c>
-      <c r="V15" s="18">
+      <c r="Y25" s="18">
         <v>-17.25</v>
       </c>
-      <c r="W15" s="18">
+      <c r="Z25" s="18">
         <v>-862</v>
       </c>
     </row>
-    <row r="16" spans="2:25" s="14" customFormat="1">
-      <c r="B16" s="13">
+    <row r="26" spans="2:28" s="14" customFormat="1">
+      <c r="B26" s="13">
         <v>41954</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C26" s="14">
         <v>2774.25</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D26" s="14">
         <v>2777.5</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E26" s="15">
         <v>0.35486111111111113</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F26" s="14">
         <v>2745.5</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G26" s="15">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H26" s="55"/>
+      <c r="I26" s="16">
         <v>448339</v>
       </c>
-      <c r="I16" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="N16" s="14">
-        <v>0</v>
-      </c>
-      <c r="P16" s="14">
+      <c r="J26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>0</v>
+      </c>
+      <c r="S26" s="14">
         <v>2793</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="T26" s="14">
         <v>2779.75</v>
       </c>
-      <c r="R16" s="14">
+      <c r="U26" s="14">
         <v>2795.25</v>
       </c>
-      <c r="S16" s="14">
+      <c r="V26" s="14">
         <v>2764.5</v>
       </c>
-      <c r="U16" s="14">
+      <c r="X26" s="14">
         <v>8</v>
       </c>
-      <c r="V16" s="14">
+      <c r="Y26" s="14">
         <v>-5.25</v>
       </c>
-      <c r="W16" s="14">
+      <c r="Z26" s="14">
         <v>-262.5</v>
       </c>
-      <c r="Y16" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="2:25">
-      <c r="B17" s="2">
+      <c r="AB26" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28">
+      <c r="B27" s="2">
         <v>41951</v>
       </c>
-      <c r="C17">
+      <c r="C27">
         <v>2793</v>
       </c>
-      <c r="D17">
+      <c r="D27">
         <v>2795.25</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E27" s="9">
         <v>0.35555555555555557</v>
       </c>
-      <c r="F17">
+      <c r="F27">
         <v>2777.25</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G27" s="9">
         <v>0.41944444444444445</v>
       </c>
-      <c r="H17" s="5">
+      <c r="I27" s="5">
         <v>404717</v>
       </c>
-      <c r="I17" t="s">
-        <v>187</v>
-      </c>
-      <c r="J17" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" t="s">
-        <v>91</v>
-      </c>
-      <c r="M17" t="s">
-        <v>92</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="P17">
+      <c r="J27" t="s">
+        <v>176</v>
+      </c>
+      <c r="L27" t="s">
+        <v>52</v>
+      </c>
+      <c r="N27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>2804.75</v>
       </c>
-      <c r="Q17">
+      <c r="T27">
         <v>2809.25</v>
       </c>
-      <c r="R17">
+      <c r="U27">
         <v>2815.25</v>
       </c>
-      <c r="S17">
+      <c r="V27">
         <v>2795</v>
       </c>
-      <c r="U17">
+      <c r="X27">
         <v>8</v>
       </c>
-      <c r="V17">
+      <c r="Y27">
         <v>-2</v>
       </c>
-      <c r="W17">
+      <c r="Z27">
         <v>-100</v>
       </c>
-      <c r="Y17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="2:25">
-      <c r="B18" s="2">
+      <c r="AB27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28">
+      <c r="B28" s="2">
         <v>41950</v>
       </c>
-      <c r="C18">
+      <c r="C28">
         <v>2804.75</v>
       </c>
-      <c r="D18">
+      <c r="D28">
         <v>2813.25</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E28" s="9">
         <v>0.37152777777777773</v>
       </c>
-      <c r="F18">
+      <c r="F28">
         <v>2804.5</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G28" s="9">
         <v>0.38680555555555557</v>
       </c>
-      <c r="H18" s="5">
+      <c r="I28" s="5">
         <v>321469</v>
       </c>
-      <c r="I18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" t="s">
-        <v>177</v>
-      </c>
-      <c r="K18" t="s">
-        <v>178</v>
-      </c>
-      <c r="M18" t="s">
-        <v>62</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="P18">
+      <c r="J28" t="s">
+        <v>88</v>
+      </c>
+      <c r="L28" t="s">
+        <v>166</v>
+      </c>
+      <c r="N28" t="s">
+        <v>167</v>
+      </c>
+      <c r="P28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="S28">
         <v>2779</v>
       </c>
-      <c r="Q18">
+      <c r="T28">
         <v>2814</v>
       </c>
-      <c r="R18">
+      <c r="U28">
         <v>2815</v>
       </c>
-      <c r="S18">
+      <c r="V28">
         <v>2774.25</v>
       </c>
-      <c r="U18">
+      <c r="X28">
         <v>2</v>
       </c>
-      <c r="V18">
+      <c r="Y28">
         <v>-5</v>
       </c>
-      <c r="W18">
+      <c r="Z28">
         <v>-250</v>
       </c>
-      <c r="Y18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="2:25">
-      <c r="B19" s="2">
+      <c r="AB28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28">
+      <c r="B29" s="2">
         <v>41949</v>
       </c>
-      <c r="C19">
+      <c r="C29">
         <v>2779</v>
       </c>
-      <c r="D19">
+      <c r="D29">
         <v>2792</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E29" s="9">
         <v>0.41250000000000003</v>
       </c>
-      <c r="F19">
+      <c r="F29">
         <v>2774.25</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G29" s="9">
         <v>0.37847222222222227</v>
       </c>
-      <c r="H19" s="5">
+      <c r="I29" s="5">
         <v>354715</v>
       </c>
-      <c r="I19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" t="s">
-        <v>54</v>
-      </c>
-      <c r="M19" t="s">
-        <v>100</v>
-      </c>
-      <c r="N19">
+      <c r="J29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q29">
         <v>2</v>
       </c>
-      <c r="P19">
+      <c r="S29">
         <v>2736.75</v>
       </c>
-      <c r="Q19">
+      <c r="T29">
         <v>2756</v>
       </c>
-      <c r="R19">
+      <c r="U29">
         <v>2756</v>
       </c>
-      <c r="S19">
+      <c r="V29">
         <v>2736.75</v>
       </c>
-      <c r="U19">
+      <c r="X29">
         <v>11</v>
       </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:25">
-      <c r="B20" s="2">
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28">
+      <c r="B30" s="2">
         <v>41948</v>
       </c>
-      <c r="C20">
+      <c r="C30">
         <v>2736.75</v>
       </c>
-      <c r="D20">
+      <c r="D30">
         <v>2751.75</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E30" s="9">
         <v>0.37361111111111112</v>
       </c>
-      <c r="F20">
+      <c r="F30">
         <v>2736.75</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G30" s="9">
         <v>0.35416666666666669</v>
       </c>
-      <c r="H20" s="5">
+      <c r="I30" s="5">
         <v>354715</v>
       </c>
-      <c r="I20" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="J30" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" t="s">
+        <v>78</v>
+      </c>
+      <c r="N30" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>2727.5</v>
+      </c>
+      <c r="T30">
+        <v>2740.25</v>
+      </c>
+      <c r="U30">
+        <v>2743.75</v>
+      </c>
+      <c r="V30">
+        <v>2717</v>
+      </c>
+      <c r="X30">
+        <v>10</v>
+      </c>
+      <c r="Y30">
+        <v>-12.5</v>
+      </c>
+      <c r="Z30">
+        <v>-625</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28">
+      <c r="B31" s="2">
+        <v>41947</v>
+      </c>
+      <c r="C31">
+        <v>2727.5</v>
+      </c>
+      <c r="D31">
+        <v>2733.25</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="F31">
+        <v>2717</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="I31" s="5">
+        <v>377277</v>
+      </c>
+      <c r="J31" t="s">
+        <v>190</v>
+      </c>
+      <c r="L31" t="s">
         <v>6</v>
       </c>
-      <c r="M20" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>2727.5</v>
-      </c>
-      <c r="Q20">
-        <v>2740.25</v>
-      </c>
-      <c r="R20">
-        <v>2743.75</v>
-      </c>
-      <c r="S20">
-        <v>2717</v>
-      </c>
-      <c r="U20">
+      <c r="N31" t="s">
+        <v>193</v>
+      </c>
+      <c r="P31" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>192</v>
+      </c>
+      <c r="S31">
+        <v>2751.5</v>
+      </c>
+      <c r="T31">
+        <v>2722.75</v>
+      </c>
+      <c r="U31">
+        <v>2756.5</v>
+      </c>
+      <c r="V31">
+        <v>2699.5</v>
+      </c>
+      <c r="X31">
+        <v>2</v>
+      </c>
+      <c r="Y31">
+        <v>10.25</v>
+      </c>
+      <c r="Z31">
+        <v>512.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28">
+      <c r="B32" s="2">
+        <v>41944</v>
+      </c>
+      <c r="C32">
+        <v>2751.5</v>
+      </c>
+      <c r="D32">
+        <v>2756.5</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="F32">
+        <v>2721.75</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="I32" s="5">
+        <v>566727</v>
+      </c>
+      <c r="J32" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" t="s">
+        <v>6</v>
+      </c>
+      <c r="N32" t="s">
+        <v>9</v>
+      </c>
+      <c r="P32" t="s">
         <v>10</v>
       </c>
-      <c r="V20">
-        <v>-12.5</v>
-      </c>
-      <c r="W20">
-        <v>-625</v>
-      </c>
-    </row>
-    <row r="21" spans="2:25">
-      <c r="B21" s="2">
-        <v>41947</v>
-      </c>
-      <c r="C21">
-        <v>2727.5</v>
-      </c>
-      <c r="D21">
-        <v>2733.25</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0.35833333333333334</v>
-      </c>
-      <c r="F21">
-        <v>2717</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0.39097222222222222</v>
-      </c>
-      <c r="H21" s="5">
-        <v>377277</v>
-      </c>
-      <c r="I21" t="s">
-        <v>109</v>
-      </c>
-      <c r="J21" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" t="s">
-        <v>112</v>
-      </c>
-      <c r="M21" t="s">
-        <v>110</v>
-      </c>
-      <c r="N21" t="s">
-        <v>111</v>
-      </c>
-      <c r="P21">
-        <v>2751.5</v>
-      </c>
-      <c r="Q21">
-        <v>2722.75</v>
-      </c>
-      <c r="R21">
-        <v>2756.5</v>
-      </c>
-      <c r="S21">
-        <v>2699.5</v>
-      </c>
-      <c r="U21">
+      <c r="Q32">
         <v>2</v>
       </c>
-      <c r="V21">
-        <v>10.25</v>
-      </c>
-      <c r="W21">
-        <v>512.5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:25">
-      <c r="B22" s="2">
-        <v>41944</v>
-      </c>
-      <c r="C22">
-        <v>2751.5</v>
-      </c>
-      <c r="D22">
-        <v>2756.5</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0.36388888888888887</v>
-      </c>
-      <c r="F22">
-        <v>2721.75</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0.40277777777777773</v>
-      </c>
-      <c r="H22" s="5">
-        <v>566727</v>
-      </c>
-      <c r="I22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K22" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" t="s">
-        <v>40</v>
-      </c>
-      <c r="N22">
-        <v>2</v>
-      </c>
-      <c r="P22">
+      <c r="S32">
         <v>2706</v>
       </c>
-      <c r="Q22">
+      <c r="T32">
         <v>2738</v>
       </c>
-      <c r="R22">
+      <c r="U32">
         <v>2741.25</v>
       </c>
-      <c r="S22">
+      <c r="V32">
         <v>2705.5</v>
       </c>
-      <c r="W22">
+      <c r="Z32">
         <v>-1759</v>
       </c>
-      <c r="Y22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="2:25">
-      <c r="B23" s="2">
+      <c r="AB32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26">
+      <c r="B33" s="2">
         <v>41943</v>
       </c>
-      <c r="C23">
+      <c r="C33">
         <v>2720.5</v>
       </c>
-      <c r="D23">
+      <c r="D33">
         <v>2732.25</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E33" s="9">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F23">
+      <c r="F33">
         <v>2707.75</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G33" s="9">
         <v>0.38055555555555554</v>
       </c>
-      <c r="H23" s="5">
+      <c r="I33" s="5">
         <v>567516</v>
       </c>
-      <c r="I23" t="s">
-        <v>41</v>
-      </c>
-      <c r="J23" t="s">
-        <v>96</v>
-      </c>
-      <c r="K23" t="s">
-        <v>144</v>
-      </c>
-      <c r="M23" t="s">
-        <v>95</v>
-      </c>
-      <c r="N23">
+      <c r="J33" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" t="s">
+        <v>58</v>
+      </c>
+      <c r="N33" t="s">
+        <v>211</v>
+      </c>
+      <c r="P33" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33">
         <v>6</v>
       </c>
-      <c r="P23">
+      <c r="S33">
         <v>2710.5</v>
       </c>
-      <c r="Q23">
+      <c r="T33">
         <v>2709.75</v>
       </c>
-      <c r="R23">
+      <c r="U33">
         <v>2736.5</v>
       </c>
-      <c r="S23">
+      <c r="V33">
         <v>2704.75</v>
       </c>
-      <c r="W23">
+      <c r="Z33">
         <v>-391</v>
       </c>
     </row>
-    <row r="24" spans="2:25">
-      <c r="B24" s="2">
+    <row r="34" spans="2:26">
+      <c r="B34" s="2">
         <v>41942</v>
       </c>
-      <c r="C24">
+      <c r="C34">
         <v>2711.75</v>
       </c>
-      <c r="D24">
+      <c r="D34">
         <v>2729.25</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E34" s="9">
         <v>0.39930555555555558</v>
       </c>
-      <c r="F24">
+      <c r="F34">
         <v>2706.25</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G34" s="9">
         <v>0.3576388888888889</v>
       </c>
-      <c r="H24" s="5">
+      <c r="I34" s="5">
         <v>517819</v>
       </c>
-      <c r="I24" t="s">
-        <v>180</v>
-      </c>
-      <c r="J24" t="s">
-        <v>179</v>
-      </c>
-      <c r="K24" t="s">
-        <v>182</v>
-      </c>
-      <c r="M24" t="s">
-        <v>183</v>
-      </c>
-      <c r="N24">
+      <c r="J34" t="s">
+        <v>169</v>
+      </c>
+      <c r="L34" t="s">
+        <v>168</v>
+      </c>
+      <c r="N34" t="s">
+        <v>171</v>
+      </c>
+      <c r="P34" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q34">
         <v>1</v>
       </c>
-      <c r="P24">
+      <c r="S34">
         <v>2641.25</v>
       </c>
-      <c r="Q24">
+      <c r="T34">
         <v>2683.5</v>
       </c>
-      <c r="R24">
+      <c r="U34">
         <v>2683.5</v>
       </c>
-      <c r="S24">
+      <c r="V34">
         <v>2635.75</v>
       </c>
     </row>
-    <row r="25" spans="2:25">
-      <c r="B25" s="2">
+    <row r="35" spans="2:26">
+      <c r="B35" s="2">
         <v>41941</v>
       </c>
-      <c r="C25">
+      <c r="C35">
         <v>2641.25</v>
       </c>
-      <c r="D25">
+      <c r="D35">
         <v>2675.25</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E35" s="9">
         <v>0.37152777777777773</v>
       </c>
-      <c r="F25">
+      <c r="F35">
         <v>2635.75</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G35" s="9">
         <v>0.35416666666666669</v>
       </c>
-      <c r="H25" s="5">
+      <c r="I35" s="5">
         <v>650925</v>
       </c>
-      <c r="I25" t="s">
-        <v>180</v>
-      </c>
-      <c r="J25" t="s">
-        <v>181</v>
-      </c>
-      <c r="K25" t="s">
-        <v>184</v>
-      </c>
-      <c r="M25" t="s">
-        <v>185</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="P25">
+      <c r="J35" t="s">
+        <v>169</v>
+      </c>
+      <c r="L35" t="s">
+        <v>170</v>
+      </c>
+      <c r="N35" t="s">
+        <v>173</v>
+      </c>
+      <c r="P35" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="S35">
         <v>2692.25</v>
       </c>
-      <c r="Q25">
+      <c r="T35">
         <v>2638.75</v>
       </c>
-      <c r="R25">
+      <c r="U35">
         <v>2707</v>
       </c>
-      <c r="S25">
+      <c r="V35">
         <v>2603</v>
       </c>
-      <c r="W25">
+      <c r="Z35">
         <v>1211</v>
       </c>
     </row>
-    <row r="26" spans="2:25">
-      <c r="W26">
+    <row r="36" spans="2:26">
+      <c r="Z36">
         <v>-770</v>
       </c>
     </row>
-    <row r="29" spans="2:25">
-      <c r="W29">
-        <f>SUM(W12:W26)</f>
-        <v>-3296</v>
+    <row r="39" spans="2:26">
+      <c r="Z39">
+        <f>SUM(Z13:Z36)</f>
+        <v>-3096</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -3868,7 +4852,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData/>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/TradingTheOpen.xlsx
+++ b/TradingTheOpen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="100" windowWidth="24600" windowHeight="10780" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="340" yWindow="-420" windowWidth="24600" windowHeight="10780" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TradeHistory" sheetId="1" r:id="rId1"/>
@@ -24,934 +24,998 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="250">
+  <si>
+    <t>Trend</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD Trend</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Trades</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profit/Loss Points</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profit/Loss Dollars</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>On open-test-drive days, how soon is the test completed, mean and std dev</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Down</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trend</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Down</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up,</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell To Close</t>
+  </si>
+  <si>
+    <t>ESZ18 - E Mini S&amp;P 500 December 2018</t>
+  </si>
+  <si>
+    <t>Buy To Open</t>
+  </si>
+  <si>
+    <t>Buy To Close</t>
+  </si>
+  <si>
+    <t>Sell To Open</t>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qty</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commission/Fees</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todays</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-trend</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Types of Opens</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long Liquidation</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD Trend</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Gap Up</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Open-Reject-Reverse</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>No Gap</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>On open reject reverse days, how often does the reverse move follow through and the day ends at a low?</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>DD Trend</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>(8:30 Central)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Open-Test-Drive</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Gap Up</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Open-Auction</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Open-Auction</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>DD Trend</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Gap Up</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Open Low</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>On Open-Test-Drive, how soon does it bounce back, how soon does it cross back over the open, by how much does it deviate away from the open&gt;</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Open-Test-Drive</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>On open auction days, how many minutes to take direction</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>On days with a drive in the first few minutes, what type of day is that? How much does it move in first few minutes?</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Open-Test-Drive Statistics</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Open-Drive, Open-Test-Drive,</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Open-Auction</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Trend</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Total Number</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Days</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Time of test</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Average</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Val at 10</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Open at 10am</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Non-trend</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Open-Drive</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>No Gap</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>No Gap</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Open-Reject-Reverse</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Gap Up/Gap Down</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>A gap happens when</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceeds</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loss/Gain</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only take 3 trades per day, one to open, one reversal (optional), and one to close. I am going to trade for the first 1.5 hours only. This is the discipline I am going to get on for a while, and work my niche.</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-trend</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-trend</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Test-Drive</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD Trend</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Down,</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Trend</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Drive</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUMIF('S&amp;P Historical Data'!I5:I30="Open-Test-Drive",MIN('S&amp;P Historical Data'!G5:G10,'S&amp;P Historical Data'!E5:E10))</t>
+  </si>
+  <si>
+    <t>Open-Drive</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Test-Drive</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opened and traded back and forth around the open 2793. It dropped and met some resistance at 2785, lots of volume there. It dropped below to 2780 and the volume was lower. To fill the gap it would be down to 2774 but I got out at 2780 because the volume was low at 2780 and that is a point of consolidation on the trader bite. If the bottom drops out I will be wrong, but it seemed like this was the right move.</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am starting here to focus on only trading the open. I got caught up in emotional trading yesterday so I am going to drill in and focus on a more specific strategy</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Down</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossing the open</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>in first 1.5 hrs</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Number</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Drive</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>My trades</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Trades</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profit and Loss</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Volume</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30-10a</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>When opening within previous days value range, what percent of the time do previous value extremes hold?</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todays Open</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open High</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Yesterdays</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trend</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>DD Trend</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range? (Y/N)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>just kept going lower, I kept getting out too soon when I sold</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of times</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>27% of all days are neutral days, likely to break IB high and IB low (FT71)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>73% of all days are likely to only break one side of IB high or IB low</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Drive</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Test-Drive</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drift Lower</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day Type Secondary</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extreme</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>98% of time break either IB high or IB low</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Open-Auction</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Types of Days</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time of High</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market opened and traded sideways for 8 minutes. I was focused on downside and I got afraid I would miss the move. I got in too early. My plan was to get in at 2810, stop at 2817 and limit at 2795. I got in at 2806 right before the market shot up, struck too early. I did feel good however and did not over trade like I have been doing.</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Points</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dollars</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse,</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open (first 1.5 hr)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time of</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position Close</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time of Low</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Volume</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Type</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day Type</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open in Yesterdays Range</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open in Yesterdays Value</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up/Down</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of times crossing open</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous Open</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous Close</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous High</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous Low</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Test-Drive</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD Trend</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Gap Up</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Central Time</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position Open</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy/Sell</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>commission</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Type Secondary</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trend</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume when switching contracts</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>The week before the current quarter contract closes, add volume from both the next quarter and current quarter</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Down</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Auction</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drift Higher</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Neutral</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of Trades</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Profit/Loss Points</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Profit/Loss Dollars</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>On open-test-drive days, how soon is the test completed, mean and std dev</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extreme</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>A gap happens when the ES opens outside of the previous days range</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Open-Auction</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD Trend</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are the greatest range extensions outside of the previous days value range in the open?</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>The greatest imbalance occurs when open is outside of range and the direction is accepted, usually a trend day develops</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open-Reject-Reverse</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Gap</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Yesterdays</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value? (Y/N)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash market only (8:30-3 central)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF('S&amp;P Historical Data'!I5:I30="Open-Test-Drive",SUM(MIN('S&amp;P Historical Data'!G5:G10,'S&amp;P Historical Data'!E5:E10)))</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average of Minimum on open-test drive days</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Counts</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trend</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Days</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD Trend</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral-Extreme</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal Var</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral-Center</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gap Up</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Gap Down</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opened, went slightly down in first 2 min, bounced up to high at 8:44 and then kept falling</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trend</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Down</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Up,</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Down,</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trend</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Drive</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Reject-Reverse</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Auction</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Test-Drive</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Reject-Reverse</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neutral</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opened and traded back and forth around the open 2793. It dropped and met some resistance at 2785, lots of volume there. It dropped below to 2780 and the volume was lower. To fill the gap it would be down to 2774 but I got out at 2780 because the volume was low at 2780 and that is a point of consolidation on the trader bite. If the bottom drops out I will be wrong, but it seemed like this was the right move.</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>I am starting here to focus on only trading the open. I got caught up in emotional trading yesterday so I am going to drill in and focus on a more specific strategy</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Up</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Down</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossing the open</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>in first 1.5 hrs</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Number</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Drive</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notes</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>My trades</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of Trades</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Profit and Loss</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Volume</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>8:30-10a</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>When opening within previous days value range, what percent of the time do previous value extremes hold?</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Auction</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todays Open</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open High</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sell To Close</t>
-  </si>
-  <si>
-    <t>ESZ18 - E Mini S&amp;P 500 December 2018</t>
-  </si>
-  <si>
-    <t>Buy To Open</t>
-  </si>
-  <si>
-    <t>Buy To Close</t>
-  </si>
-  <si>
-    <t>Sell To Open</t>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qty</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Commission/Fees</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Previous</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Previous</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Close</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todays</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>High</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Low</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-trend</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Types of Opens</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Drive</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Test-Drive</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Reject-Reverse</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Reject-Reverse</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neutral</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD Trend</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>98% of time break either IB high or IB low</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Auction</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Types of Days</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time of High</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Market opened and traded sideways for 8 minutes. I was focused on downside and I got afraid I would miss the move. I got in too early. My plan was to get in at 2810, stop at 2817 and limit at 2795. I got in at 2806 right before the market shot up, struck too early. I did feel good however and did not over trade like I have been doing.</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Points</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dollars</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Reject-Reverse,</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open (first 1.5 hr)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time of</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>High</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position Close</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time of Low</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Volume</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open Type</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day Type</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open in Yesterdays Range</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open in Yesterdays Value</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Up/Down</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of times crossing open</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Previous Open</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Previous Close</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Previous High</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Previous Low</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neutral</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Test-Drive</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD Trend</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Up</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>In Central Time</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position Open</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buy/Sell</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>commission</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Proceeds</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notes</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sell</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loss/Gain</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only take 3 trades per day, one to open, one reversal (optional), and one to close. I am going to trade for the first 1.5 hours only. This is the discipline I am going to get on for a while, and work my niche.</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-trend</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-trend</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Test-Drive</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD Trend</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Up</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUMIF('S&amp;P Historical Data'!I5:I30="Open-Test-Drive",MIN('S&amp;P Historical Data'!G5:G10,'S&amp;P Historical Data'!E5:E10))</t>
-  </si>
-  <si>
-    <t>Open-Drive</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Auction</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD Trend</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Up</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Reject-Reverse</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>What are the greatest range extensions outside of the previous days value range in the open?</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>The greatest imbalance occurs when open is outside of range and the direction is accepted, usually a trend day develops</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sell</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buy</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Reject-Reverse</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gap</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>10+</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>In Yesterdays</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value? (Y/N)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cash market only (8:30-3 central)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>IF('S&amp;P Historical Data'!I5:I30="Open-Test-Drive",SUM(MIN('S&amp;P Historical Data'!G5:G10,'S&amp;P Historical Data'!E5:E10)))</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average of Minimum on open-test drive days</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Counts</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trend</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Days</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD Trend</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neutral-Extreme</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal Var</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neutral-Center</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Up</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gap Down</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opened, went slightly down in first 2 min, bounced up to high at 8:44 and then kept falling</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Normal Var, Neutral-Center,</t>
   </si>
   <si>
     <t>Trend, DD Trend, Neutral-Extreme,</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Normal, Non-trend</t>
   </si>
   <si>
     <t>Day type:</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Open type:</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Auction</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>In Yesterdays</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trend</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neutral</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD Trend</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range? (Y/N)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>just kept going lower, I kept getting out too soon when I sold</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of times</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>27% of all days are neutral days, likely to break IB high and IB low (FT71)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>73% of all days are likely to only break one side of IB high or IB low</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neutral</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open-Auction</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open Type Secondary</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drift Lower</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day Type Secondary</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Extreme</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neutral</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -961,7 +1025,15 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1062,25 +1134,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1093,37 +1173,39 @@
     <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1473,48 +1555,48 @@
   <sheetData>
     <row r="1" spans="2:15">
       <c r="B1" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="H1" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="2:15" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:15">
@@ -1522,7 +1604,7 @@
         <v>41940</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>2695</v>
@@ -1545,19 +1627,19 @@
     </row>
     <row r="11" spans="2:15">
       <c r="B11" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -1565,13 +1647,13 @@
         <v>41944</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F13">
         <v>2719.5</v>
@@ -1590,13 +1672,13 @@
         <v>41944</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F14">
         <v>2722</v>
@@ -1616,13 +1698,13 @@
         <v>41944</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F16">
         <v>2723.75</v>
@@ -1641,13 +1723,13 @@
         <v>41944</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F17">
         <v>2722.75</v>
@@ -1667,13 +1749,13 @@
         <v>41944</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F19">
         <v>2717.75</v>
@@ -1692,13 +1774,13 @@
         <v>41944</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F20">
         <v>2730.25</v>
@@ -1718,13 +1800,13 @@
         <v>41944</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F22">
         <v>2726.5</v>
@@ -1743,13 +1825,13 @@
         <v>41944</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F23">
         <v>2728.75</v>
@@ -1769,13 +1851,13 @@
         <v>41944</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F25">
         <v>2747.25</v>
@@ -1794,13 +1876,13 @@
         <v>41944</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F26">
         <v>2752</v>
@@ -1819,13 +1901,13 @@
         <v>41944</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F27">
         <v>2756.25</v>
@@ -1848,13 +1930,13 @@
         <v>41944</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F28">
         <v>2753.75</v>
@@ -1873,13 +1955,13 @@
         <v>41944</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F29">
         <v>2752.75</v>
@@ -1898,13 +1980,13 @@
         <v>41944</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F30">
         <v>2747</v>
@@ -1923,13 +2005,13 @@
         <v>41944</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F31">
         <v>2750.75</v>
@@ -1948,13 +2030,13 @@
         <v>41944</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F32">
         <v>2747</v>
@@ -1973,13 +2055,13 @@
         <v>41944</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F33">
         <v>2753.75</v>
@@ -1999,13 +2081,13 @@
         <v>41943</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F35">
         <v>2726.5</v>
@@ -2020,13 +2102,13 @@
         <v>41943</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F36">
         <v>2736</v>
@@ -2045,13 +2127,13 @@
         <v>41943</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F37">
         <v>2728</v>
@@ -2071,13 +2153,13 @@
         <v>41942</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F39">
         <v>2720</v>
@@ -2096,13 +2178,13 @@
         <v>41941</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F40">
         <v>2679</v>
@@ -2122,13 +2204,13 @@
         <v>41941</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F42">
         <v>2665</v>
@@ -2147,13 +2229,13 @@
         <v>41941</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F43">
         <v>2648</v>
@@ -2173,13 +2255,13 @@
         <v>41940</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F45">
         <v>2638.25</v>
@@ -2198,13 +2280,13 @@
         <v>41940</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F46">
         <v>2637.75</v>
@@ -2224,13 +2306,13 @@
         <v>41940</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F48">
         <v>2705</v>
@@ -2253,13 +2335,13 @@
         <v>41940</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F49">
         <v>2692.25</v>
@@ -2278,13 +2360,13 @@
         <v>41940</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F50">
         <v>2695.25</v>
@@ -2304,13 +2386,13 @@
         <v>41940</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F52">
         <v>2695.25</v>
@@ -2329,13 +2411,13 @@
         <v>41940</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F53">
         <v>2695</v>
@@ -2358,60 +2440,60 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>164</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="G60" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="1" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -2419,7 +2501,7 @@
         <v>41947</v>
       </c>
       <c r="B63" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="C63">
         <v>2730.25</v>
@@ -2431,7 +2513,7 @@
         <v>41947</v>
       </c>
       <c r="H63" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="I63">
         <v>2720</v>
@@ -2445,7 +2527,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -2467,56 +2549,56 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="17" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -2545,54 +2627,54 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>225</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="F9" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="F12" s="9" t="e">
-        <f>SUM(IF(SPHistoricalData!J27:J52="Open-Test-Drive",MIN(SPHistoricalData!G27:G32,SPHistoricalData!E27:E32)))/B13</f>
+        <f>SUM(IF(SPHistoricalData!J29:J54="Open-Test-Drive",MIN(SPHistoricalData!G29:G34,SPHistoricalData!E29:E34)))/B13</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2602,197 +2684,197 @@
         <v>3</v>
       </c>
       <c r="D13" s="8">
-        <f>IF(SPHistoricalData!J32="Open-Test-Drive",MIN(SPHistoricalData!G32,SPHistoricalData!E32))</f>
+        <f>IF(SPHistoricalData!J34="Open-Test-Drive",MIN(SPHistoricalData!G34,SPHistoricalData!E34))</f>
         <v>0.36388888888888887</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="D15" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="D16" s="9">
-        <f>(SPHistoricalData!E32+SPHistoricalData!G35+SPHistoricalData!G34)/3</f>
+        <f>(SPHistoricalData!E34+SPHistoricalData!G37+SPHistoricalData!G36)/3</f>
         <v>0.35856481481481484</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="G21" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="H21" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="C22" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="D22" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="G22" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="C23" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="E23" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="G23" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="H23" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24">
-        <f>COUNTIF(SPHistoricalData!$L$27:$L45,"Trend")</f>
+        <f>COUNTIF(SPHistoricalData!$L$29:$L47,"Trend")</f>
         <v>3</v>
       </c>
       <c r="C24">
-        <f>COUNTIF(SPHistoricalData!$L$27:$L45,"DD Trend")</f>
+        <f>COUNTIF(SPHistoricalData!$L$29:$L47,"DD Trend")</f>
         <v>3</v>
       </c>
       <c r="D24">
-        <f>COUNTIF(SPHistoricalData!$L$27:$L45,"Neutral-Extreme")</f>
+        <f>COUNTIF(SPHistoricalData!$L$29:$L47,"Neutral-Extreme")</f>
         <v>0</v>
       </c>
       <c r="E24">
-        <f>COUNTIF(SPHistoricalData!$L$27:$L45,"Normal Var")</f>
+        <f>COUNTIF(SPHistoricalData!$L$29:$L47,"Normal Var")</f>
         <v>0</v>
       </c>
       <c r="F24">
-        <f>COUNTIF(SPHistoricalData!$L$27:$L45,"Neutral-Center")</f>
+        <f>COUNTIF(SPHistoricalData!$L$29:$L47,"Neutral-Center")</f>
         <v>0</v>
       </c>
       <c r="G24">
-        <f>COUNTIF(SPHistoricalData!$L$27:$L45,"Normal")</f>
+        <f>COUNTIF(SPHistoricalData!$L$29:$L47,"Normal")</f>
         <v>1</v>
       </c>
       <c r="H24">
-        <f>COUNTIF(SPHistoricalData!$L$27:$L45,"Non-trend")</f>
+        <f>COUNTIF(SPHistoricalData!$L$29:$L47,"Non-trend")</f>
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="C30" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="D30" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="E30" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="B31">
-        <f>COUNTIF(SPHistoricalData!$J$27:$J52,"Open-Drive")</f>
+        <f>COUNTIF(SPHistoricalData!$J$29:$J54,"Open-Drive")</f>
         <v>2</v>
       </c>
       <c r="C31">
-        <f>COUNTIF(SPHistoricalData!$J$27:$J52,"Open-Test-Drive")</f>
+        <f>COUNTIF(SPHistoricalData!$J$29:$J54,"Open-Test-Drive")</f>
         <v>3</v>
       </c>
       <c r="D31">
-        <f>COUNTIF(SPHistoricalData!$J$27:$J52,"Open-Reject-Reverse")</f>
+        <f>COUNTIF(SPHistoricalData!$J$29:$J54,"Open-Reject-Reverse")</f>
         <v>1</v>
       </c>
       <c r="E31">
-        <f>COUNTIF(SPHistoricalData!$J$27:$J52,"Open-Auction")</f>
+        <f>COUNTIF(SPHistoricalData!$J$29:$J54,"Open-Auction")</f>
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -2804,11 +2886,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="B1:AB39"/>
+  <dimension ref="B1:AB41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2828,543 +2910,618 @@
   <sheetData>
     <row r="1" spans="2:28">
       <c r="E1" s="9" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="J1" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="L1" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="Q1" t="s">
-        <v>224</v>
+        <v>139</v>
       </c>
       <c r="S1" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="X1" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="2:28">
       <c r="C2" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="L2" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="N2" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="P2" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="Q2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="2:28">
       <c r="C3" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="J3" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="L3" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="N3" t="s">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="O3" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="P3" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="Q3" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="S3" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="U3" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="V3" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="Y3" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="Z3" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="2:28">
       <c r="B4" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="J4" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="L4" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="N4" t="s">
-        <v>222</v>
+        <v>137</v>
       </c>
       <c r="O4" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="P4" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="S4" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="T4" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="U4" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="V4" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="Y4" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="Z4" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="AB4" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:28" s="10" customFormat="1">
       <c r="B5" s="10" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="2:28" s="66" customFormat="1">
-      <c r="B6" s="70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" s="76" customFormat="1">
+      <c r="B6" s="80">
+        <v>41986</v>
+      </c>
+      <c r="C6" s="76">
+        <v>2628.75</v>
+      </c>
+      <c r="D6" s="76">
+        <v>2639.75</v>
+      </c>
+      <c r="E6" s="77">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F6" s="76">
+        <v>2623</v>
+      </c>
+      <c r="G6" s="77">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="H6" s="78">
+        <v>2629.5</v>
+      </c>
+      <c r="I6" s="79">
+        <v>512718</v>
+      </c>
+      <c r="J6" s="76" t="s">
+        <v>192</v>
+      </c>
+      <c r="L6" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="N6" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="P6" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q6" s="76">
+        <v>3</v>
+      </c>
+      <c r="S6" s="76">
+        <v>2661.25</v>
+      </c>
+      <c r="T6" s="76">
+        <v>2644</v>
+      </c>
+      <c r="U6" s="76">
+        <v>2671</v>
+      </c>
+      <c r="V6" s="76">
+        <v>2637.25</v>
+      </c>
+      <c r="X6" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" s="71" customFormat="1">
+      <c r="B7" s="75">
+        <v>41985</v>
+      </c>
+      <c r="C7" s="71">
+        <v>2661.25</v>
+      </c>
+      <c r="D7" s="71">
+        <v>2671</v>
+      </c>
+      <c r="E7" s="72">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="F7" s="71">
+        <v>2645.75</v>
+      </c>
+      <c r="G7" s="72">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="H7" s="73">
+        <v>2654</v>
+      </c>
+      <c r="I7" s="74">
+        <v>415611</v>
+      </c>
+      <c r="J7" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="P7" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q7" s="71">
+        <v>3</v>
+      </c>
+      <c r="S7" s="71">
+        <v>2671.5</v>
+      </c>
+      <c r="T7" s="71">
+        <v>2651.25</v>
+      </c>
+      <c r="U7" s="71">
+        <v>2686.5</v>
+      </c>
+      <c r="V7" s="71">
+        <v>2647.25</v>
+      </c>
+      <c r="X7" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" s="66" customFormat="1">
+      <c r="B8" s="70">
         <v>41984</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="69"/>
-      <c r="S6" s="66">
+      <c r="C8" s="66">
+        <v>2671.5</v>
+      </c>
+      <c r="D8" s="66">
+        <v>2679.5</v>
+      </c>
+      <c r="E8" s="67">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="F8" s="66">
+        <v>2661.5</v>
+      </c>
+      <c r="G8" s="67">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="H8" s="68">
+        <v>2678</v>
+      </c>
+      <c r="I8" s="69">
+        <v>426341</v>
+      </c>
+      <c r="J8" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="K8" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="L8" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="M8" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="N8" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q8" s="66">
+        <v>3</v>
+      </c>
+      <c r="S8" s="66">
         <v>2673.25</v>
       </c>
-      <c r="T6" s="66">
+      <c r="T8" s="66">
         <v>2640.5</v>
       </c>
-      <c r="U6" s="66">
+      <c r="U8" s="66">
         <v>2675.5</v>
       </c>
-      <c r="V6" s="66">
+      <c r="V8" s="66">
         <v>2621.25</v>
       </c>
-    </row>
-    <row r="7" spans="2:28" s="61" customFormat="1">
-      <c r="B7" s="65">
+      <c r="X8" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" s="61" customFormat="1">
+      <c r="B9" s="65">
         <v>41983</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C9" s="61">
         <v>2673.25</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D9" s="61">
         <v>2675.5</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E9" s="62">
         <v>0.35833333333333334</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F9" s="61">
         <v>2656.75</v>
       </c>
-      <c r="G7" s="62">
+      <c r="G9" s="62">
         <v>0.41250000000000003</v>
       </c>
-      <c r="H7" s="63">
+      <c r="H9" s="63">
         <v>2657.75</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="K7" s="61" t="s">
-        <v>230</v>
-      </c>
-      <c r="L7" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="N7" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" s="61" t="s">
+      <c r="I9" s="64">
+        <v>502351</v>
+      </c>
+      <c r="J9" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="K9" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="L9" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="N9" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="61">
+        <v>9</v>
+      </c>
+      <c r="S9" s="61">
+        <v>2630.75</v>
+      </c>
+      <c r="T9" s="61">
+        <v>2643</v>
+      </c>
+      <c r="U9" s="61">
+        <v>2648.5</v>
+      </c>
+      <c r="V9" s="61">
+        <v>2583</v>
+      </c>
+      <c r="X9" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" s="61" customFormat="1">
+      <c r="B10" s="65">
+        <v>41982</v>
+      </c>
+      <c r="C10" s="61">
+        <v>2630.75</v>
+      </c>
+      <c r="D10" s="61">
+        <v>2639.25</v>
+      </c>
+      <c r="E10" s="62">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="F10" s="61">
+        <v>2595.75</v>
+      </c>
+      <c r="G10" s="62">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H10" s="63">
+        <v>2602</v>
+      </c>
+      <c r="I10" s="64">
+        <v>703286</v>
+      </c>
+      <c r="J10" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="M10" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="N10" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="61">
         <v>1</v>
       </c>
-      <c r="Q7" s="61">
-        <v>9</v>
-      </c>
-      <c r="S7" s="61">
-        <v>2630.75</v>
-      </c>
-      <c r="T7" s="61">
-        <v>2643</v>
-      </c>
-      <c r="U7" s="61">
-        <v>2648.5</v>
-      </c>
-      <c r="V7" s="61">
-        <v>2583</v>
-      </c>
-    </row>
-    <row r="8" spans="2:28" s="61" customFormat="1">
-      <c r="B8" s="65">
-        <v>41982</v>
-      </c>
-      <c r="C8" s="61">
-        <v>2630.75</v>
-      </c>
-      <c r="D8" s="61">
-        <v>2639.25</v>
-      </c>
-      <c r="E8" s="62">
-        <v>0.35833333333333334</v>
-      </c>
-      <c r="F8" s="61">
-        <v>2592</v>
-      </c>
-      <c r="G8" s="62">
-        <v>10</v>
-      </c>
-      <c r="H8" s="63">
-        <v>2594.25</v>
-      </c>
-      <c r="I8" s="64"/>
-      <c r="J8" s="61" t="s">
+      <c r="S10" s="61">
+        <v>2691.75</v>
+      </c>
+      <c r="T10" s="61">
+        <v>2632.75</v>
+      </c>
+      <c r="U10" s="61">
+        <v>2623.25</v>
+      </c>
+      <c r="V10" s="61">
+        <v>2709.75</v>
+      </c>
+      <c r="X10" s="42">
         <v>2</v>
       </c>
-      <c r="L8" s="61" t="s">
-        <v>233</v>
-      </c>
-      <c r="M8" s="61" t="s">
-        <v>232</v>
-      </c>
-      <c r="N8" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="61">
-        <v>1</v>
-      </c>
-      <c r="S8" s="61">
-        <v>2691.75</v>
-      </c>
-      <c r="T8" s="61">
-        <v>2632.75</v>
-      </c>
-      <c r="U8" s="61">
-        <v>2623.25</v>
-      </c>
-      <c r="V8" s="61">
-        <v>2709.75</v>
-      </c>
-    </row>
-    <row r="9" spans="2:28" s="57" customFormat="1">
-      <c r="B9" s="56">
-        <v>41979</v>
-      </c>
-      <c r="C9" s="57">
-        <v>2691.75</v>
-      </c>
-      <c r="D9" s="57">
-        <v>2709.75</v>
-      </c>
-      <c r="E9" s="58">
-        <v>0.36249999999999999</v>
-      </c>
-      <c r="F9" s="57">
-        <v>2667.5</v>
-      </c>
-      <c r="G9" s="58">
-        <v>0.40069444444444446</v>
-      </c>
-      <c r="H9" s="59">
-        <v>2679.75</v>
-      </c>
-      <c r="I9" s="60">
-        <v>568320</v>
-      </c>
-      <c r="J9" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9" s="57" t="s">
-        <v>219</v>
-      </c>
-      <c r="N9" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q9" s="57">
-        <v>1</v>
-      </c>
-      <c r="S9" s="57">
-        <v>2656.75</v>
-      </c>
-      <c r="T9" s="57">
-        <v>2691.5</v>
-      </c>
-      <c r="U9" s="57">
-        <v>2699.25</v>
-      </c>
-      <c r="V9" s="57">
-        <v>2621.25</v>
-      </c>
-      <c r="X9" s="42">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="42">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:28" s="57" customFormat="1">
-      <c r="B10" s="56">
-        <v>41978</v>
-      </c>
-      <c r="C10" s="57">
-        <v>2656.75</v>
-      </c>
-      <c r="D10" s="57">
-        <v>2669.25</v>
-      </c>
-      <c r="E10" s="58">
-        <v>0.36041666666666666</v>
-      </c>
-      <c r="F10" s="57">
-        <v>2637.75</v>
-      </c>
-      <c r="G10" s="58">
-        <v>0.41597222222222219</v>
-      </c>
-      <c r="H10" s="59">
-        <v>2640</v>
-      </c>
-      <c r="I10" s="60">
-        <v>844630</v>
-      </c>
-      <c r="J10" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="57" t="s">
-        <v>220</v>
-      </c>
-      <c r="N10" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" s="57" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q10" s="57">
-        <v>8</v>
-      </c>
-      <c r="S10" s="57">
-        <v>2782.25</v>
-      </c>
-      <c r="T10" s="57">
-        <v>2702</v>
-      </c>
-      <c r="U10" s="57">
-        <v>2787.25</v>
-      </c>
-      <c r="V10" s="57">
-        <v>2697.25</v>
-      </c>
-      <c r="X10" s="42">
-        <v>0</v>
-      </c>
       <c r="Y10" s="42">
-        <v>0</v>
+        <v>-4.5</v>
       </c>
       <c r="Z10" s="42">
-        <v>0</v>
+        <v>-225</v>
       </c>
     </row>
     <row r="11" spans="2:28" s="57" customFormat="1">
       <c r="B11" s="56">
-        <v>41976</v>
+        <v>41979</v>
       </c>
       <c r="C11" s="57">
-        <v>2782.25</v>
+        <v>2691.75</v>
       </c>
       <c r="D11" s="57">
-        <v>2787.25</v>
+        <v>2709.75</v>
       </c>
       <c r="E11" s="58">
-        <v>0.36041666666666666</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="F11" s="57">
-        <v>2769.5</v>
+        <v>2667.5</v>
       </c>
       <c r="G11" s="58">
-        <v>0.39444444444444443</v>
+        <v>0.40069444444444446</v>
       </c>
       <c r="H11" s="59">
-        <v>2770.75</v>
+        <v>2679.75</v>
       </c>
       <c r="I11" s="60">
-        <v>430990</v>
+        <v>568320</v>
       </c>
       <c r="J11" s="57" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="L11" s="57" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="N11" s="57" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="P11" s="57" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S11" s="57">
-        <v>2801</v>
+        <v>2656.75</v>
       </c>
       <c r="T11" s="57">
-        <v>2791</v>
+        <v>2691.5</v>
       </c>
       <c r="U11" s="57">
-        <v>2802.5</v>
+        <v>2699.25</v>
       </c>
       <c r="V11" s="57">
-        <v>2773.5</v>
+        <v>2621.25</v>
       </c>
       <c r="X11" s="42">
         <v>0</v>
@@ -3378,1463 +3535,1628 @@
     </row>
     <row r="12" spans="2:28" s="57" customFormat="1">
       <c r="B12" s="56">
-        <v>41975</v>
+        <v>41978</v>
       </c>
       <c r="C12" s="57">
-        <v>2801</v>
+        <v>2656.75</v>
       </c>
       <c r="D12" s="57">
-        <v>2802.5</v>
+        <v>2669.25</v>
       </c>
       <c r="E12" s="58">
-        <v>0.35416666666666669</v>
+        <v>0.36041666666666666</v>
       </c>
       <c r="F12" s="57">
-        <v>2778.75</v>
+        <v>2637.75</v>
       </c>
       <c r="G12" s="58">
         <v>0.41597222222222219</v>
       </c>
       <c r="H12" s="59">
+        <v>2640</v>
+      </c>
+      <c r="I12" s="60">
+        <v>844630</v>
+      </c>
+      <c r="J12" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="N12" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q12" s="57">
+        <v>8</v>
+      </c>
+      <c r="S12" s="57">
+        <v>2782.25</v>
+      </c>
+      <c r="T12" s="57">
+        <v>2702</v>
+      </c>
+      <c r="U12" s="57">
+        <v>2787.25</v>
+      </c>
+      <c r="V12" s="57">
+        <v>2697.25</v>
+      </c>
+      <c r="X12" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" s="57" customFormat="1">
+      <c r="B13" s="56">
+        <v>41976</v>
+      </c>
+      <c r="C13" s="57">
+        <v>2782.25</v>
+      </c>
+      <c r="D13" s="57">
+        <v>2787.25</v>
+      </c>
+      <c r="E13" s="58">
+        <v>0.36041666666666666</v>
+      </c>
+      <c r="F13" s="57">
+        <v>2769.5</v>
+      </c>
+      <c r="G13" s="58">
+        <v>0.39444444444444443</v>
+      </c>
+      <c r="H13" s="59">
+        <v>2770.75</v>
+      </c>
+      <c r="I13" s="60">
+        <v>430990</v>
+      </c>
+      <c r="J13" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="N13" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q13" s="57">
+        <v>3</v>
+      </c>
+      <c r="S13" s="57">
+        <v>2801</v>
+      </c>
+      <c r="T13" s="57">
+        <v>2791</v>
+      </c>
+      <c r="U13" s="57">
+        <v>2802.5</v>
+      </c>
+      <c r="V13" s="57">
+        <v>2773.5</v>
+      </c>
+      <c r="X13" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" s="57" customFormat="1">
+      <c r="B14" s="56">
+        <v>41975</v>
+      </c>
+      <c r="C14" s="57">
+        <v>2801</v>
+      </c>
+      <c r="D14" s="57">
+        <v>2802.5</v>
+      </c>
+      <c r="E14" s="58">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F14" s="57">
+        <v>2778.75</v>
+      </c>
+      <c r="G14" s="58">
+        <v>0.41597222222222219</v>
+      </c>
+      <c r="H14" s="59">
         <v>2780.25</v>
       </c>
-      <c r="I12" s="60">
+      <c r="I14" s="60">
         <v>560150</v>
       </c>
-      <c r="J12" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="L12" s="57" t="s">
-        <v>220</v>
-      </c>
-      <c r="N12" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="P12" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q12" s="57">
-        <v>0</v>
-      </c>
-      <c r="S12" s="57">
+      <c r="J14" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="N14" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q14" s="57">
+        <v>0</v>
+      </c>
+      <c r="S14" s="57">
         <v>2736.5</v>
       </c>
-      <c r="T12" s="57">
+      <c r="T14" s="57">
         <v>2764.25</v>
       </c>
-      <c r="U12" s="57">
+      <c r="U14" s="57">
         <v>2764.75</v>
       </c>
-      <c r="V12" s="57">
+      <c r="V14" s="57">
         <v>2733.25</v>
       </c>
-      <c r="X12" s="42">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="42">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:28" s="42" customFormat="1">
-      <c r="B13" s="45">
+      <c r="X14" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" s="42" customFormat="1">
+      <c r="B15" s="45">
         <v>41972</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C15" s="42">
         <v>2736.75</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D15" s="42">
         <v>2748.5</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E15" s="43">
         <v>0.40347222222222223</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F15" s="42">
         <v>2733.25</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G15" s="43">
         <v>0.3576388888888889</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H15" s="48">
         <v>2743.25</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I15" s="44">
         <f>118809+76278+97024</f>
         <v>292111</v>
       </c>
-      <c r="J13" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="L13" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="N13" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="P13" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q13" s="42">
+      <c r="J15" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="L15" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="N15" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="P15" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q15" s="42">
         <v>5</v>
       </c>
-      <c r="S13" s="42">
+      <c r="S15" s="42">
         <v>2736.25</v>
       </c>
-      <c r="T13" s="42">
+      <c r="T15" s="42">
         <v>2744</v>
       </c>
-      <c r="U13" s="42">
+      <c r="U15" s="42">
         <v>2754.5</v>
       </c>
-      <c r="V13" s="42">
+      <c r="V15" s="42">
         <v>2723.25</v>
       </c>
-      <c r="X13" s="42">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="42">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:28" s="42" customFormat="1">
-      <c r="B14" s="45">
+      <c r="X15" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" s="42" customFormat="1">
+      <c r="B16" s="45">
         <v>41971</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C16" s="42">
         <v>2736.25</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D16" s="42">
         <v>2740</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E16" s="43">
         <v>0.39583333333333331</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F16" s="42">
         <v>2723.25</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G16" s="43">
         <v>0.41180555555555554</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H16" s="48">
         <v>2726.75</v>
       </c>
-      <c r="I14" s="44">
+      <c r="I16" s="44">
         <f>160127+111404+188823</f>
         <v>460354</v>
       </c>
-      <c r="J14" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="P14" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q14" s="42">
+      <c r="J16" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="P16" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q16" s="42">
         <v>8</v>
       </c>
-      <c r="S14" s="42">
+      <c r="S16" s="42">
         <v>2695.25</v>
       </c>
-      <c r="T14" s="42">
+      <c r="T16" s="42">
         <v>2742.25</v>
       </c>
-      <c r="U14" s="42">
+      <c r="U16" s="42">
         <v>2745</v>
       </c>
-      <c r="V14" s="42">
+      <c r="V16" s="42">
         <v>2684.25</v>
       </c>
-      <c r="X14" s="42">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="42">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:28" s="42" customFormat="1">
-      <c r="B15" s="45">
+      <c r="X16" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" s="42" customFormat="1">
+      <c r="B17" s="45">
         <v>41970</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C17" s="42">
         <v>2695.25</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D17" s="42">
         <v>2698</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E17" s="43">
         <v>0.3611111111111111</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F17" s="42">
         <v>2684.25</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G17" s="43">
         <v>0.39652777777777781</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H17" s="48">
         <v>2688.5</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I17" s="44">
         <f>159010+95510+92123</f>
         <v>346643</v>
       </c>
-      <c r="J15" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="L15" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="N15" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="P15" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q15" s="42">
+      <c r="J17" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="P17" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="42">
         <v>5</v>
       </c>
-      <c r="S15" s="42">
+      <c r="S17" s="42">
         <v>2662.25</v>
       </c>
-      <c r="T15" s="42">
+      <c r="T17" s="42">
         <v>2684</v>
       </c>
-      <c r="U15" s="42">
+      <c r="U17" s="42">
         <v>2684</v>
       </c>
-      <c r="V15" s="42">
+      <c r="V17" s="42">
         <v>2655.25</v>
       </c>
-      <c r="X15" s="42">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="42">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:28" s="39" customFormat="1">
-      <c r="B16" s="38">
+      <c r="X17" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" s="39" customFormat="1">
+      <c r="B18" s="38">
         <v>41969</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C18" s="39">
         <v>2662.25</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D18" s="39">
         <v>2677.5</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E18" s="40">
         <v>0.41388888888888892</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F18" s="39">
         <v>2655.25</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G18" s="40">
         <v>0.36180555555555555</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H18" s="49">
         <v>2673.5</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I18" s="41">
         <f>196153+148338+97756</f>
         <v>442247</v>
       </c>
-      <c r="J16" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="M16" s="42"/>
-      <c r="N16" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="P16" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q16" s="39">
+      <c r="J18" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="42"/>
+      <c r="N18" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q18" s="39">
         <v>4</v>
       </c>
-      <c r="S16" s="39">
+      <c r="S18" s="39">
         <v>2657.25</v>
       </c>
-      <c r="T16" s="39">
+      <c r="T18" s="39">
         <v>2673.75</v>
       </c>
-      <c r="U16" s="39">
+      <c r="U18" s="39">
         <v>2674</v>
       </c>
-      <c r="V16" s="39">
+      <c r="V18" s="39">
         <v>2652.5</v>
       </c>
-      <c r="X16" s="39">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="42">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:28" s="39" customFormat="1">
-      <c r="B17" s="38">
+      <c r="X18" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" s="39" customFormat="1">
+      <c r="B19" s="38">
         <v>41968</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C19" s="39">
         <v>2657.25</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D19" s="39">
         <v>2671.75</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E19" s="40">
         <v>0.37638888888888888</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F19" s="39">
         <v>2655.75</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G19" s="40">
         <v>0.35833333333333334</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H19" s="49">
         <v>2669.5</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I19" s="41">
         <f>184014+107461+100758</f>
         <v>392233</v>
       </c>
-      <c r="J17" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="L17" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="N17" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="P17" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q17" s="39">
+      <c r="J19" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="N19" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="P19" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q19" s="39">
         <v>1</v>
       </c>
-      <c r="S17" s="39">
+      <c r="S19" s="39">
         <v>2631</v>
       </c>
-      <c r="T17" s="39">
+      <c r="T19" s="39">
         <v>2628.5</v>
       </c>
-      <c r="U17" s="39">
+      <c r="U19" s="39">
         <v>2647.5</v>
       </c>
-      <c r="V17" s="39">
+      <c r="V19" s="39">
         <v>2628.5</v>
       </c>
-      <c r="X17" s="39">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="42">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:28" s="39" customFormat="1">
-      <c r="B18" s="38">
+      <c r="X19" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" s="39" customFormat="1">
+      <c r="B20" s="38">
         <v>41965</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C20" s="39">
         <v>2631</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D20" s="39">
         <v>2643.5</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E20" s="40">
         <v>0.38194444444444442</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F20" s="39">
         <v>2630</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G20" s="40">
         <v>0.35486111111111113</v>
       </c>
-      <c r="H18" s="49">
+      <c r="H20" s="49">
         <v>2641</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I20" s="41">
         <f>127734+69625+60016</f>
         <v>257375</v>
       </c>
-      <c r="J18" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="P18" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q18" s="39">
-        <v>0</v>
-      </c>
-      <c r="S18" s="39">
+      <c r="J20" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="N20" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="P20" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q20" s="39">
+        <v>0</v>
+      </c>
+      <c r="S20" s="39">
         <v>2658.25</v>
       </c>
-      <c r="T18" s="39">
+      <c r="T20" s="39">
         <v>2648.25</v>
       </c>
-      <c r="U18" s="39">
+      <c r="U20" s="39">
         <v>2671.25</v>
       </c>
-      <c r="V18" s="39">
+      <c r="V20" s="39">
         <v>2647.75</v>
       </c>
-      <c r="X18" s="39">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="42">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:28" s="34" customFormat="1">
-      <c r="B19" s="37">
+      <c r="X20" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" s="34" customFormat="1">
+      <c r="B21" s="37">
         <v>41963</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C21" s="34">
         <v>2658.25</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D21" s="34">
         <v>2666.25</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E21" s="35">
         <v>0.39305555555555555</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F21" s="34">
         <v>2651</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G21" s="35">
         <v>0.36874999999999997</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H21" s="50">
         <v>2661.5</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I21" s="36">
         <f>196558+139920+91693</f>
         <v>428171</v>
       </c>
-      <c r="J19" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="N19" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="P19" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q19" s="34">
+      <c r="J21" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="N21" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="P21" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q21" s="34">
         <v>4</v>
       </c>
-      <c r="S19" s="34">
+      <c r="S21" s="34">
         <v>2654.25</v>
       </c>
-      <c r="T19" s="34">
+      <c r="T21" s="34">
         <v>2640.5</v>
       </c>
-      <c r="U19" s="34">
+      <c r="U21" s="34">
         <v>2670.75</v>
       </c>
-      <c r="V19" s="34">
+      <c r="V21" s="34">
         <v>2631.75</v>
       </c>
-      <c r="X19" s="34">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="34">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:28" s="34" customFormat="1">
-      <c r="B20" s="37">
+      <c r="X21" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" s="34" customFormat="1">
+      <c r="B22" s="37">
         <v>41962</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C22" s="34">
         <v>2654.25</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D22" s="34">
         <v>2668.5</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E22" s="35">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F22" s="34">
         <v>2633.75</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G22" s="35">
         <v>0.38541666666666669</v>
       </c>
-      <c r="H20" s="50"/>
-      <c r="I20" s="36">
+      <c r="H22" s="50">
+        <v>2666.75</v>
+      </c>
+      <c r="I22" s="36">
         <f>343512+261169+213682</f>
         <v>818363</v>
       </c>
-      <c r="J20" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="L20" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="N20" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="P20" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q20" s="34">
+      <c r="J22" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="N22" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="P22" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="34">
         <v>2</v>
       </c>
-      <c r="S20" s="34">
+      <c r="S22" s="34">
         <v>2731.25</v>
       </c>
-      <c r="T20" s="34">
+      <c r="T22" s="34">
         <v>2696.5</v>
       </c>
-      <c r="U20" s="34">
+      <c r="U22" s="34">
         <v>2734.75</v>
       </c>
-      <c r="V20" s="34">
+      <c r="V22" s="34">
         <v>2681.5</v>
       </c>
-      <c r="X20" s="34">
+      <c r="X22" s="34">
         <v>4</v>
       </c>
-      <c r="Y20" s="34">
+      <c r="Y22" s="34">
         <v>4</v>
       </c>
-      <c r="Z20" s="34">
+      <c r="Z22" s="34">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="2:28" s="34" customFormat="1">
-      <c r="B21" s="37">
+    <row r="23" spans="2:28" s="34" customFormat="1">
+      <c r="B23" s="37">
         <v>41961</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C23" s="34">
         <v>2731.25</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D23" s="34">
         <v>2734.75</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E23" s="35">
         <v>0.36249999999999999</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F23" s="34">
         <v>2706.5</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G23" s="35">
         <v>0.39861111111111108</v>
       </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="36">
+      <c r="H23" s="50">
+        <v>2717</v>
+      </c>
+      <c r="I23" s="36">
         <f>179713+150728+131896</f>
         <v>462337</v>
       </c>
-      <c r="J21" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="L21" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="N21" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="P21" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q21" s="34">
+      <c r="J23" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="N23" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="34">
         <v>3</v>
       </c>
-      <c r="S21" s="34">
+      <c r="S23" s="34">
         <v>2719</v>
       </c>
-      <c r="T21" s="34">
+      <c r="T23" s="34">
         <v>2742.5</v>
       </c>
-      <c r="U21" s="34">
+      <c r="U23" s="34">
         <v>2748.75</v>
       </c>
-      <c r="V21" s="34">
+      <c r="V23" s="34">
         <v>2713.25</v>
       </c>
-      <c r="X21" s="34">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="34">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:28" s="30" customFormat="1">
-      <c r="B22" s="33">
+      <c r="X23" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" s="30" customFormat="1">
+      <c r="B24" s="33">
         <v>41958</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C24" s="30">
         <v>2719</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D24" s="30">
         <v>2740.5</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E24" s="31">
         <v>0.40069444444444446</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F24" s="30">
         <v>2713.25</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G24" s="31">
         <v>0.35902777777777778</v>
       </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="32">
+      <c r="H24" s="51">
+        <v>2733.75</v>
+      </c>
+      <c r="I24" s="32">
         <v>454610</v>
       </c>
-      <c r="J22" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="L22" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="M22" s="34"/>
-      <c r="N22" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="P22" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q22" s="30">
+      <c r="J24" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="L24" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="M24" s="34"/>
+      <c r="N24" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="P24" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q24" s="30">
         <v>2</v>
       </c>
-      <c r="S22" s="30">
+      <c r="S24" s="30">
         <v>2689</v>
       </c>
-      <c r="T22" s="30">
+      <c r="T24" s="30">
         <v>2730</v>
       </c>
-      <c r="U22" s="30">
+      <c r="U24" s="30">
         <v>2736.75</v>
       </c>
-      <c r="V22" s="30">
+      <c r="V24" s="30">
         <v>2671.25</v>
       </c>
-      <c r="X22" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:28" s="26" customFormat="1">
-      <c r="B23" s="29">
+      <c r="X24" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" s="26" customFormat="1">
+      <c r="B25" s="29">
         <v>41957</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C25" s="26">
         <v>2689</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D25" s="26">
         <v>2698</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E25" s="27">
         <v>0.36736111111111108</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F25" s="26">
         <v>2671.25</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G25" s="27">
         <v>0.40069444444444446</v>
       </c>
-      <c r="H23" s="52"/>
-      <c r="I23" s="28">
+      <c r="H25" s="52">
+        <v>2686.25</v>
+      </c>
+      <c r="I25" s="28">
         <v>605576</v>
       </c>
-      <c r="J23" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="N23" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="P23" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q23" s="26">
+      <c r="J25" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N25" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="P25" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q25" s="26">
         <v>5</v>
       </c>
-      <c r="S23" s="26">
+      <c r="S25" s="26">
         <v>2743.75</v>
       </c>
-      <c r="T23" s="26">
+      <c r="T25" s="26">
         <v>2703</v>
       </c>
-      <c r="U23" s="26">
+      <c r="U25" s="26">
         <v>2748.25</v>
       </c>
-      <c r="V23" s="26">
+      <c r="V25" s="26">
         <v>2686.25</v>
       </c>
-      <c r="X23" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:28" s="22" customFormat="1">
-      <c r="B24" s="25">
+      <c r="X25" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" s="22" customFormat="1">
+      <c r="B26" s="25">
         <v>41956</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C26" s="22">
         <v>2743.75</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D26" s="22">
         <v>2748.25</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E26" s="23">
         <v>0.36458333333333331</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F26" s="22">
         <v>2722.5</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G26" s="23">
         <v>0.41111111111111115</v>
       </c>
-      <c r="H24" s="53"/>
-      <c r="I24" s="24">
+      <c r="H26" s="53">
+        <v>2725.75</v>
+      </c>
+      <c r="I26" s="24">
         <v>460681</v>
       </c>
-      <c r="J24" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="P24" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q24" s="22">
+      <c r="J26" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q26" s="22">
         <v>4</v>
       </c>
-      <c r="S24" s="22">
+      <c r="S26" s="22">
         <v>2733.25</v>
       </c>
-      <c r="T24" s="22">
+      <c r="T26" s="22">
         <v>2727.5</v>
       </c>
-      <c r="U24" s="22">
+      <c r="U26" s="22">
         <v>2755.75</v>
       </c>
-      <c r="V24" s="22">
+      <c r="V26" s="22">
         <v>2714.5</v>
       </c>
-      <c r="X24" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:28" s="18" customFormat="1">
-      <c r="B25" s="21">
+      <c r="X26" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" s="18" customFormat="1">
+      <c r="B27" s="21">
         <v>41955</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C27" s="18">
         <v>2733.25</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D27" s="18">
         <v>2744</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E27" s="19">
         <v>0.3666666666666667</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F27" s="18">
         <v>2719.5</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G27" s="19">
         <v>0.3972222222222222</v>
       </c>
-      <c r="H25" s="54"/>
-      <c r="I25" s="20">
+      <c r="H27" s="54">
+        <v>2736.25</v>
+      </c>
+      <c r="I27" s="20">
         <v>546403</v>
       </c>
-      <c r="J25" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="L25" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="N25" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="P25" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q25" s="18">
+      <c r="J27" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="P27" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q27" s="18">
         <v>6</v>
       </c>
-      <c r="S25" s="18">
+      <c r="S27" s="18">
         <v>2774.25</v>
       </c>
-      <c r="T25" s="18">
+      <c r="T27" s="18">
         <v>2728.75</v>
       </c>
-      <c r="U25" s="18">
+      <c r="U27" s="18">
         <v>2777.5</v>
       </c>
-      <c r="V25" s="18">
+      <c r="V27" s="18">
         <v>2722.25</v>
       </c>
-      <c r="X25" s="18">
+      <c r="X27" s="18">
         <v>6</v>
       </c>
-      <c r="Y25" s="18">
+      <c r="Y27" s="18">
         <v>-17.25</v>
       </c>
-      <c r="Z25" s="18">
+      <c r="Z27" s="18">
         <v>-862</v>
       </c>
     </row>
-    <row r="26" spans="2:28" s="14" customFormat="1">
-      <c r="B26" s="13">
+    <row r="28" spans="2:28" s="14" customFormat="1">
+      <c r="B28" s="13">
         <v>41954</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C28" s="14">
         <v>2774.25</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D28" s="14">
         <v>2777.5</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E28" s="15">
         <v>0.35486111111111113</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F28" s="14">
         <v>2745.5</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G28" s="15">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H26" s="55"/>
-      <c r="I26" s="16">
+      <c r="H28" s="55">
+        <v>2747.75</v>
+      </c>
+      <c r="I28" s="16">
         <v>448339</v>
       </c>
-      <c r="J26" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="N26" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="P26" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q26" s="14">
-        <v>0</v>
-      </c>
-      <c r="S26" s="14">
+      <c r="J28" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>0</v>
+      </c>
+      <c r="S28" s="14">
         <v>2793</v>
       </c>
-      <c r="T26" s="14">
+      <c r="T28" s="14">
         <v>2779.75</v>
       </c>
-      <c r="U26" s="14">
+      <c r="U28" s="14">
         <v>2795.25</v>
       </c>
-      <c r="V26" s="14">
+      <c r="V28" s="14">
         <v>2764.5</v>
       </c>
-      <c r="X26" s="14">
+      <c r="X28" s="14">
         <v>8</v>
       </c>
-      <c r="Y26" s="14">
+      <c r="Y28" s="14">
         <v>-5.25</v>
       </c>
-      <c r="Z26" s="14">
+      <c r="Z28" s="14">
         <v>-262.5</v>
       </c>
-      <c r="AB26" s="14" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="2:28">
-      <c r="B27" s="2">
-        <v>41951</v>
-      </c>
-      <c r="C27">
-        <v>2793</v>
-      </c>
-      <c r="D27">
-        <v>2795.25</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0.35555555555555557</v>
-      </c>
-      <c r="F27">
-        <v>2777.25</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0.41944444444444445</v>
-      </c>
-      <c r="I27" s="5">
-        <v>404717</v>
-      </c>
-      <c r="J27" t="s">
-        <v>176</v>
-      </c>
-      <c r="L27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>2804.75</v>
-      </c>
-      <c r="T27">
-        <v>2809.25</v>
-      </c>
-      <c r="U27">
-        <v>2815.25</v>
-      </c>
-      <c r="V27">
-        <v>2795</v>
-      </c>
-      <c r="X27">
-        <v>8</v>
-      </c>
-      <c r="Y27">
-        <v>-2</v>
-      </c>
-      <c r="Z27">
-        <v>-100</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="2:28">
-      <c r="B28" s="2">
-        <v>41950</v>
-      </c>
-      <c r="C28">
-        <v>2804.75</v>
-      </c>
-      <c r="D28">
-        <v>2813.25</v>
-      </c>
-      <c r="E28" s="9">
-        <v>0.37152777777777773</v>
-      </c>
-      <c r="F28">
-        <v>2804.5</v>
-      </c>
-      <c r="G28" s="9">
-        <v>0.38680555555555557</v>
-      </c>
-      <c r="I28" s="5">
-        <v>321469</v>
-      </c>
-      <c r="J28" t="s">
-        <v>88</v>
-      </c>
-      <c r="L28" t="s">
-        <v>166</v>
-      </c>
-      <c r="N28" t="s">
-        <v>167</v>
-      </c>
-      <c r="P28" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>2779</v>
-      </c>
-      <c r="T28">
-        <v>2814</v>
-      </c>
-      <c r="U28">
-        <v>2815</v>
-      </c>
-      <c r="V28">
-        <v>2774.25</v>
-      </c>
-      <c r="X28">
-        <v>2</v>
-      </c>
-      <c r="Y28">
-        <v>-5</v>
-      </c>
-      <c r="Z28">
-        <v>-250</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>126</v>
+      <c r="AB28" s="14" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="2:28">
       <c r="B29" s="2">
-        <v>41949</v>
+        <v>41951</v>
       </c>
       <c r="C29">
-        <v>2779</v>
+        <v>2793</v>
       </c>
       <c r="D29">
-        <v>2792</v>
+        <v>2795.25</v>
       </c>
       <c r="E29" s="9">
-        <v>0.41250000000000003</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="F29">
-        <v>2774.25</v>
+        <v>2777.25</v>
       </c>
       <c r="G29" s="9">
-        <v>0.37847222222222227</v>
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="H29" s="46">
+        <v>2782.5</v>
       </c>
       <c r="I29" s="5">
-        <v>354715</v>
+        <v>404717</v>
       </c>
       <c r="J29" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="L29" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N29" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="P29" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="Q29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>2736.75</v>
+        <v>2804.75</v>
       </c>
       <c r="T29">
-        <v>2756</v>
+        <v>2809.25</v>
       </c>
       <c r="U29">
-        <v>2756</v>
+        <v>2815.25</v>
       </c>
       <c r="V29">
-        <v>2736.75</v>
+        <v>2795</v>
       </c>
       <c r="X29">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="2:28">
       <c r="B30" s="2">
-        <v>41948</v>
+        <v>41950</v>
       </c>
       <c r="C30">
-        <v>2736.75</v>
+        <v>2804.75</v>
       </c>
       <c r="D30">
-        <v>2751.75</v>
+        <v>2813.25</v>
       </c>
       <c r="E30" s="9">
-        <v>0.37361111111111112</v>
+        <v>0.37152777777777773</v>
       </c>
       <c r="F30">
-        <v>2736.75</v>
+        <v>2804.5</v>
       </c>
       <c r="G30" s="9">
-        <v>0.35416666666666669</v>
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="H30" s="46">
+        <v>2810.5</v>
       </c>
       <c r="I30" s="5">
-        <v>354715</v>
+        <v>321469</v>
       </c>
       <c r="J30" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="L30" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="N30" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="P30" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="S30">
-        <v>2727.5</v>
+        <v>2779</v>
       </c>
       <c r="T30">
-        <v>2740.25</v>
+        <v>2814</v>
       </c>
       <c r="U30">
-        <v>2743.75</v>
+        <v>2815</v>
       </c>
       <c r="V30">
-        <v>2717</v>
+        <v>2774.25</v>
       </c>
       <c r="X30">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y30">
-        <v>-12.5</v>
+        <v>-5</v>
       </c>
       <c r="Z30">
-        <v>-625</v>
+        <v>-250</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="2:28">
       <c r="B31" s="2">
-        <v>41947</v>
+        <v>41949</v>
       </c>
       <c r="C31">
-        <v>2727.5</v>
+        <v>2779</v>
       </c>
       <c r="D31">
-        <v>2733.25</v>
+        <v>2792</v>
       </c>
       <c r="E31" s="9">
-        <v>0.35833333333333334</v>
+        <v>0.41250000000000003</v>
       </c>
       <c r="F31">
-        <v>2717</v>
+        <v>2774.25</v>
       </c>
       <c r="G31" s="9">
-        <v>0.39097222222222222</v>
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="H31" s="46">
+        <v>2789.25</v>
       </c>
       <c r="I31" s="5">
-        <v>377277</v>
+        <v>354715</v>
       </c>
       <c r="J31" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="L31" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="N31" t="s">
-        <v>193</v>
+        <v>72</v>
       </c>
       <c r="P31" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>192</v>
+        <v>111</v>
+      </c>
+      <c r="Q31">
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>2751.5</v>
+        <v>2736.75</v>
       </c>
       <c r="T31">
-        <v>2722.75</v>
+        <v>2756</v>
       </c>
       <c r="U31">
-        <v>2756.5</v>
+        <v>2756</v>
       </c>
       <c r="V31">
-        <v>2699.5</v>
+        <v>2736.75</v>
       </c>
       <c r="X31">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Y31">
-        <v>10.25</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>512.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:28">
       <c r="B32" s="2">
+        <v>41948</v>
+      </c>
+      <c r="C32">
+        <v>2736.75</v>
+      </c>
+      <c r="D32">
+        <v>2751.75</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="F32">
+        <v>2736.75</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H32" s="46">
+        <v>2747.25</v>
+      </c>
+      <c r="I32" s="5">
+        <v>354715</v>
+      </c>
+      <c r="J32" t="s">
+        <v>117</v>
+      </c>
+      <c r="L32" t="s">
+        <v>118</v>
+      </c>
+      <c r="N32" t="s">
+        <v>120</v>
+      </c>
+      <c r="P32" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>2727.5</v>
+      </c>
+      <c r="T32">
+        <v>2740.25</v>
+      </c>
+      <c r="U32">
+        <v>2743.75</v>
+      </c>
+      <c r="V32">
+        <v>2717</v>
+      </c>
+      <c r="X32">
+        <v>10</v>
+      </c>
+      <c r="Y32">
+        <v>-12.5</v>
+      </c>
+      <c r="Z32">
+        <v>-625</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28">
+      <c r="B33" s="2">
+        <v>41947</v>
+      </c>
+      <c r="C33">
+        <v>2727.5</v>
+      </c>
+      <c r="D33">
+        <v>2733.25</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="F33">
+        <v>2717</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="H33" s="46">
+        <v>2732</v>
+      </c>
+      <c r="I33" s="5">
+        <v>377277</v>
+      </c>
+      <c r="J33" t="s">
+        <v>223</v>
+      </c>
+      <c r="L33" t="s">
+        <v>54</v>
+      </c>
+      <c r="N33" t="s">
+        <v>226</v>
+      </c>
+      <c r="P33" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>225</v>
+      </c>
+      <c r="S33">
+        <v>2751.5</v>
+      </c>
+      <c r="T33">
+        <v>2722.75</v>
+      </c>
+      <c r="U33">
+        <v>2756.5</v>
+      </c>
+      <c r="V33">
+        <v>2699.5</v>
+      </c>
+      <c r="X33">
+        <v>2</v>
+      </c>
+      <c r="Y33">
+        <v>10.25</v>
+      </c>
+      <c r="Z33">
+        <v>512.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28">
+      <c r="B34" s="2">
         <v>41944</v>
       </c>
-      <c r="C32">
+      <c r="C34">
         <v>2751.5</v>
       </c>
-      <c r="D32">
+      <c r="D34">
         <v>2756.5</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E34" s="9">
         <v>0.36388888888888887</v>
       </c>
-      <c r="F32">
+      <c r="F34">
         <v>2721.75</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G34" s="9">
         <v>0.40277777777777773</v>
       </c>
-      <c r="I32" s="5">
+      <c r="H34" s="46">
+        <v>2732.5</v>
+      </c>
+      <c r="I34" s="5">
         <v>566727</v>
       </c>
-      <c r="J32" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="J34" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34" t="s">
+        <v>54</v>
+      </c>
+      <c r="N34" t="s">
+        <v>57</v>
+      </c>
+      <c r="P34" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>2706</v>
+      </c>
+      <c r="T34">
+        <v>2738</v>
+      </c>
+      <c r="U34">
+        <v>2741.25</v>
+      </c>
+      <c r="V34">
+        <v>2705.5</v>
+      </c>
+      <c r="Z34">
+        <v>-1759</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28">
+      <c r="B35" s="2">
+        <v>41943</v>
+      </c>
+      <c r="C35">
+        <v>2720.5</v>
+      </c>
+      <c r="D35">
+        <v>2732.25</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F35">
+        <v>2707.75</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="H35" s="46">
+        <v>2730.25</v>
+      </c>
+      <c r="I35" s="5">
+        <v>567516</v>
+      </c>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L35" t="s">
+        <v>100</v>
+      </c>
+      <c r="N35" t="s">
+        <v>244</v>
+      </c>
+      <c r="P35" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q35">
         <v>6</v>
       </c>
-      <c r="N32" t="s">
-        <v>9</v>
-      </c>
-      <c r="P32" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q32">
-        <v>2</v>
-      </c>
-      <c r="S32">
-        <v>2706</v>
-      </c>
-      <c r="T32">
-        <v>2738</v>
-      </c>
-      <c r="U32">
-        <v>2741.25</v>
-      </c>
-      <c r="V32">
-        <v>2705.5</v>
-      </c>
-      <c r="Z32">
-        <v>-1759</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26">
-      <c r="B33" s="2">
-        <v>41943</v>
-      </c>
-      <c r="C33">
-        <v>2720.5</v>
-      </c>
-      <c r="D33">
-        <v>2732.25</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F33">
-        <v>2707.75</v>
-      </c>
-      <c r="G33" s="9">
-        <v>0.38055555555555554</v>
-      </c>
-      <c r="I33" s="5">
-        <v>567516</v>
-      </c>
-      <c r="J33" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33" t="s">
-        <v>58</v>
-      </c>
-      <c r="N33" t="s">
-        <v>211</v>
-      </c>
-      <c r="P33" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q33">
-        <v>6</v>
-      </c>
-      <c r="S33">
+      <c r="S35">
         <v>2710.5</v>
       </c>
-      <c r="T33">
+      <c r="T35">
         <v>2709.75</v>
       </c>
-      <c r="U33">
+      <c r="U35">
         <v>2736.5</v>
       </c>
-      <c r="V33">
+      <c r="V35">
         <v>2704.75</v>
       </c>
-      <c r="Z33">
+      <c r="Z35">
         <v>-391</v>
       </c>
     </row>
-    <row r="34" spans="2:26">
-      <c r="B34" s="2">
+    <row r="36" spans="2:28">
+      <c r="B36" s="2">
         <v>41942</v>
       </c>
-      <c r="C34">
+      <c r="C36">
         <v>2711.75</v>
       </c>
-      <c r="D34">
+      <c r="D36">
         <v>2729.25</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E36" s="9">
         <v>0.39930555555555558</v>
       </c>
-      <c r="F34">
+      <c r="F36">
         <v>2706.25</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G36" s="9">
         <v>0.3576388888888889</v>
       </c>
-      <c r="I34" s="5">
+      <c r="H36" s="46">
+        <v>2719.25</v>
+      </c>
+      <c r="I36" s="5">
         <v>517819</v>
       </c>
-      <c r="J34" t="s">
-        <v>169</v>
-      </c>
-      <c r="L34" t="s">
-        <v>168</v>
-      </c>
-      <c r="N34" t="s">
-        <v>171</v>
-      </c>
-      <c r="P34" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q34">
+      <c r="J36" t="s">
+        <v>96</v>
+      </c>
+      <c r="L36" t="s">
+        <v>95</v>
+      </c>
+      <c r="N36" t="s">
+        <v>203</v>
+      </c>
+      <c r="P36" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q36">
         <v>1</v>
       </c>
-      <c r="S34">
+      <c r="S36">
         <v>2641.25</v>
       </c>
-      <c r="T34">
+      <c r="T36">
         <v>2683.5</v>
       </c>
-      <c r="U34">
+      <c r="U36">
         <v>2683.5</v>
       </c>
-      <c r="V34">
+      <c r="V36">
         <v>2635.75</v>
       </c>
     </row>
-    <row r="35" spans="2:26">
-      <c r="B35" s="2">
+    <row r="37" spans="2:28">
+      <c r="B37" s="2">
         <v>41941</v>
       </c>
-      <c r="C35">
+      <c r="C37">
         <v>2641.25</v>
       </c>
-      <c r="D35">
+      <c r="D37">
         <v>2675.25</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E37" s="9">
         <v>0.37152777777777773</v>
       </c>
-      <c r="F35">
+      <c r="F37">
         <v>2635.75</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G37" s="9">
         <v>0.35416666666666669</v>
       </c>
-      <c r="I35" s="5">
+      <c r="H37" s="46">
+        <v>2650.75</v>
+      </c>
+      <c r="I37" s="5">
         <v>650925</v>
       </c>
-      <c r="J35" t="s">
-        <v>169</v>
-      </c>
-      <c r="L35" t="s">
-        <v>170</v>
-      </c>
-      <c r="N35" t="s">
-        <v>173</v>
-      </c>
-      <c r="P35" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="S35">
+      <c r="J37" t="s">
+        <v>96</v>
+      </c>
+      <c r="L37" t="s">
+        <v>97</v>
+      </c>
+      <c r="N37" t="s">
+        <v>205</v>
+      </c>
+      <c r="P37" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="S37">
         <v>2692.25</v>
       </c>
-      <c r="T35">
+      <c r="T37">
         <v>2638.75</v>
       </c>
-      <c r="U35">
+      <c r="U37">
         <v>2707</v>
       </c>
-      <c r="V35">
+      <c r="V37">
         <v>2603</v>
       </c>
-      <c r="Z35">
+      <c r="Z37">
         <v>1211</v>
       </c>
     </row>
-    <row r="36" spans="2:26">
-      <c r="Z36">
+    <row r="38" spans="2:28">
+      <c r="Z38">
         <v>-770</v>
       </c>
     </row>
-    <row r="39" spans="2:26">
-      <c r="Z39">
-        <f>SUM(Z13:Z36)</f>
+    <row r="41" spans="2:28">
+      <c r="Z41">
+        <f>SUM(Z15:Z38)</f>
         <v>-3096</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -4852,7 +5174,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData/>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -4864,10 +5186,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:B2"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4877,14 +5199,22 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
